--- a/Datasets/TestNN/TestNN.xlsx
+++ b/Datasets/TestNN/TestNN.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X185"/>
+  <dimension ref="A1:X176"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -735,7 +735,7 @@
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>ScienceDirect</t>
+          <t>Science Direct</t>
         </is>
       </c>
       <c r="T3" t="n">
@@ -1102,14 +1102,7 @@
         </is>
       </c>
       <c r="P6" t="inlineStr"/>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>not adapt to user,in the finding mention:Our study showed that there is no “one size fits all” solution,
-and that arguably the most important aspect of a guidance
-system for persons with cognitive impairments is that
-it be widely customizable and adaptive.</t>
-        </is>
-      </c>
+      <c r="Q6" t="inlineStr"/>
       <c r="R6" t="n">
         <v>1</v>
       </c>
@@ -1952,11 +1945,7 @@
           <t>Computational methods for the verification of adaptive control systems</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>In this paper, we present the design and development of a persuasive game for promoting physical activity and discouraging sedentariness. The game is based on the tree metaphor which links a player’s physical activity level (operationalized using step count) to the health of a tree. Thus, as the player becomes physically active (such as walking or running), the tree’s health improves. The tree withers if player’s physical activity level reduces. The game employs various persuasive strategies based on the Persuasive Systems Design (PSD) framework to boost players’ motivation and provide an enjoyable experience. We believe that our game will yield improved physical activity levels among adults by encouraging them to regularly engage in light-intensity activity (e.g., slow-walking), moderate-intensity activity (e.g., brisk-walking), and vigorous-intensity activity (e.g., running). By being physically active, players protect themselves from chronic health conditions and improve their emotional and mental well-being.,” 2020. doi: 10.1109/SeGAH49190.2020.9201637.</t>
-        </is>
-      </c>
+      <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr">
         <is>
@@ -2089,11 +2078,7 @@
         </is>
       </c>
       <c r="P15" t="inlineStr"/>
-      <c r="Q15" t="inlineStr">
-        <is>
-          <t>guidelines for tailoring persuasive mental health apps based on motivation types.</t>
-        </is>
-      </c>
+      <c r="Q15" t="inlineStr"/>
       <c r="R15" t="n">
         <v>1</v>
       </c>
@@ -2320,11 +2305,7 @@
         </is>
       </c>
       <c r="P17" t="inlineStr"/>
-      <c r="Q17" t="inlineStr">
-        <is>
-          <t>not have adaptive user interface</t>
-        </is>
-      </c>
+      <c r="Q17" t="inlineStr"/>
       <c r="R17" t="n">
         <v>1</v>
       </c>
@@ -3428,11 +3409,7 @@
         </is>
       </c>
       <c r="P26" t="inlineStr"/>
-      <c r="Q26" t="inlineStr">
-        <is>
-          <t>not mention for the adatpive components</t>
-        </is>
-      </c>
+      <c r="Q26" t="inlineStr"/>
       <c r="R26" t="n">
         <v>1</v>
       </c>
@@ -3476,11 +3453,7 @@
           <t>MAR-CPS: Measurable Augmented Reality for Prototyping Cyber-Physical Systems</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>Since cardiac diseases cause the major amount of money spent in medical care, IT solutions that support patients in the rehabilitation phase are desirable. Such systems can motivate and guide patients in order to exercise frequently and hence to avoid another cardiac event. Such telemedical applications have posses a very special and heterogeneous user group. Therefore User Centered Design is crucial. We present a system setup and user interface design that was prototypically build for this kind of patients. © 2011 Springer-Verlag Berlin Heidelberg.,” Communications in Computer and Information Science, vol. 127 CCIS. pp. 111–122, 2011. doi: 10.1007/978-3-642-18472-7_9.</t>
-        </is>
-      </c>
+      <c r="E27" t="inlineStr"/>
       <c r="F27" t="inlineStr"/>
       <c r="G27" t="inlineStr">
         <is>
@@ -4175,7 +4148,7 @@
       </c>
       <c r="S33" t="inlineStr">
         <is>
-          <t>SpringerLink</t>
+          <t>Springer Link</t>
         </is>
       </c>
       <c r="T33" t="n">
@@ -4398,7 +4371,7 @@
       </c>
       <c r="S35" t="inlineStr">
         <is>
-          <t>SpringerLink</t>
+          <t>Springer Link</t>
         </is>
       </c>
       <c r="T35" t="n">
@@ -5676,11 +5649,7 @@
         </is>
       </c>
       <c r="P46" t="inlineStr"/>
-      <c r="Q46" t="inlineStr">
-        <is>
-          <t>not have adaptive user interface</t>
-        </is>
-      </c>
+      <c r="Q46" t="inlineStr"/>
       <c r="R46" t="n">
         <v>1</v>
       </c>
@@ -6019,11 +5988,7 @@
         </is>
       </c>
       <c r="P49" t="inlineStr"/>
-      <c r="Q49" t="inlineStr">
-        <is>
-          <t>to improve the user interfaces and content of the tool</t>
-        </is>
-      </c>
+      <c r="Q49" t="inlineStr"/>
       <c r="R49" t="n">
         <v>1</v>
       </c>
@@ -6253,7 +6218,7 @@
       </c>
       <c r="S51" t="inlineStr">
         <is>
-          <t>SpringerLink</t>
+          <t>Springer Link</t>
         </is>
       </c>
       <c r="T51" t="n">
@@ -6845,11 +6810,7 @@
         </is>
       </c>
       <c r="P56" t="inlineStr"/>
-      <c r="Q56" t="inlineStr">
-        <is>
-          <t>review</t>
-        </is>
-      </c>
+      <c r="Q56" t="inlineStr"/>
       <c r="R56" t="n">
         <v>1</v>
       </c>
@@ -6960,11 +6921,7 @@
         </is>
       </c>
       <c r="P57" t="inlineStr"/>
-      <c r="Q57" t="inlineStr">
-        <is>
-          <t>theory-driven trigger messages.</t>
-        </is>
-      </c>
+      <c r="Q57" t="inlineStr"/>
       <c r="R57" t="n">
         <v>1</v>
       </c>
@@ -7175,11 +7132,7 @@
         </is>
       </c>
       <c r="P59" t="inlineStr"/>
-      <c r="Q59" t="inlineStr">
-        <is>
-          <t>not have adaptive user interface</t>
-        </is>
-      </c>
+      <c r="Q59" t="inlineStr"/>
       <c r="R59" t="n">
         <v>1</v>
       </c>
@@ -7275,17 +7228,13 @@
         </is>
       </c>
       <c r="P60" t="inlineStr"/>
-      <c r="Q60" t="inlineStr">
-        <is>
-          <t>same as the MED994</t>
-        </is>
-      </c>
+      <c r="Q60" t="inlineStr"/>
       <c r="R60" t="n">
         <v>1</v>
       </c>
       <c r="S60" t="inlineStr">
         <is>
-          <t>SpringerLink</t>
+          <t>Springer Link</t>
         </is>
       </c>
       <c r="T60" t="n">
@@ -7385,7 +7334,7 @@
       </c>
       <c r="S61" t="inlineStr">
         <is>
-          <t>ScienceDirect</t>
+          <t>Science Direct</t>
         </is>
       </c>
       <c r="T61" t="n">
@@ -7870,11 +7819,7 @@
         </is>
       </c>
       <c r="P65" t="inlineStr"/>
-      <c r="Q65" t="inlineStr">
-        <is>
-          <t>only have tailored messages to users</t>
-        </is>
-      </c>
+      <c r="Q65" t="inlineStr"/>
       <c r="R65" t="n">
         <v>1</v>
       </c>
@@ -8221,7 +8166,7 @@
       </c>
       <c r="S68" t="inlineStr">
         <is>
-          <t>ScienceDirect</t>
+          <t>Science Direct</t>
         </is>
       </c>
       <c r="T68" t="n">
@@ -8311,17 +8256,13 @@
         </is>
       </c>
       <c r="P69" t="inlineStr"/>
-      <c r="Q69" t="inlineStr">
-        <is>
-          <t>1. it's a plan</t>
-        </is>
-      </c>
+      <c r="Q69" t="inlineStr"/>
       <c r="R69" t="n">
         <v>1</v>
       </c>
       <c r="S69" t="inlineStr">
         <is>
-          <t>SpringerLink</t>
+          <t>Springer Link</t>
         </is>
       </c>
       <c r="T69" t="n">
@@ -8527,11 +8468,7 @@
         </is>
       </c>
       <c r="P71" t="inlineStr"/>
-      <c r="Q71" t="inlineStr">
-        <is>
-          <t>adapt to the elderly</t>
-        </is>
-      </c>
+      <c r="Q71" t="inlineStr"/>
       <c r="R71" t="n">
         <v>1</v>
       </c>
@@ -8633,7 +8570,7 @@
       </c>
       <c r="S72" t="inlineStr">
         <is>
-          <t>SpringerLink</t>
+          <t>Springer Link</t>
         </is>
       </c>
       <c r="T72" t="n">
@@ -8860,7 +8797,7 @@
       </c>
       <c r="S74" t="inlineStr">
         <is>
-          <t>SpringerLink</t>
+          <t>Springer Link</t>
         </is>
       </c>
       <c r="T74" t="n">
@@ -8960,7 +8897,7 @@
       </c>
       <c r="S75" t="inlineStr">
         <is>
-          <t>SpringerLink</t>
+          <t>Springer Link</t>
         </is>
       </c>
       <c r="T75" t="n">
@@ -9060,7 +8997,7 @@
       </c>
       <c r="S76" t="inlineStr">
         <is>
-          <t>SpringerLink</t>
+          <t>Springer Link</t>
         </is>
       </c>
       <c r="T76" t="n">
@@ -9102,11 +9039,7 @@
           <t>Combination of Simulation and Model-Checking for the Analysis of Autonomous Vehicles‚Äô Behaviors: A Case Study</t>
         </is>
       </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>People with Alzheimer’s Disease (AD) experience progressive degeneration of cognitive skills and the cumulative loss of short-term memory function. This severely impairs their ability to communicate with relatives and caregivers. The ‘dehumanizing’ effect that is engendered by the loss of communication skills, and the subsequent psychological and emotional distress experienced by people with AD and their caregivers are perhaps the most significant and detrimental psycho-social characteristics of AD. This paper demonstrates how our multidisciplinary, user-centred approach to design for computer-based assistive tools for people with AD can support progressive, nonpharmacological intervention and promote improved quality of life in dementia care environments.,” vol. 10, no. 1, pp. 12–23, 2007, doi: 10.2752/146069207789318018.</t>
-        </is>
-      </c>
+      <c r="E77" t="inlineStr"/>
       <c r="F77" t="inlineStr"/>
       <c r="G77" t="inlineStr">
         <is>
@@ -9246,11 +9179,7 @@
         </is>
       </c>
       <c r="P78" t="inlineStr"/>
-      <c r="Q78" t="inlineStr">
-        <is>
-          <t>adapt itself to any screen siz</t>
-        </is>
-      </c>
+      <c r="Q78" t="inlineStr"/>
       <c r="R78" t="n">
         <v>1</v>
       </c>
@@ -9601,7 +9530,7 @@
       </c>
       <c r="S81" t="inlineStr">
         <is>
-          <t>ScienceDirect</t>
+          <t>Science Direct</t>
         </is>
       </c>
       <c r="T81" t="n">
@@ -9829,7 +9758,7 @@
       </c>
       <c r="S83" t="inlineStr">
         <is>
-          <t>SpringerLink</t>
+          <t>Springer Link</t>
         </is>
       </c>
       <c r="T83" t="n">
@@ -9929,7 +9858,7 @@
       </c>
       <c r="S84" t="inlineStr">
         <is>
-          <t>SpringerLink</t>
+          <t>Springer Link</t>
         </is>
       </c>
       <c r="T84" t="n">
@@ -10029,7 +9958,7 @@
       </c>
       <c r="S85" t="inlineStr">
         <is>
-          <t>SpringerLink</t>
+          <t>Springer Link</t>
         </is>
       </c>
       <c r="T85" t="n">
@@ -10129,7 +10058,7 @@
       </c>
       <c r="S86" t="inlineStr">
         <is>
-          <t>SpringerLink</t>
+          <t>Springer Link</t>
         </is>
       </c>
       <c r="T86" t="n">
@@ -10229,7 +10158,7 @@
       </c>
       <c r="S87" t="inlineStr">
         <is>
-          <t>SpringerLink</t>
+          <t>Springer Link</t>
         </is>
       </c>
       <c r="T87" t="n">
@@ -10455,7 +10384,7 @@
       </c>
       <c r="S89" t="inlineStr">
         <is>
-          <t>SpringerLink</t>
+          <t>Springer Link</t>
         </is>
       </c>
       <c r="T89" t="n">
@@ -10565,11 +10494,7 @@
         </is>
       </c>
       <c r="P90" t="inlineStr"/>
-      <c r="Q90" t="inlineStr">
-        <is>
-          <t>for design approach</t>
-        </is>
-      </c>
+      <c r="Q90" t="inlineStr"/>
       <c r="R90" t="n">
         <v>1</v>
       </c>
@@ -10691,11 +10616,7 @@
         </is>
       </c>
       <c r="P91" t="inlineStr"/>
-      <c r="Q91" t="inlineStr">
-        <is>
-          <t>personally tailored physical-activity plan</t>
-        </is>
-      </c>
+      <c r="Q91" t="inlineStr"/>
       <c r="R91" t="n">
         <v>1</v>
       </c>
@@ -10909,11 +10830,7 @@
         </is>
       </c>
       <c r="P93" t="inlineStr"/>
-      <c r="Q93" t="inlineStr">
-        <is>
-          <t>1. the attention catched is in multi display</t>
-        </is>
-      </c>
+      <c r="Q93" t="inlineStr"/>
       <c r="R93" t="n">
         <v>1</v>
       </c>
@@ -11033,11 +10950,7 @@
         </is>
       </c>
       <c r="P94" t="inlineStr"/>
-      <c r="Q94" t="inlineStr">
-        <is>
-          <t>framework</t>
-        </is>
-      </c>
+      <c r="Q94" t="inlineStr"/>
       <c r="R94" t="n">
         <v>1</v>
       </c>
@@ -11407,11 +11320,7 @@
         </is>
       </c>
       <c r="P97" t="inlineStr"/>
-      <c r="Q97" t="inlineStr">
-        <is>
-          <t>not health</t>
-        </is>
-      </c>
+      <c r="Q97" t="inlineStr"/>
       <c r="R97" t="n">
         <v>1</v>
       </c>
@@ -11692,11 +11601,7 @@
           <t>Safety reinforced driving</t>
         </is>
       </c>
-      <c r="E100" t="inlineStr">
-        <is>
-          <t>Computer games are a promising tool to support rehabilitation at home. It is widely recognized that rehabilitation games should (i) be nicely integrated in general-purpose rehabilitation stations, (ii) adhere to the constraints posed by the clinical protocols, (iii) involve movements that are functional to reach the rehabilitation goal, and (iv) adapt to the patients’ current status and progress. However, the vast majority of existing rehabilitation games are stand-alone applications (not integrated in a patient station), that rarely adapt to the patients’ condition. In this paper, we present the first prototype of the patient rehabilitation station we developed that integrates video games for rehabilitation with methods of computational intelligence both for on-line monitoring the movements’ execution during the games and for adapting the gameplay to the patients’ status. The station employs a fuzzy system to monitor the exercises execution, on-line, according to the clinical constraints defined by the therapist at configuration time, and to provide direct feedback to the patients. At the same time, it applies real-time adaptation (using the Quest Bayesian adaptive approach) to modify the gameplay according both (i) to the patient current performance and progress and (ii) to the exercise plan specified by the therapist. Finally, we present one of the games available in our patient stations (designed in tight cooperation with therapists) that integrates monitoring functionalities with in-game self-adaptation to provide the best support possible to patients during their routine. © 2012 IEEE.,” in 2012 IEEE Conference on Computational Intelligence and Games, CIG 2012, 2012, pp. 179–186. doi: 10.1109/CIG.2012.6374154.</t>
-        </is>
-      </c>
+      <c r="E100" t="inlineStr"/>
       <c r="F100" t="inlineStr"/>
       <c r="G100" t="inlineStr">
         <is>
@@ -12155,7 +12060,7 @@
       </c>
       <c r="S104" t="inlineStr">
         <is>
-          <t>SpringerLink</t>
+          <t>Springer Link</t>
         </is>
       </c>
       <c r="T104" t="n">
@@ -12379,7 +12284,7 @@
       </c>
       <c r="S106" t="inlineStr">
         <is>
-          <t>SpringerLink</t>
+          <t>Springer Link</t>
         </is>
       </c>
       <c r="T106" t="n">
@@ -12416,477 +12321,39 @@
           <t>TestNN</t>
         </is>
       </c>
-      <c r="D107" t="inlineStr"/>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>Outline safety case for the use of autonomous UAVs in unsegregated airspace</t>
+        </is>
+      </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Caregiver anecdotes attest that music and photographs play an important role for family members diagnosed with Alzheimer’s disease (AD), even those with severe AD. Tablets and iPads, which are prevalent, can be utilized with dementia patients in portraying favorite music and family photographs via apps developed in close partnership with geriatric facilities. Anecdotal research has shown that non-verbal late-stage dementia patients have become stimulated when iPods played their beloved tunes. There is an unmet need in geriatric facilities for stimulating dementia patients, as well providing hard-core data for proving increased cognitive abilities with technology. Technology can help bridge the gap between patients and staff to improve the quality of life for the cognitively impaired. This study addresses cognitive functioning and quality of life for people diagnosed with dementia via technology. In recent times, the influx of older adults suffering from Alzheimer’s or dementia related illness has impacted the U.S. Healthcare system. Cognition significantly declines in older adults with AD or dementia over the course of the disease, causing most to be dependent on caregivers, thus routinely institutionalized. Caregivers are often required to focus their attention on addressing the agitation or discomfort of the AD or dementia patient. Research has shown that technology instruments such as iPods, help stimulate those with dementia. This study focuses on innovative devices such as iPads and tablets, which are mainstream and easy to use, cannot only help determine stage of dementia, but also provide stimulation to improve cognitive functioning. It is hoped that this research will analyze that specially created apps and existing assistive software can be used to decrease the symptoms and improve cognition of older adults suffering from AD or other dementia related diseases. Via service-learning courses, students developed an easy-to-use application for tablets to help older adults with disabilities more readily use the technology. Student programmers produced apps and performed usability tests with the dementia patients, as well as met with geriatric facility personnel to produce application software that meets the patients, family, and caregiver needs and expectations. For example, a student term project produced an application entitled Candoo that utilizes Google’s voice recognition and synthesis engine to navigate the web, provide the weather, and supply …,” 2013. doi: 10.1109/LISAT.2013.6578252.</t>
+          <t>Uninhibited air vehicles (UAVs) are routinely deployed in segregated airspace, however, due to organisational difficulty they are only partially integrated with normal air traffic in exceptional circumstances. This presentation examines the correct operation of UAV's software and the formal analysis of the SOAR agent programming language as contributions to the safe deployment of future military UAVs in unsegregated airspace.</t>
         </is>
       </c>
       <c r="F107" t="inlineStr"/>
-      <c r="G107" t="inlineStr"/>
-      <c r="H107" t="inlineStr"/>
-      <c r="I107" t="inlineStr"/>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>Pygott, C.</t>
+        </is>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>2005 The IEE Forum on Autonomous Systems (Ref. No. 2005/11271)</t>
+        </is>
+      </c>
+      <c r="I107" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1049/ic:20050475</t>
+        </is>
+      </c>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="inlineStr">
-        <is>
-          <t>Excluded</t>
-        </is>
-      </c>
-      <c r="N107" t="inlineStr">
-        <is>
-          <t>Excluded</t>
-        </is>
-      </c>
-      <c r="O107" t="inlineStr">
-        <is>
-          <t>new_screen</t>
-        </is>
-      </c>
-      <c r="P107" t="inlineStr"/>
-      <c r="Q107" t="inlineStr"/>
-      <c r="R107" t="n">
-        <v>1</v>
-      </c>
-      <c r="S107" t="inlineStr"/>
-      <c r="T107" t="inlineStr"/>
-      <c r="U107" t="inlineStr"/>
-      <c r="V107" t="inlineStr"/>
-      <c r="W107" t="inlineStr"/>
-      <c r="X107" t="inlineStr"/>
-    </row>
-    <row r="108">
-      <c r="A108" s="1" t="n">
-        <v>106</v>
-      </c>
-      <c r="B108" t="inlineStr"/>
-      <c r="C108" t="inlineStr">
-        <is>
-          <t>TestNN</t>
-        </is>
-      </c>
-      <c r="D108" t="inlineStr"/>
-      <c r="E108" t="inlineStr">
-        <is>
-          <t>The present paper proposes a new adaptive smart kitchen environment able to support different users with several typologies of impairment (i.e., visual, motor, cognitive) in performing cooking activities. This system is managed through an adaptive user interface, which guides the user in food preparation according to users’ capabilities and needs and permits household appliances controlling. Results of a preliminary usability evaluation has shown that the proposed solution is accessible and highly usable for users with some limitations such elderly with mild to moderate dementia and adult people with moderate retinopathy and rheumatoid arthritis.,” in ACM International Conference Proceeding Series, 2016, vol. 29-June-2016. doi: 10.1145/2910674.2910678.</t>
-        </is>
-      </c>
-      <c r="F108" t="inlineStr"/>
-      <c r="G108" t="inlineStr"/>
-      <c r="H108" t="inlineStr"/>
-      <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="inlineStr">
-        <is>
-          <t>Included</t>
-        </is>
-      </c>
-      <c r="N108" t="inlineStr">
-        <is>
-          <t>Included</t>
-        </is>
-      </c>
-      <c r="O108" t="inlineStr">
-        <is>
-          <t>new_screen</t>
-        </is>
-      </c>
-      <c r="P108" t="inlineStr"/>
-      <c r="Q108" t="inlineStr"/>
-      <c r="R108" t="n">
-        <v>1</v>
-      </c>
-      <c r="S108" t="inlineStr"/>
-      <c r="T108" t="inlineStr"/>
-      <c r="U108" t="inlineStr"/>
-      <c r="V108" t="inlineStr"/>
-      <c r="W108" t="inlineStr"/>
-      <c r="X108" t="inlineStr"/>
-    </row>
-    <row r="109">
-      <c r="A109" s="1" t="n">
-        <v>107</v>
-      </c>
-      <c r="B109" t="inlineStr"/>
-      <c r="C109" t="inlineStr">
-        <is>
-          <t>TestNN</t>
-        </is>
-      </c>
-      <c r="D109" t="inlineStr"/>
-      <c r="E109" t="inlineStr">
-        <is>
-          <t>Autism Spectrum Disorder (ASD) individuals experience many troubles in communication and lag in social improvement. In this significant circumstance, the appearance of smart technologies has kept promising success regarding Autism Spectrum Disorder (ASD). Many socio-developmental mobile applications have been created in developed countries. In contrast, there are no such applications in developing countries like Bangladesh in native content. In this paper, an Android-based mobile application named HELLO is designed with the fundamental thought of Picture Exchange Communication System (PECS) in the Bangla language. This application aims to improve the socio-communicational learnability of autism individuals in Bangladesh. It is expected that our application can be brilliant support to autism individuals, also included the people who endure non-verbal inconveniences. The outcome of this application demonstrates a positive streamline to the improvement in communicating with others.</t>
-        </is>
-      </c>
-      <c r="F109" t="inlineStr"/>
-      <c r="G109" t="inlineStr"/>
-      <c r="H109" t="inlineStr"/>
-      <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="inlineStr">
-        <is>
-          <t>Excluded</t>
-        </is>
-      </c>
-      <c r="N109" t="inlineStr">
-        <is>
-          <t>Excluded</t>
-        </is>
-      </c>
-      <c r="O109" t="inlineStr">
-        <is>
-          <t>new_screen</t>
-        </is>
-      </c>
-      <c r="P109" t="inlineStr"/>
-      <c r="Q109" t="inlineStr"/>
-      <c r="R109" t="n">
-        <v>1</v>
-      </c>
-      <c r="S109" t="inlineStr"/>
-      <c r="T109" t="inlineStr"/>
-      <c r="U109" t="inlineStr"/>
-      <c r="V109" t="inlineStr"/>
-      <c r="W109" t="inlineStr"/>
-      <c r="X109" t="inlineStr"/>
-    </row>
-    <row r="110">
-      <c r="A110" s="1" t="n">
-        <v>108</v>
-      </c>
-      <c r="B110" t="inlineStr"/>
-      <c r="C110" t="inlineStr">
-        <is>
-          <t>TestNN</t>
-        </is>
-      </c>
-      <c r="D110" t="inlineStr"/>
-      <c r="E110" t="inlineStr">
-        <is>
-          <t>Purpose: The aim of this project is to report on a mobile application which has integrated Augmented and Alternative Communication and video modeling approaches. A usability testing has been conducted on the developed application. Design/methodology/approach: The authors have developed a mobile application, AutiAct. In order to do so, an interview has been conducted with teachers. Observations have been made with 4 ASD children aged 7 to 12 years, each of whom has different types of severity, while usability tests and interview questions have been conducted with 3 teachers from the National Autism Society of Malaysia (NASOM) to test the effectiveness of AutiAct. Findings: A mobile application, AutiAct, has been developed through the introduction of video modeling and Augmentative Alternative Communication approaches to assist autistic children in their everyday routine. The procedure in the application is simple and can be followed step by step for autistic children. Based on the testing, all the respondents have 100% agreed that AutiAct is an appropriate tool to assist and enhance autism children with their daily life skills. Results also have shown that video modelling and AAC are an important tool to be used to improve the abilities of autistic children. Practical implications: Results have shown that AutiAct is reliable to help autistic children improve their independent skills so that they will depend less on their parents as they grow older and that it also embeds a character building for autistic children to help them shape their personality and characteristics. [ABSTRACT FROM AUTHOR],” vol. 12, no. 4, pp. 1–11, 2020, [Online]. Available: http://search.ebscohost.com/login.aspx?direct=true&amp;db=bth&amp;AN=147933777&amp;site=ehost-live</t>
-        </is>
-      </c>
-      <c r="F110" t="inlineStr"/>
-      <c r="G110" t="inlineStr"/>
-      <c r="H110" t="inlineStr"/>
-      <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="inlineStr">
-        <is>
-          <t>Excluded</t>
-        </is>
-      </c>
-      <c r="N110" t="inlineStr">
-        <is>
-          <t>Excluded</t>
-        </is>
-      </c>
-      <c r="O110" t="inlineStr">
-        <is>
-          <t>new_screen</t>
-        </is>
-      </c>
-      <c r="P110" t="inlineStr"/>
-      <c r="Q110" t="inlineStr"/>
-      <c r="R110" t="n">
-        <v>1</v>
-      </c>
-      <c r="S110" t="inlineStr"/>
-      <c r="T110" t="inlineStr"/>
-      <c r="U110" t="inlineStr"/>
-      <c r="V110" t="inlineStr"/>
-      <c r="W110" t="inlineStr"/>
-      <c r="X110" t="inlineStr"/>
-    </row>
-    <row r="111">
-      <c r="A111" s="1" t="n">
-        <v>109</v>
-      </c>
-      <c r="B111" t="inlineStr"/>
-      <c r="C111" t="inlineStr">
-        <is>
-          <t>TestNN</t>
-        </is>
-      </c>
-      <c r="D111" t="inlineStr"/>
-      <c r="E111" t="inlineStr">
-        <is>
-          <t>Objectives: We developed an adaptive computer assistant for the supervision of diabetics’ self-care, to support limiting illness and need for acute treatment, and improve health literacy. This assistant monitors self-care activities logged in the patient’s electronic diary. Accordingly, it provides context-aware feedback. The objective was to evaluate whether older adults in general can make use of the computer assistant and to compare an adaptive computer assistant with a fixed one, concerning its usability and contribution to health literacy. Methods: We conducted a laboratory experiment in the Georgia Tech Aware Home wherein 28 older adults participated in a usability evaluation of the computer assistant, while engaged in scenarios reflecting normal and health-critical situations. We evaluated the assistant on effectiveness, efficiency, satisfaction, and educational value. Finally, we studied the moderating effects of the subjects’ personal characteristics. Results: Logging self-care tasks and receiving feedback from the computer assistant enhanced the subjects’ knowledge of diabetes. The adaptive assistant was more effective in dealing with normal and health-critical situations, and, generally, it led to more time efficiency. Subjects’ personal characteristics had substantial effects on the effectiveness and efficiency of the two computer assistants. Conclusions: Older adults were able to use the adoptive computer assistant. In addition, it had a positive effect on the development of health literacy. The assistant has the potential to support older diabetics’ self care while maintaining quality of life. © 2008 Schattauer GmbH.,” vol. 47, no. 1, pp. 82–88, 2008, doi: 10.3414/ME9105.</t>
-        </is>
-      </c>
-      <c r="F111" t="inlineStr"/>
-      <c r="G111" t="inlineStr"/>
-      <c r="H111" t="inlineStr"/>
-      <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="inlineStr">
-        <is>
-          <t>Included</t>
-        </is>
-      </c>
-      <c r="N111" t="inlineStr">
-        <is>
-          <t>Included</t>
-        </is>
-      </c>
-      <c r="O111" t="inlineStr">
-        <is>
-          <t>new_screen</t>
-        </is>
-      </c>
-      <c r="P111" t="inlineStr"/>
-      <c r="Q111" t="inlineStr"/>
-      <c r="R111" t="n">
-        <v>1</v>
-      </c>
-      <c r="S111" t="inlineStr"/>
-      <c r="T111" t="inlineStr"/>
-      <c r="U111" t="inlineStr"/>
-      <c r="V111" t="inlineStr"/>
-      <c r="W111" t="inlineStr"/>
-      <c r="X111" t="inlineStr"/>
-    </row>
-    <row r="112">
-      <c r="A112" s="1" t="n">
-        <v>110</v>
-      </c>
-      <c r="B112" t="inlineStr"/>
-      <c r="C112" t="inlineStr">
-        <is>
-          <t>TestNN</t>
-        </is>
-      </c>
-      <c r="D112" t="inlineStr"/>
-      <c r="E112" t="inlineStr">
-        <is>
-          <t>Childhood obesity has now reached an alarming level among children. It affects one out of every ten children all over the world. While in Malaysia, overweight child is 38 percent of the child population. If it is not effectively curbed, childhood obesity will cause many problems. Previous studies have shown that parents are responsible for their children’s well-being and their involvement is the most influential treatment to childhood obesity. With the advent of mobile technology, various mobile apps have been developed to manage people’s daily lives. This paper elaborates on the development of the BMI monitor app, a mobile application which is intended to be used by parents to monitor their children’s Body Mass Index (BMI). It uses the BMI Percentile method which is recommended by pediatricians worldwide. This app enables parents to store all the BMI records of the children and also provides advices to help parents to deal with the childhood obesity problems. This paper also discusses on the outcome of an evaluation that has been conducted among a sample of parents towards the use of the app. It is hoped that the use of the app will ease the parents in monitoring their children’s BMI status and eventually formed them to be more responsible parents.,” vol. 96, no. 1–2, pp. 367–376, 2016.</t>
-        </is>
-      </c>
-      <c r="F112" t="inlineStr"/>
-      <c r="G112" t="inlineStr"/>
-      <c r="H112" t="inlineStr"/>
-      <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="inlineStr">
-        <is>
-          <t>Excluded</t>
-        </is>
-      </c>
-      <c r="N112" t="inlineStr">
-        <is>
-          <t>Excluded</t>
-        </is>
-      </c>
-      <c r="O112" t="inlineStr">
-        <is>
-          <t>new_screen</t>
-        </is>
-      </c>
-      <c r="P112" t="inlineStr"/>
-      <c r="Q112" t="inlineStr"/>
-      <c r="R112" t="n">
-        <v>1</v>
-      </c>
-      <c r="S112" t="inlineStr"/>
-      <c r="T112" t="inlineStr"/>
-      <c r="U112" t="inlineStr"/>
-      <c r="V112" t="inlineStr"/>
-      <c r="W112" t="inlineStr"/>
-      <c r="X112" t="inlineStr"/>
-    </row>
-    <row r="113">
-      <c r="A113" s="1" t="n">
-        <v>111</v>
-      </c>
-      <c r="B113" t="inlineStr"/>
-      <c r="C113" t="inlineStr">
-        <is>
-          <t>TestNN</t>
-        </is>
-      </c>
-      <c r="D113" t="inlineStr"/>
-      <c r="E113" t="inlineStr">
-        <is>
-          <t>This paper describes an interdisciplinary approach towards a framework for personalized, game-based training programs for elderly and handicapped people. Adaptation and personalization are proposed as a way to increase the physiological training effects of game-based training programs (exergames). Hereby, the diversity of users and a broad range of physiological handicaps are considered. The framework is based on scientific training programs enhanced by technical methods and concepts for personalized exergames. This includes an authoring environment (StoryTec) which supports game designers and domain experts (sport scientists, medical doctors, therapists, etc.) in the development process and the (personalized) configuration of such exergames. Two prototypically implemented applications (ErgoActive and BalanceFit) demonstrate the usability and adaptation of the underlying training and game concepts for different user groups and provide indicators of the effectiveness and efficiency of the generic framework for particular user groups. For instance, ErgoActive is applicable for people of all ages and both trained and untrained users by being able to provide personalized training levels to improve endurance. Similarly, BalanceFit is useful both for wheelchair and walking frame users in order to maintain and possibly even increase their balance, strength and muscular coordination.</t>
-        </is>
-      </c>
-      <c r="F113" t="inlineStr"/>
-      <c r="G113" t="inlineStr"/>
-      <c r="H113" t="inlineStr"/>
-      <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="inlineStr">
-        <is>
-          <t>Included</t>
-        </is>
-      </c>
-      <c r="N113" t="inlineStr"/>
-      <c r="O113" t="inlineStr">
-        <is>
-          <t>new_screen</t>
-        </is>
-      </c>
-      <c r="P113" t="inlineStr"/>
-      <c r="Q113" t="inlineStr"/>
-      <c r="R113" t="n">
-        <v>1</v>
-      </c>
-      <c r="S113" t="inlineStr"/>
-      <c r="T113" t="inlineStr"/>
-      <c r="U113" t="inlineStr"/>
-      <c r="V113" t="inlineStr"/>
-      <c r="W113" t="inlineStr"/>
-      <c r="X113" t="inlineStr"/>
-    </row>
-    <row r="114">
-      <c r="A114" s="1" t="n">
-        <v>112</v>
-      </c>
-      <c r="B114" t="inlineStr"/>
-      <c r="C114" t="inlineStr">
-        <is>
-          <t>TestNN</t>
-        </is>
-      </c>
-      <c r="D114" t="inlineStr"/>
-      <c r="E114" t="inlineStr">
-        <is>
-          <t>Personal, mobile displays, such as those on mobile phones, are ubiquitous, yet for the most part, underutilized. We present results from a field experiment that investigated the effectiveness of these displays as a means for improving awareness of daily life (in our case, self-monitoring of physical activity). Twenty-eight participants in three experimental conditions used our UbiFit system for a period of three months in their day-to-day lives over the winter holiday season. Our results show, for example, that participants who had an awareness display were able to maintain their physical activity level (even during the holidays), while the level of physical activity for participants who did not have an awareness display dropped significantly. We discuss our results and their general implications for the use of everyday mobile devices as awareness displays.</t>
-        </is>
-      </c>
-      <c r="F114" t="inlineStr"/>
-      <c r="G114" t="inlineStr"/>
-      <c r="H114" t="inlineStr"/>
-      <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="inlineStr">
-        <is>
-          <t>Included</t>
-        </is>
-      </c>
-      <c r="N114" t="inlineStr"/>
-      <c r="O114" t="inlineStr">
-        <is>
-          <t>new_screen</t>
-        </is>
-      </c>
-      <c r="P114" t="inlineStr"/>
-      <c r="Q114" t="inlineStr"/>
-      <c r="R114" t="n">
-        <v>1</v>
-      </c>
-      <c r="S114" t="inlineStr"/>
-      <c r="T114" t="inlineStr"/>
-      <c r="U114" t="inlineStr"/>
-      <c r="V114" t="inlineStr"/>
-      <c r="W114" t="inlineStr"/>
-      <c r="X114" t="inlineStr"/>
-    </row>
-    <row r="115">
-      <c r="A115" s="1" t="n">
-        <v>113</v>
-      </c>
-      <c r="B115" t="inlineStr"/>
-      <c r="C115" t="inlineStr">
-        <is>
-          <t>TestNN</t>
-        </is>
-      </c>
-      <c r="D115" t="inlineStr"/>
-      <c r="E115" t="inlineStr">
-        <is>
-          <t>A sedentary lifestyle is a contributing factor to chronic diseases, and it is often correlated with obesity. To promote an increase in physical activity, we created a social computer game, Fish’n’Steps, which links a player’s daily foot step count to the growth and activity of an animated virtual character, a fish in a fish tank. As further encouragement, some of the players’ fish tanks included other players’ fish, thereby creating an environment of both cooperation and competition. In a fourteen-week study with nineteen participants, the game served as a catalyst for promoting exercise and for improving game players’ attitudes towards physical activity. Furthermore, although most player’s enthusiasm in the game decreased after the game’s first two weeks, analyzing the results using Prochaska’s Transtheoretical Model of Behavioral Change suggests that individuals had, by that time, established new routines that led to healthier patterns of physical activity in their daily lives. Lessons learned from this study underscore the value of such games to encourage rather than provide negative reinforcement, especially when individuals are not meeting their own expectations, to foster long-term behavioral change.</t>
-        </is>
-      </c>
-      <c r="F115" t="inlineStr"/>
-      <c r="G115" t="inlineStr"/>
-      <c r="H115" t="inlineStr"/>
-      <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="inlineStr">
-        <is>
-          <t>Included</t>
-        </is>
-      </c>
-      <c r="N115" t="inlineStr"/>
-      <c r="O115" t="inlineStr">
-        <is>
-          <t>new_screen</t>
-        </is>
-      </c>
-      <c r="P115" t="inlineStr"/>
-      <c r="Q115" t="inlineStr"/>
-      <c r="R115" t="n">
-        <v>1</v>
-      </c>
-      <c r="S115" t="inlineStr"/>
-      <c r="T115" t="inlineStr"/>
-      <c r="U115" t="inlineStr"/>
-      <c r="V115" t="inlineStr"/>
-      <c r="W115" t="inlineStr"/>
-      <c r="X115" t="inlineStr"/>
-    </row>
-    <row r="116">
-      <c r="A116" s="1" t="n">
-        <v>114</v>
-      </c>
-      <c r="B116" t="inlineStr"/>
-      <c r="C116" t="inlineStr">
-        <is>
-          <t>TestNN</t>
-        </is>
-      </c>
-      <c r="D116" t="inlineStr">
-        <is>
-          <t>Outline safety case for the use of autonomous UAVs in unsegregated airspace</t>
-        </is>
-      </c>
-      <c r="E116" t="inlineStr">
-        <is>
-          <t>Uninhibited air vehicles (UAVs) are routinely deployed in segregated airspace, however, due to organisational difficulty they are only partially integrated with normal air traffic in exceptional circumstances. This presentation examines the correct operation of UAV's software and the formal analysis of the SOAR agent programming language as contributions to the safe deployment of future military UAVs in unsegregated airspace.</t>
-        </is>
-      </c>
-      <c r="F116" t="inlineStr"/>
-      <c r="G116" t="inlineStr">
-        <is>
-          <t>Pygott, C.</t>
-        </is>
-      </c>
-      <c r="H116" t="inlineStr">
-        <is>
-          <t>2005 The IEE Forum on Autonomous Systems (Ref. No. 2005/11271)</t>
-        </is>
-      </c>
-      <c r="I116" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1049/ic:20050475</t>
-        </is>
-      </c>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr">
+      <c r="K107" t="inlineStr">
         <is>
           <t>13 pp.-</t>
         </is>
       </c>
-      <c r="L116" t="inlineStr">
+      <c r="L107" t="inlineStr">
         <is>
           <t>@INPROCEEDINGS{1574597,
     author = "Pygott, C.",
@@ -12904,102 +12371,102 @@
 }</t>
         </is>
       </c>
-      <c r="M116" t="inlineStr">
+      <c r="M107" t="inlineStr">
         <is>
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N116" t="inlineStr">
+      <c r="N107" t="inlineStr">
         <is>
           <t>Excluded</t>
         </is>
       </c>
-      <c r="O116" t="inlineStr">
+      <c r="O107" t="inlineStr">
         <is>
           <t>snowballing</t>
         </is>
       </c>
-      <c r="P116" t="inlineStr"/>
-      <c r="Q116" t="inlineStr">
+      <c r="P107" t="inlineStr"/>
+      <c r="Q107" t="inlineStr">
         <is>
           <t>Exclusion: full-text is not available, not peer-reviewed, only have slides</t>
         </is>
       </c>
-      <c r="R116" t="n">
+      <c r="R107" t="n">
         <v>1</v>
       </c>
-      <c r="S116" t="inlineStr">
+      <c r="S107" t="inlineStr">
         <is>
           <t>Scopus Signed In</t>
         </is>
       </c>
-      <c r="T116" t="n">
+      <c r="T107" t="n">
         <v>2005</v>
       </c>
-      <c r="U116" t="inlineStr">
+      <c r="U107" t="inlineStr">
         <is>
           <t>Outline safety case for the use of autonomous UAVs in unsegregated airspace</t>
         </is>
       </c>
-      <c r="V116" t="inlineStr">
+      <c r="V107" t="inlineStr">
         <is>
           <t>https://ieeexplore.ieee.org/document/1574597</t>
         </is>
       </c>
-      <c r="W116" t="inlineStr">
+      <c r="W107" t="inlineStr">
         <is>
           <t>IET</t>
         </is>
       </c>
-      <c r="X116" t="inlineStr">
+      <c r="X107" t="inlineStr">
         <is>
           <t>nan; Keywords; References</t>
         </is>
       </c>
     </row>
-    <row r="117">
-      <c r="A117" s="1" t="n">
-        <v>115</v>
-      </c>
-      <c r="B117" t="inlineStr"/>
-      <c r="C117" t="inlineStr">
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr"/>
+      <c r="C108" t="inlineStr">
         <is>
           <t>TestNN</t>
         </is>
       </c>
-      <c r="D117" t="inlineStr">
+      <c r="D108" t="inlineStr">
         <is>
           <t>Adaptive verification for an on-line learning neural-based flight control system</t>
         </is>
       </c>
-      <c r="E117" t="inlineStr">
+      <c r="E108" t="inlineStr">
         <is>
           <t>This paper presents a complex adaptive systems approach for the verification of an adaptive, online learning, sigma-pi neural network that is used for the Intelligent Flight Control System (IFCS) that has the potential of commercial aviation application. This paper reports on the partial completion of my doctoral dissertation proposal at Nova Southeastern University, in the Graduate School of Computer and Information Sciences. The most significant shortcoming of the prior and current approaches to verifying adaptive neural networks is the application of linear approaches to a non-linear problem. The project will use a MatLab simulation of the sigma-pi adaptive neural network and an aircraft simulation to fly a series of simulated flight tests. As a result of the flight simulations, a statistical analysis of the neural network weights is performed as input to both a complexity analysis and a neural network rule extraction analysis. Complex adaptive methods are a novel approach to overcome previous linear analysis limitations. Future work will be required to analyze emergent behavior of the neural network weights to show stability and convergence characteristics. Advances in computational power and neural network techniques for estimating aerodynamic stability and control derivatives provide opportunity for real-time adaptive control. New verification techniques are needed that substantially increases trustworthiness in the use of these neural network systems in life critical systems. Verification of neural-based IFCS is currently an urgent and significant research and engineering topic since these systems are being looked upon as a new approach for aircraft survivability, for both commercial and military.</t>
         </is>
       </c>
-      <c r="F117" t="inlineStr">
+      <c r="F108" t="inlineStr">
         <is>
           <t>Adaptive systems; Aerodynamics; Air traffic control; Computer simulation; Flight dynamics; Learning systems; Neural networks; Online systems; Statistical methods; Intelligent Flight Control System (IFCS); MatLab simulation; Non-linear problem; Rule extraction analysis; Civil aviation</t>
         </is>
       </c>
-      <c r="G117" t="inlineStr">
+      <c r="G108" t="inlineStr">
         <is>
           <t>Broderick, Ronald L.</t>
         </is>
       </c>
-      <c r="H117" t="inlineStr">
+      <c r="H108" t="inlineStr">
         <is>
           <t>AIAA/IEEE Digital Avionics Systems Conference - Proceedings</t>
         </is>
       </c>
-      <c r="I117" t="inlineStr">
+      <c r="I108" t="inlineStr">
         <is>
           <t>https://doi.org/10.1109/DASC.2005.1563392</t>
         </is>
       </c>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr">
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="inlineStr">
         <is>
           <t>@CONFERENCE{Broderick2005,
     author = "Broderick, Ronald L.",
@@ -13023,484 +12490,484 @@
 }</t>
         </is>
       </c>
-      <c r="M117" t="inlineStr">
+      <c r="M108" t="inlineStr">
         <is>
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N117" t="inlineStr">
+      <c r="N108" t="inlineStr">
         <is>
           <t>Excluded</t>
         </is>
       </c>
-      <c r="O117" t="inlineStr">
+      <c r="O108" t="inlineStr">
         <is>
           <t>snowballing</t>
         </is>
       </c>
-      <c r="P117" t="inlineStr"/>
-      <c r="Q117" t="inlineStr">
+      <c r="P108" t="inlineStr"/>
+      <c r="Q108" t="inlineStr">
         <is>
           <t>Exclusion: not aimed at testing/verification approach</t>
         </is>
       </c>
-      <c r="R117" t="n">
+      <c r="R108" t="n">
         <v>1</v>
       </c>
-      <c r="S117" t="inlineStr">
+      <c r="S108" t="inlineStr">
         <is>
           <t>Scopus Signed In</t>
         </is>
       </c>
-      <c r="T117" t="n">
+      <c r="T108" t="n">
         <v>2005</v>
       </c>
-      <c r="U117" t="inlineStr">
+      <c r="U108" t="inlineStr">
         <is>
           <t>Adaptive verification for an on-line learning neural-based flight control system</t>
         </is>
       </c>
-      <c r="V117" t="inlineStr">
+      <c r="V108" t="inlineStr">
         <is>
           <t>https://ieeexplore.ieee.org/document/1563392</t>
         </is>
       </c>
-      <c r="W117" t="inlineStr">
+      <c r="W108" t="inlineStr">
         <is>
           <t>IEEE</t>
         </is>
       </c>
-      <c r="X117" t="inlineStr">
+      <c r="X108" t="inlineStr">
         <is>
           <t>nan; References; Pages</t>
         </is>
       </c>
     </row>
-    <row r="118">
-      <c r="A118" s="1" t="n">
-        <v>116</v>
-      </c>
-      <c r="B118" t="inlineStr"/>
-      <c r="C118" t="inlineStr">
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr"/>
+      <c r="C109" t="inlineStr">
         <is>
           <t>TestNN</t>
         </is>
       </c>
-      <c r="D118" t="inlineStr">
+      <c r="D109" t="inlineStr">
         <is>
           <t>An Abstraction-Refinement Approach to Verification of Artificial Neural Networks</t>
         </is>
       </c>
-      <c r="E118" t="inlineStr">
+      <c r="E109" t="inlineStr">
         <is>
           <t>A key problem in the adoption of artificial neural networks in safety-related applications is that misbehaviors can be hardly ruled out with traditional analytical or probabilistic techniques. In this paper we focus on specific networks known as Multi-Layer Perceptrons (MLPs), and we propose a solution to verify their safety using abstractions to Boolean combinations of linear arithmetic constraints. We show that our abstractions are consistent, i.e., whenever the abstract MLP is declared to be safe, the same holds for the concrete one. Spurious counterexamples, on the other hand, trigger refinements and can be leveraged to automate the correction of misbehaviors. We describe an implementation of our approach based on theHySATsolver, detailing the abstraction-refinement process and the automated correction strategy. Finally, we present experimental results confirming the feasibility of our approach on a realistic case study.</t>
         </is>
       </c>
-      <c r="F118" t="inlineStr">
+      <c r="F109" t="inlineStr">
         <is>
           <t>Root Mean Square Error; Hide Layer; Input Vector; Generalization Error; Abstract Domain</t>
         </is>
       </c>
-      <c r="G118" t="inlineStr">
+      <c r="G109" t="inlineStr">
         <is>
           <t>Luca Pulina; Armando Tacchella</t>
         </is>
       </c>
-      <c r="H118" t="inlineStr">
+      <c r="H109" t="inlineStr">
         <is>
           <t>International Conference on Computer Aided Verification</t>
         </is>
       </c>
-      <c r="I118" t="inlineStr">
+      <c r="I109" t="inlineStr">
         <is>
           <t>https://doi.org/10.1007/978-3-642-14295-6_24</t>
         </is>
       </c>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr">
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr">
         <is>
           <t>pp 243-257</t>
         </is>
       </c>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="inlineStr">
+      <c r="L109" t="inlineStr"/>
+      <c r="M109" t="inlineStr">
         <is>
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N118" t="inlineStr">
+      <c r="N109" t="inlineStr">
         <is>
           <t>Excluded</t>
         </is>
       </c>
-      <c r="O118" t="inlineStr">
+      <c r="O109" t="inlineStr">
         <is>
           <t>snowballing</t>
         </is>
       </c>
-      <c r="P118" t="inlineStr"/>
-      <c r="Q118" t="inlineStr">
+      <c r="P109" t="inlineStr"/>
+      <c r="Q109" t="inlineStr">
         <is>
           <t>Exclusion: previous verison of [91]</t>
         </is>
       </c>
-      <c r="R118" t="n">
+      <c r="R109" t="n">
         <v>1</v>
       </c>
-      <c r="S118" t="inlineStr">
-        <is>
-          <t>SpringerLink</t>
-        </is>
-      </c>
-      <c r="T118" t="n">
+      <c r="S109" t="inlineStr">
+        <is>
+          <t>Springer Link</t>
+        </is>
+      </c>
+      <c r="T109" t="n">
         <v>2010</v>
       </c>
-      <c r="U118" t="inlineStr">
+      <c r="U109" t="inlineStr">
         <is>
           <t>An abstraction-refinement approach to verification of artificial neural networks</t>
         </is>
       </c>
-      <c r="V118" t="inlineStr">
+      <c r="V109" t="inlineStr">
         <is>
           <t>https://doi.org/10.1007/978-3-642-14295-6_24</t>
         </is>
       </c>
-      <c r="W118" t="inlineStr">
+      <c r="W109" t="inlineStr">
         <is>
           <t>Springer, Berlin, Heidelberg</t>
         </is>
       </c>
-      <c r="X118" t="inlineStr">
+      <c r="X109" t="inlineStr">
         <is>
           <t>nan; References; Year; Bibtex; Link</t>
         </is>
       </c>
     </row>
-    <row r="119">
-      <c r="A119" s="1" t="n">
-        <v>117</v>
-      </c>
-      <c r="B119" t="inlineStr"/>
-      <c r="C119" t="inlineStr">
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr"/>
+      <c r="C110" t="inlineStr">
         <is>
           <t>TestNN</t>
         </is>
       </c>
-      <c r="D119" t="inlineStr">
+      <c r="D110" t="inlineStr">
         <is>
           <t>NeVer: a tool for artificial neural networks verification</t>
         </is>
       </c>
-      <c r="E119" t="inlineStr">
+      <c r="E110" t="inlineStr">
         <is>
           <t>The adoption of Artificial Neural Networks (ANNs) in safety-related applications is often avoided because it is difficult to rule out possible misbehaviors with traditional analytical or probabilistic techniques. In this paper we present NeVer, our tool for checking safety of ANNs. NeVerencodes the problem of verifying safety of ANNs into the problem of satisfying corresponding Boolean combinations of linear arithmetic constraints. We describe the main verification algorithm and the structure of NeVer. We present also empirical results confirming the effectiveness of NeVeron realistic case studies.</t>
         </is>
       </c>
-      <c r="F119" t="inlineStr">
+      <c r="F110" t="inlineStr">
         <is>
           <t>Artificial Intelligence; Formal methods for adaptive systems; Abstraction techniques; Algorithms and tools for verification; 68Q60; 68Q45</t>
         </is>
       </c>
-      <c r="G119" t="inlineStr">
+      <c r="G110" t="inlineStr">
         <is>
           <t>Luca Pulina; Armando Tacchella</t>
         </is>
       </c>
-      <c r="H119" t="inlineStr">
+      <c r="H110" t="inlineStr">
         <is>
           <t>Annals of Mathematics and Artificial Intelligence</t>
         </is>
       </c>
-      <c r="I119" t="inlineStr">
+      <c r="I110" t="inlineStr">
         <is>
           <t>https://doi.org/10.1007/s10472-011-9243-0</t>
         </is>
       </c>
-      <c r="J119" t="inlineStr">
+      <c r="J110" t="inlineStr">
         <is>
           <t>citation_journal_title=IEEE Trans. Syst. Man Cybern., Part C Appl. Rev.; citation_title=Neural networks for classification: a survey; citation_author=GP Zhang; citation_volume=30; citation_issue=4; citation_publication_date=2000; citation_pages=451-462; citation_doi=10.1109/5326.897072; citation_id=CR1; Smith, D.J., Simpson, K.G.L.: Functional Safety - A Straightforward Guide to Applying IEC 61505 and Related Standards (2nd edn.). Elsevier (2004); Schumann, J., Gupta, P., Nelson, S.: On verification &amp; validation of neural network based controllers. In: Proc. of International Conf. on Engineering Applications of Neural Networks (EANN'03) (2003); citation_journal_title=Neural Comput. Appl.; citation_title=Developing artificial neural networks for safety critical systems; citation_author=Z Kurd, T Kelly, J Austin; citation_volume=16; citation_issue=1; citation_publication_date=2007; citation_pages=11-19; citation_id=CR4; citation_journal_title=ACM Trans. Program. Lang. Syst. (TOPLAS); citation_title=Automatic verification of finite-state concurrent systems using temporal logic specifications; citation_author=EM Clarke, EA Emerson, AP Sistla; citation_volume=8; citation_issue=2; citation_publication_date=1986; citation_pages=263; citation_doi=10.1145/5397.5399; citation_id=CR5; Queille, J., Sifakis, J.: Specification and verification of concurrent systems in CESAR. In: International Symposium on Programming, pp. 337-351. Springer (1982); Schubert, T.: High level formal verification of next-generation microprocessors. In: Proceedings of the 40th annual Design Automation Conference. ACM (2003); Ball, T., Cook, B., Levin, V., Rajamani, S.K.: SLAM and static driver verifier: Technology transfer of formal methods inside Microsoft. In: Integrated Formal Methods, pp. 1-20. Springer (2004); Armando, A., Carbone, R., Compagna, L.: LTL model checking for security protocols. In: 20th IEEE Computer Security Foundations Symposium, pp. 385-396 (2007); Alur, R., Henzinger, T.A., Ho, P.: Automatic symbolic verification of embedded systems. In: IEEE Real-Time Systems Symposium, pp. 2-11 (1993); Clarke, E.M., Grumberg, O., Peled, D.A.: Model Checking. Springer (1999); citation_journal_title=Neural Netw; citation_title=Multilayer feedforward networks are universal approximators; citation_author=K Hornik, M Stinchcombe, H White; citation_volume=2; citation_issue=5; citation_publication_date=1989; citation_pages=359-366; citation_doi=10.1016/0893-6080(89)90020-8; citation_id=CR12; Pulina, L., Tacchella, A.: An abstraction-refinement approach to verification of artificial neural networks. In: 22nd International Conference on Computer Aided Verification (CAV 2010). Lecture Notes in Computer Science, vol. 6174, pp. 243-257. Springer (2010); Solar-Lezama, A., Jones, C.G., Bodik, R.: Sketching concurrent data structures. In: 2008 ACM SIGPLAN Conference on Programming Language Design and Implementation, pp. 136-148. ACM (2008); Vechev, M., Yahav, E., Yorsh, G.G.: Abstraction-guided synthesis of synchronization. In: 37th Annual ACM SIGPLAN-SIGACT Symposium on Principles of Programming Languages, pp. 327-338. ACM (2010); citation_journal_title=J. Mach. Learn. Res.; citation_title=Shark; citation_author=C Igel, T Glasmachers, V Heidrich-Meisner; citation_volume=9; citation_publication_date=2008; citation_pages=993-996; citation_id=CR16; citation_journal_title=JSAT, Boolean Modeling and Computation; citation_title=Efficient solving of large non-linear arithmetic constraint systems with complex boolean structure; citation_author=M Franzle, C Herde, T Teige, S Ratschan, T Schubert; citation_volume=1; citation_publication_date=2007; citation_pages=209-236; citation_id=CR17; citation_journal_title=Cem. Concr. Res.; citation_title=Modeling of strength of high-performance concrete using artificial neural networks; citation_author=IC Yeh; citation_volume=28; citation_issue=12; citation_publication_date=1998; citation_pages=1797-1808; citation_doi=10.1016/S0008-8846(98)00165-3; citation_id=CR18; Haykin, S.: Neural Networks: a Comprehensive Foundation. Prentice Hall (2008); citation_journal_title=Artif. Intell.; citation_title=Consistency in networks of relations; citation_author=AK Mackworth; citation_volume=8; citation_issue=1; citation_publication_date=1977; citation_pages=99-118; citation_doi=10.1016/0004-3702(77)90007-8; citation_id=CR20; Van Hentenryck, P.: Numerica: a modeling language for global optimization. In: Fifteenth International Joint Conference on Artificial Intelligence (IJCAI), pp. 1642-1650 (1997); Rossi, F., Van Beek, P., Walsh, T.: Handbook of Constraint Programming. Elsevier Science Ltd (2006); Barichard, V., Hao, J.K.: A population and interval constraint propagation algorithm. In: Evolutionary Multi-Criterion Optimization, Second International Conference (EMO 2003), pp. 88-101. Springer (2003); citation_title=Conflict-driven Clause Learning SAT Solvers. Handbook of Satisfiability; citation_publication_date=2009; citation_id=CR24; citation_author=J Marques-Silva; citation_author=I Lynce; citation_author=S Malik; citation_publisher=IOS Press; citation_title=Satisfiability Modulo Theories. Handbook of Satisfiability; citation_publication_date=2009; citation_id=CR25; citation_author=C Barrett; citation_author=R Sebastiani; citation_author=SA Seshia; citation_author=C Tinelli; citation_publisher=IOS Press; Jermann, C., Sam-Haroud, D., Trombettoni, G. (eds.): CP Workshop on Interval Analysis, Constraint Propagation, Applications (IntCP 2009) (2009); Cousot, P., Cousot, R.: Abstract interpretation: a unified lattice model for static analysis of programs by construction or approximation of fixpoints. In: 4th ACM SIGACT-SIGPLAN Symposium on Principles of Programming Languages, pp. 238-252 (1977); citation_journal_title=J. ACM (JACM); citation_title=Counterexample-guided abstraction refinement for symbolic model checking; citation_author=E Clarke, O Grumberg, S Jha, Y Lu, H Veith; citation_volume=50; citation_issue=5; citation_publication_date=2003; citation_pages=794; citation_doi=10.1145/876638.876643; citation_id=CR28; citation_title=Yale: rapid prototyping for complex data mining tasks; citation_inbook_title=12th ACM SIGKDD International Conference on Knowledge Discovery and Data Mining (KDD'06); citation_publication_date=2006; citation_pages=935-940; citation_id=CR29; citation_author=I Mierswa; citation_author=M Wurst; citation_author=R Klinkenberg; citation_author=M Scholz; citation_author=T Euler; citation_publisher=ACM; Gordeau, R.: Roboop - a robotics object oriented package in C++. 
                     http://www.cours.polymtl.ca/roboop
                    (2005); Rabunal, J.R., Dorrado, J.: Artificial Neural Networks in Real-life Applications. Idea Group Pub (2006); Witten, I.H., Frank, E.: Data Mining (2nd edn.). Morgan Kaufmann (2005); citation_journal_title=J. Artif. Intell. Res.; citation_title=Asimovian adaptive agents; citation_author=DF Gordon; citation_volume=13; citation_issue=1; citation_publication_date=2000; citation_pages=95-153; citation_id=CR33; Pappas, G., Kress-Gazit, H. (eds.): ICRA Workshop on Formal Methods in Robotics and Automation (2009)</t>
         </is>
       </c>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="inlineStr">
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr"/>
+      <c r="M110" t="inlineStr">
         <is>
           <t>Included</t>
         </is>
       </c>
-      <c r="N119" t="inlineStr">
+      <c r="N110" t="inlineStr">
         <is>
           <t>Included</t>
         </is>
       </c>
-      <c r="O119" t="inlineStr">
+      <c r="O110" t="inlineStr">
         <is>
           <t>snowballing</t>
         </is>
       </c>
-      <c r="P119" t="inlineStr"/>
-      <c r="Q119" t="inlineStr"/>
-      <c r="R119" t="n">
+      <c r="P110" t="inlineStr"/>
+      <c r="Q110" t="inlineStr"/>
+      <c r="R110" t="n">
         <v>1</v>
       </c>
-      <c r="S119" t="inlineStr">
-        <is>
-          <t>SpringerLink</t>
-        </is>
-      </c>
-      <c r="T119" t="n">
+      <c r="S110" t="inlineStr">
+        <is>
+          <t>Springer Link</t>
+        </is>
+      </c>
+      <c r="T110" t="n">
         <v>2011</v>
       </c>
-      <c r="U119" t="inlineStr">
+      <c r="U110" t="inlineStr">
         <is>
           <t>NeVer: a tool for artificial neural networks verification</t>
         </is>
       </c>
-      <c r="V119" t="inlineStr">
+      <c r="V110" t="inlineStr">
         <is>
           <t>https://doi.org/10.1007/s10472-011-9243-0</t>
         </is>
       </c>
-      <c r="W119" t="inlineStr">
+      <c r="W110" t="inlineStr">
         <is>
           <t>Springer Link</t>
         </is>
       </c>
-      <c r="X119" t="inlineStr">
+      <c r="X110" t="inlineStr">
         <is>
           <t>nan; Pages; Year; Bibtex; Link</t>
         </is>
       </c>
     </row>
-    <row r="120">
-      <c r="A120" s="1" t="n">
-        <v>118</v>
-      </c>
-      <c r="B120" t="inlineStr"/>
-      <c r="C120" t="inlineStr">
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr"/>
+      <c r="C111" t="inlineStr">
         <is>
           <t>TestNN</t>
         </is>
       </c>
-      <c r="D120" t="inlineStr">
+      <c r="D111" t="inlineStr">
         <is>
           <t>Challenging SMT solvers to verify neural networks</t>
         </is>
       </c>
-      <c r="E120" t="inlineStr">
+      <c r="E111" t="inlineStr">
         <is>
           <t>In recent years, Satisfiability Modulo Theory (SMT) solvers are becoming increasingly popular in the Computer Aided Verification and Reasoning community. Used natively or as back-engines, they are accumulating a record of success stories and, as witnessed by the annual SMT competition, their performances and capacity are also increasing steadily. Introduced in previous contributions of ours, a new application domain providing an outstanding challenge for SMT solvers is represented by verification of Multi-Layer Perceptrons (MLPs) a widely-adopted kind of artificial neural network. In this paper we present an extensive evaluation of the current state-of-the-art SMT solvers and assess their potential in the promising domain of MLP verification.</t>
         </is>
       </c>
-      <c r="F120" t="inlineStr">
+      <c r="F111" t="inlineStr">
         <is>
           <t>Empirical evaluation of SMT solvers; applications of automated reasoning; formal methods for adaptive systems</t>
         </is>
       </c>
-      <c r="G120" t="inlineStr">
+      <c r="G111" t="inlineStr">
         <is>
           <t>Luca Pulina; Armando Tacchella</t>
         </is>
       </c>
-      <c r="H120" t="inlineStr">
+      <c r="H111" t="inlineStr">
         <is>
           <t>AI Communications</t>
         </is>
       </c>
-      <c r="I120" t="inlineStr">
+      <c r="I111" t="inlineStr">
         <is>
           <t>https://doi.org/10.5555/2350156.2350160</t>
         </is>
       </c>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr">
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr">
         <is>
           <t>117-135</t>
         </is>
       </c>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="inlineStr">
+      <c r="L111" t="inlineStr"/>
+      <c r="M111" t="inlineStr">
         <is>
           <t>Included</t>
         </is>
       </c>
-      <c r="N120" t="inlineStr">
+      <c r="N111" t="inlineStr">
         <is>
           <t>Included</t>
         </is>
       </c>
-      <c r="O120" t="inlineStr">
+      <c r="O111" t="inlineStr">
         <is>
           <t>snowballing</t>
         </is>
       </c>
-      <c r="P120" t="inlineStr"/>
-      <c r="Q120" t="inlineStr"/>
-      <c r="R120" t="n">
+      <c r="P111" t="inlineStr"/>
+      <c r="Q111" t="inlineStr"/>
+      <c r="R111" t="n">
         <v>1</v>
       </c>
-      <c r="S120" t="inlineStr">
+      <c r="S111" t="inlineStr">
         <is>
           <t>ACM</t>
         </is>
       </c>
-      <c r="T120" t="n">
+      <c r="T111" t="n">
         <v>2012</v>
       </c>
-      <c r="U120" t="inlineStr">
+      <c r="U111" t="inlineStr">
         <is>
           <t>Challenging SMT solvers to verify neural networks</t>
         </is>
       </c>
-      <c r="V120" t="inlineStr">
+      <c r="V111" t="inlineStr">
         <is>
           <t>https://doi.org/10.5555/2350156.2350160</t>
         </is>
       </c>
-      <c r="W120" t="inlineStr">
+      <c r="W111" t="inlineStr">
         <is>
           <t>IOS Press</t>
         </is>
       </c>
-      <c r="X120" t="inlineStr">
+      <c r="X111" t="inlineStr">
         <is>
           <t>nan; References; Year; Bibtex; Link</t>
         </is>
       </c>
     </row>
-    <row r="121">
-      <c r="A121" s="1" t="n">
-        <v>119</v>
-      </c>
-      <c r="B121" t="inlineStr"/>
-      <c r="C121" t="inlineStr">
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr"/>
+      <c r="C112" t="inlineStr">
         <is>
           <t>TestNN</t>
         </is>
       </c>
-      <c r="D121" t="inlineStr">
+      <c r="D112" t="inlineStr">
         <is>
           <t>Intriguing properties of neural networks</t>
         </is>
       </c>
-      <c r="E121" t="inlineStr">
+      <c r="E112" t="inlineStr">
         <is>
           <t>Abstract:Deep neural networks are highly expressive models that have recently achieved state of the art performance on speech and visual recognition tasks. While their expressiveness is the reason they succeed, it also causes them to learn uninterpretable solutions that could have counter-intuitive properties. In this paper we report two such properties.First, we find that there is no distinction between individual high level units and random linear combinations of high level units, according to various methods of unit analysis. It suggests that it is the space, rather than the individual units, that contains of the semantic information in the high layers of neural networks.Second, we find that deep neural networks learn input-output mappings that are fairly discontinuous to a significant extend. We can cause the network to misclassify an image by applying a certain imperceptible perturbation, which is found by maximizing the network's prediction error. In addition, the specific nature of these perturbations is not a random artifact of learning: the same perturbation can cause a different network, that was trained on a different subset of the dataset, to misclassify the same input.</t>
         </is>
       </c>
-      <c r="F121" t="inlineStr"/>
-      <c r="G121" t="inlineStr">
+      <c r="F112" t="inlineStr"/>
+      <c r="G112" t="inlineStr">
         <is>
           <t>Christian Szegedy; Wojciech Zaremba; Ilya Sutskever; Joan Bruna; Dumitru Erhan; Ian Goodfellow; Rob Fergus</t>
         </is>
       </c>
-      <c r="H121" t="inlineStr">
+      <c r="H112" t="inlineStr">
         <is>
           <t>arXiv</t>
         </is>
       </c>
-      <c r="I121" t="inlineStr">
+      <c r="I112" t="inlineStr">
         <is>
           <t>https://doi.org/10.48550/arXiv.1312.6199</t>
         </is>
       </c>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="inlineStr">
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr"/>
+      <c r="M112" t="inlineStr">
         <is>
           <t>Included</t>
         </is>
       </c>
-      <c r="N121" t="inlineStr">
+      <c r="N112" t="inlineStr">
         <is>
           <t>Included</t>
         </is>
       </c>
-      <c r="O121" t="inlineStr">
+      <c r="O112" t="inlineStr">
         <is>
           <t>snowballing</t>
         </is>
       </c>
-      <c r="P121" t="inlineStr"/>
-      <c r="Q121" t="inlineStr"/>
-      <c r="R121" t="n">
+      <c r="P112" t="inlineStr"/>
+      <c r="Q112" t="inlineStr"/>
+      <c r="R112" t="n">
         <v>1</v>
       </c>
-      <c r="S121" t="inlineStr">
+      <c r="S112" t="inlineStr">
         <is>
           <t>arXiv</t>
         </is>
       </c>
-      <c r="T121" t="n">
+      <c r="T112" t="n">
         <v>2013</v>
       </c>
-      <c r="U121" t="inlineStr">
+      <c r="U112" t="inlineStr">
         <is>
           <t>Intriguing properties of neural networks</t>
         </is>
       </c>
-      <c r="V121" t="inlineStr">
+      <c r="V112" t="inlineStr">
         <is>
           <t>https://doi.org/10.48550/arXiv.1312.6199</t>
         </is>
       </c>
-      <c r="W121" t="inlineStr"/>
-      <c r="X121" t="inlineStr">
+      <c r="W112" t="inlineStr"/>
+      <c r="X112" t="inlineStr">
         <is>
           <t>nan; Keywords; References; Pages; Year; Bibtex; Link; Publisher</t>
         </is>
       </c>
     </row>
-    <row r="122">
-      <c r="A122" s="1" t="n">
-        <v>120</v>
-      </c>
-      <c r="B122" t="inlineStr"/>
-      <c r="C122" t="inlineStr">
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr"/>
+      <c r="C113" t="inlineStr">
         <is>
           <t>TestNN</t>
         </is>
       </c>
-      <c r="D122" t="inlineStr">
+      <c r="D113" t="inlineStr">
         <is>
           <t>Toward guaranteed illumination models for non-convex objects</t>
         </is>
       </c>
-      <c r="E122" t="inlineStr">
+      <c r="E113" t="inlineStr">
         <is>
           <t>Illumination variation remains a central challenge in object detection and recognition. Existing analyses of illumination variation typically pertain to convex, Lambert Ian objects, and guarantee quality of approximation in an average case sense. We show that it is possible to build models for the set of images across illumination variation with worst-case performance guarantees, for nonconvex Lambertian objects. Namely, a natural verification test based on the distance to the model guarantees to accept any image which can be sufficiently well-approximated by an image of the object under some admissible lighting condition, and guarantees to reject any image that does not have a sufficiently good approximation. These models are generated by sampling illumination directions with sufficient density, which follows from a new perturbation bound for directional illuminated images in the Lambertian model. As the number of such images required for guaranteed verification may be large, we introduce a new formulation for cone preserving dimensionality reduction, which leverages tools from sparse and low-rank decomposition to reduce the complexity, while controlling the approximation error with respect to the original model.</t>
         </is>
       </c>
-      <c r="F122" t="inlineStr">
+      <c r="F113" t="inlineStr">
         <is>
           <t>Face recognition; Dimensionality reduction; Illumination cone; Illumination variation; Lambertian surfaces; Low-rank decomposition; Nonconvex; Object detection and recognition; Worst-case performance; Acceptance tests</t>
         </is>
       </c>
-      <c r="G122" t="inlineStr">
+      <c r="G113" t="inlineStr">
         <is>
           <t>Zhang, Yuqian; Mu, Cun; Kuo, Han-Wen; Wright, John</t>
         </is>
       </c>
-      <c r="H122" t="inlineStr">
+      <c r="H113" t="inlineStr">
         <is>
           <t>Proceedings of the IEEE International Conference on Computer Vision</t>
         </is>
       </c>
-      <c r="I122" t="inlineStr">
+      <c r="I113" t="inlineStr">
         <is>
           <t>https://doi.org/10.1109/ICCV.2013.120</t>
         </is>
       </c>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr">
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr">
         <is>
           <t>937 - 944</t>
         </is>
       </c>
-      <c r="L122" t="inlineStr">
+      <c r="L113" t="inlineStr">
         <is>
           <t>@CONFERENCE{Zhang2013937,
     author = "Zhang, Yuqian and Mu, Cun and Kuo, Han-Wen and Wright, John",
@@ -13526,102 +12993,102 @@
 }</t>
         </is>
       </c>
-      <c r="M122" t="inlineStr">
+      <c r="M113" t="inlineStr">
         <is>
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N122" t="inlineStr">
+      <c r="N113" t="inlineStr">
         <is>
           <t>Excluded</t>
         </is>
       </c>
-      <c r="O122" t="inlineStr">
+      <c r="O113" t="inlineStr">
         <is>
           <t>snowballing</t>
         </is>
       </c>
-      <c r="P122" t="inlineStr"/>
-      <c r="Q122" t="inlineStr">
+      <c r="P113" t="inlineStr"/>
+      <c r="Q113" t="inlineStr">
         <is>
           <t>Exclusion: irrelevance (more than one inclusion criteria are not satisfied)</t>
         </is>
       </c>
-      <c r="R122" t="n">
+      <c r="R113" t="n">
         <v>1</v>
       </c>
-      <c r="S122" t="inlineStr">
+      <c r="S113" t="inlineStr">
         <is>
           <t>Scopus Signed In</t>
         </is>
       </c>
-      <c r="T122" t="n">
+      <c r="T113" t="n">
         <v>2013</v>
       </c>
-      <c r="U122" t="inlineStr">
+      <c r="U113" t="inlineStr">
         <is>
           <t>Toward guaranteed illumination models for non-convex objects</t>
         </is>
       </c>
-      <c r="V122" t="inlineStr">
+      <c r="V113" t="inlineStr">
         <is>
           <t>https://ieeexplore.ieee.org/document/6751226</t>
         </is>
       </c>
-      <c r="W122" t="inlineStr">
+      <c r="W113" t="inlineStr">
         <is>
           <t>Institute of Electrical and Electronics Engineers Inc</t>
         </is>
       </c>
-      <c r="X122" t="inlineStr">
+      <c r="X113" t="inlineStr">
         <is>
           <t>nan; References</t>
         </is>
       </c>
     </row>
-    <row r="123">
-      <c r="A123" s="1" t="n">
-        <v>121</v>
-      </c>
-      <c r="B123" t="inlineStr"/>
-      <c r="C123" t="inlineStr">
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr"/>
+      <c r="C114" t="inlineStr">
         <is>
           <t>TestNN</t>
         </is>
       </c>
-      <c r="D123" t="inlineStr">
+      <c r="D114" t="inlineStr">
         <is>
           <t>Deep inside convolutional networks: Visualising image classification models and saliency maps</t>
         </is>
       </c>
-      <c r="E123" t="inlineStr">
+      <c r="E114" t="inlineStr">
         <is>
           <t>This paper addresses the visualisation of image classification models, learnt using deep Convolutional Networks (ConvNets). We consider two visualisation techniques, based on computing the gradient of the class score with respect to the input image. The first one generates an image, which maximises the class score [5], thus visualising the notion of the class, captured by a ConvNet. The second technique computes a class saliency map, specific to a given image and class. We show that such maps can be employed for weakly supervised object segmentation using classification ConvNets. Finally, we establish the connection between the gradient-based ConvNet visualisation methods and deconvolutional networks [13].</t>
         </is>
       </c>
-      <c r="F123" t="inlineStr">
+      <c r="F114" t="inlineStr">
         <is>
           <t>Convolution; Image segmentation; Visualization; Classification models; Convnet; Convolutional networks; Gradient based; Input image; Object segmentation; Saliency map; Image classification</t>
         </is>
       </c>
-      <c r="G123" t="inlineStr">
+      <c r="G114" t="inlineStr">
         <is>
           <t>Simonyan, Karen; Vedaldi, Andrea; Zisserman, Andrew</t>
         </is>
       </c>
-      <c r="H123" t="inlineStr">
+      <c r="H114" t="inlineStr">
         <is>
           <t>2nd International Conference on Learning Representations, ICLR 2014 - Workshop Track Proceedings</t>
         </is>
       </c>
-      <c r="I123" t="inlineStr">
+      <c r="I114" t="inlineStr">
         <is>
           <t>https://www.scopus.com/record/display.uri?eid=2-s2.0-85083953896&amp;origin=resultslist&amp;sort=plf-f&amp;src=s&amp;sid=8a6e3dd0d29930166e213c4017796d28&amp;sot=b&amp;sdt=b&amp;s=TITLE-ABS-KEY%28deep+inside+convolutional+networks+visualising+image+classification+models+and+saliency+maps%29&amp;sl=107&amp;sessionSearchId=8a6e3dd0d29930166e213c4017796d28&amp;relpos=0</t>
         </is>
       </c>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr">
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr">
         <is>
           <t>@CONFERENCE{Simonyan2014,
     author = "Simonyan, Karen and Vedaldi, Andrea and Zisserman, Andrew",
@@ -13642,102 +13109,102 @@
 }</t>
         </is>
       </c>
-      <c r="M123" t="inlineStr">
+      <c r="M114" t="inlineStr">
         <is>
           <t>Included</t>
         </is>
       </c>
-      <c r="N123" t="inlineStr">
+      <c r="N114" t="inlineStr">
         <is>
           <t>Included</t>
         </is>
       </c>
-      <c r="O123" t="inlineStr">
+      <c r="O114" t="inlineStr">
         <is>
           <t>snowballing</t>
         </is>
       </c>
-      <c r="P123" t="inlineStr"/>
-      <c r="Q123" t="inlineStr"/>
-      <c r="R123" t="n">
+      <c r="P114" t="inlineStr"/>
+      <c r="Q114" t="inlineStr"/>
+      <c r="R114" t="n">
         <v>1</v>
       </c>
-      <c r="S123" t="inlineStr">
+      <c r="S114" t="inlineStr">
         <is>
           <t>Scopus Signed In</t>
         </is>
       </c>
-      <c r="T123" t="n">
+      <c r="T114" t="n">
         <v>2013</v>
       </c>
-      <c r="U123" t="inlineStr">
+      <c r="U114" t="inlineStr">
         <is>
           <t>Deep inside convolutional networks: Visualising image classification models and saliency maps</t>
         </is>
       </c>
-      <c r="V123" t="inlineStr">
+      <c r="V114" t="inlineStr">
         <is>
           <t>https://www.scopus.com/record/display.uri?eid=2-s2.0-85083953896&amp;origin=resultslist&amp;sort=plf-f&amp;src=s&amp;sid=8a6e3dd0d29930166e213c4017796d28&amp;sot=b&amp;sdt=b&amp;s=TITLE-ABS-KEY%28deep+inside+convolutional+networks+visualising+image+classification+models+and+saliency+maps%29&amp;sl=107&amp;sessionSearchId=8a6e3dd0d29930166e213c4017796d28&amp;relpos=0</t>
         </is>
       </c>
-      <c r="W123" t="inlineStr">
+      <c r="W114" t="inlineStr">
         <is>
           <t>International Conference on Learning Representations, ICLR</t>
         </is>
       </c>
-      <c r="X123" t="inlineStr">
+      <c r="X114" t="inlineStr">
         <is>
           <t>nan; References; Pages</t>
         </is>
       </c>
     </row>
-    <row r="124">
-      <c r="A124" s="1" t="n">
-        <v>122</v>
-      </c>
-      <c r="B124" t="inlineStr"/>
-      <c r="C124" t="inlineStr">
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr"/>
+      <c r="C115" t="inlineStr">
         <is>
           <t>TestNN</t>
         </is>
       </c>
-      <c r="D124" t="inlineStr">
+      <c r="D115" t="inlineStr">
         <is>
           <t>AxNN: Energy-efficient neuromorphic systems using approximate computing</t>
         </is>
       </c>
-      <c r="E124" t="inlineStr">
+      <c r="E115" t="inlineStr">
         <is>
           <t>Neuromorphic algorithms, which are comprised of highly complex, large-scale networks of artificial neurons, are increasingly used for a variety of recognition, classification, search and vision tasks. However, their computational and energy requirements can be quite high, and hence their energy-efficient implementation is of great interest. We propose a new approach to design energy-efficient hardware implementations of large-scale neural networks (NNs) using approximate computing. Our work is motivated by the observations that (i) NNs are used in applications where less-than-perfect results are acceptable, and often inevitable, and (ii) they are highly resilient to inexactness in many (but not all) of their constituent computations. We make two key contributions. First, we propose a method to transform any given NN into an Approximate Neural Network (AxNN). This is performed by (i) adapting the backpropagation technique, which is commonly used to train these networks, to quantify the impact of approximating each neuron to the overall network quality (e.g., classification accuracy), and (ii) selectively approximating those neurons that impact network quality the least. Further, we make the key observation that training is a naturally error-healing process that can be used to mitigate the impact of approximations to neurons. Therefore, we incrementally retrain the network with the approximations in-place, reclaiming a significant portion of the quality ceded by approximations. As a second contribution, we propose a programmable and quality-configurable neuromorphic processing engine (qcNPE), which utilizes arrays of specialized processing elements that execute neuron computations with dynamically configurable accuracies and can be used to execute AxNNs from diverse applications. We evaluated the proposed approach by constructing AXNNs for 6 recognition applications (ranging in complexity from 12-47,818 neurons and 160-3,155,968 connections) and executing them on two different platforms-qcNPE implementation containing 272 processing elements in 45nm technology and a commodity Intel Xeon server. Our results demonstrate 1.14X-1.92X energy benefits for virtually no loss (&lt; 0.5%) in output quality, and even higher improvements (upto 2.3X) when some loss (upto 7.5%) in output quality is acceptable.</t>
         </is>
       </c>
-      <c r="F124" t="inlineStr">
+      <c r="F115" t="inlineStr">
         <is>
           <t>Algorithms; Complex networks; Hardware; Low power electronics; Neural networks; Neurons; Power electronics; Approximate Computing; Backpropagation techniques; Classification accuracy; Diverse applications; Hardware implementations; Large-scale network; Neural networks (NNS); Neuromorphic systems; Energy efficiency</t>
         </is>
       </c>
-      <c r="G124" t="inlineStr">
+      <c r="G115" t="inlineStr">
         <is>
           <t>Venkataramani, Swagath; Ranjan, Ashish; Roy, Kaushik; Raghunathan, Anand</t>
         </is>
       </c>
-      <c r="H124" t="inlineStr">
+      <c r="H115" t="inlineStr">
         <is>
           <t>Proceedings of the International Symposium on Low Power Electronics and Design</t>
         </is>
       </c>
-      <c r="I124" t="inlineStr">
+      <c r="I115" t="inlineStr">
         <is>
           <t>https://doi.org/10.1145/2627369.2627613</t>
         </is>
       </c>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr">
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr">
         <is>
           <t>27 - 32</t>
         </is>
       </c>
-      <c r="L124" t="inlineStr">
+      <c r="L115" t="inlineStr">
         <is>
           <t>@CONFERENCE{Venkataramani201527,
     author = "Venkataramani, Swagath and Ranjan, Ashish and Roy, Kaushik and Raghunathan, Anand",
@@ -13764,466 +13231,466 @@
 }</t>
         </is>
       </c>
-      <c r="M124" t="inlineStr">
+      <c r="M115" t="inlineStr">
         <is>
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N124" t="inlineStr">
+      <c r="N115" t="inlineStr">
         <is>
           <t>Excluded</t>
         </is>
       </c>
-      <c r="O124" t="inlineStr">
+      <c r="O115" t="inlineStr">
         <is>
           <t>snowballing</t>
         </is>
       </c>
-      <c r="P124" t="inlineStr"/>
-      <c r="Q124" t="inlineStr">
+      <c r="P115" t="inlineStr"/>
+      <c r="Q115" t="inlineStr">
         <is>
           <t>Exclusion: irrelevance (more than one inclusion criteria are not satisfied)</t>
         </is>
       </c>
-      <c r="R124" t="n">
+      <c r="R115" t="n">
         <v>1</v>
       </c>
-      <c r="S124" t="inlineStr">
+      <c r="S115" t="inlineStr">
         <is>
           <t>Scopus Signed In</t>
         </is>
       </c>
-      <c r="T124" t="n">
+      <c r="T115" t="n">
         <v>2014</v>
       </c>
-      <c r="U124" t="inlineStr">
+      <c r="U115" t="inlineStr">
         <is>
           <t>AxNN: energy-efficient neuromorphic systems using approximate computing</t>
         </is>
       </c>
-      <c r="V124" t="inlineStr">
+      <c r="V115" t="inlineStr">
         <is>
           <t>https://dl.acm.org/doi/10.1145/2627369.2627613</t>
         </is>
       </c>
-      <c r="W124" t="inlineStr">
+      <c r="W115" t="inlineStr">
         <is>
           <t>Institute of Electrical and Electronics Engineers Inc</t>
         </is>
       </c>
-      <c r="X124" t="inlineStr">
+      <c r="X115" t="inlineStr">
         <is>
           <t>nan; References</t>
         </is>
       </c>
     </row>
-    <row r="125">
-      <c r="A125" s="1" t="n">
-        <v>123</v>
-      </c>
-      <c r="B125" t="inlineStr"/>
-      <c r="C125" t="inlineStr">
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr"/>
+      <c r="C116" t="inlineStr">
         <is>
           <t>TestNN</t>
         </is>
       </c>
-      <c r="D125" t="inlineStr">
+      <c r="D116" t="inlineStr">
         <is>
           <t>Explaining and Harnessing Adversarial Examples</t>
         </is>
       </c>
-      <c r="E125" t="inlineStr">
+      <c r="E116" t="inlineStr">
         <is>
           <t>Abstract:Several machine learning models, including neural networks, consistently misclassify adversarial examples---inputs formed by applying small but intentionally worst-case perturbations to examples from the dataset, such that the perturbed input results in the model outputting an incorrect answer with high confidence. Early attempts at explaining this phenomenon focused on nonlinearity and overfitting. We argue instead that the primary cause of neural networks' vulnerability to adversarial perturbation is their linear nature. This explanation is supported by new quantitative results while giving the first explanation of the most intriguing fact about them: their generalization across architectures and training sets. Moreover, this view yields a simple and fast method of generating adversarial examples. Using this approach to provide examples for adversarial training, we reduce the test set error of a maxout network on the MNIST dataset.</t>
         </is>
       </c>
-      <c r="F125" t="inlineStr"/>
-      <c r="G125" t="inlineStr">
+      <c r="F116" t="inlineStr"/>
+      <c r="G116" t="inlineStr">
         <is>
           <t>Ian J. Goodfellow; Jonathon Shlens; Christian Szegedy</t>
         </is>
       </c>
-      <c r="H125" t="inlineStr">
+      <c r="H116" t="inlineStr">
         <is>
           <t>arXiv</t>
         </is>
       </c>
-      <c r="I125" t="inlineStr">
+      <c r="I116" t="inlineStr">
         <is>
           <t>https://doi.org/10.48550/arXiv.1412.6572</t>
         </is>
       </c>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="inlineStr">
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr"/>
+      <c r="M116" t="inlineStr">
         <is>
           <t>Included</t>
         </is>
       </c>
-      <c r="N125" t="inlineStr">
+      <c r="N116" t="inlineStr">
         <is>
           <t>Included</t>
         </is>
       </c>
-      <c r="O125" t="inlineStr">
+      <c r="O116" t="inlineStr">
         <is>
           <t>snowballing</t>
         </is>
       </c>
-      <c r="P125" t="inlineStr"/>
-      <c r="Q125" t="inlineStr"/>
-      <c r="R125" t="n">
+      <c r="P116" t="inlineStr"/>
+      <c r="Q116" t="inlineStr"/>
+      <c r="R116" t="n">
         <v>1</v>
       </c>
-      <c r="S125" t="inlineStr">
+      <c r="S116" t="inlineStr">
         <is>
           <t>arXiv</t>
         </is>
       </c>
-      <c r="T125" t="n">
+      <c r="T116" t="n">
         <v>2014</v>
       </c>
-      <c r="U125" t="inlineStr">
+      <c r="U116" t="inlineStr">
         <is>
           <t>Explaining and Harnessing Adversarial Examples</t>
         </is>
       </c>
-      <c r="V125" t="inlineStr">
+      <c r="V116" t="inlineStr">
         <is>
           <t>https://doi.org/10.48550/arXiv.1412.6572</t>
         </is>
       </c>
-      <c r="W125" t="inlineStr"/>
-      <c r="X125" t="inlineStr">
+      <c r="W116" t="inlineStr"/>
+      <c r="X116" t="inlineStr">
         <is>
           <t>nan; Keywords; References; Pages; Year; Bibtex; Link; Publisher</t>
         </is>
       </c>
     </row>
-    <row r="126">
-      <c r="A126" s="1" t="n">
-        <v>124</v>
-      </c>
-      <c r="B126" t="inlineStr"/>
-      <c r="C126" t="inlineStr">
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr"/>
+      <c r="C117" t="inlineStr">
         <is>
           <t>TestNN</t>
         </is>
       </c>
-      <c r="D126" t="inlineStr">
+      <c r="D117" t="inlineStr">
         <is>
           <t>Towards Deep Neural Network Architectures Robust to Adversarial Examples</t>
         </is>
       </c>
-      <c r="E126" t="inlineStr">
+      <c r="E117" t="inlineStr">
         <is>
           <t>Abstract:Recent work has shown deep neural networks (DNNs) to be highly susceptible to well-designed, small perturbations at the input layer, or so-called adversarial examples. Taking images as an example, such distortions are often imperceptible, but can result in 100% mis-classification for a state of the art DNN. We study the structure of adversarial examples and explore network topology, pre-processing and training strategies to improve the robustness of DNNs. We perform various experiments to assess the removability of adversarial examples by corrupting with additional noise and pre-processing with denoising autoencoders (DAEs). We find that DAEs can remove substantial amounts of the adversarial noise. How- ever, when stacking the DAE with the original DNN, the resulting network can again be attacked by new adversarial examples with even smaller distortion. As a solution, we propose Deep Contractive Network, a model with a new end-to-end training procedure that includes a smoothness penalty inspired by the contractive autoencoder (CAE). This increases the network robustness to adversarial examples, without a significant performance penalty.</t>
         </is>
       </c>
-      <c r="F126" t="inlineStr"/>
-      <c r="G126" t="inlineStr">
+      <c r="F117" t="inlineStr"/>
+      <c r="G117" t="inlineStr">
         <is>
           <t>Shixiang Gu; Luca Rigazio</t>
         </is>
       </c>
-      <c r="H126" t="inlineStr">
+      <c r="H117" t="inlineStr">
         <is>
           <t>arXiv</t>
         </is>
       </c>
-      <c r="I126" t="inlineStr">
+      <c r="I117" t="inlineStr">
         <is>
           <t>https://doi.org/10.48550/arXiv.1412.5068</t>
         </is>
       </c>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="inlineStr">
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
+      <c r="M117" t="inlineStr">
         <is>
           <t>Included</t>
         </is>
       </c>
-      <c r="N126" t="inlineStr">
+      <c r="N117" t="inlineStr">
         <is>
           <t>Included</t>
         </is>
       </c>
-      <c r="O126" t="inlineStr">
+      <c r="O117" t="inlineStr">
         <is>
           <t>snowballing</t>
         </is>
       </c>
-      <c r="P126" t="inlineStr"/>
-      <c r="Q126" t="inlineStr"/>
-      <c r="R126" t="n">
+      <c r="P117" t="inlineStr"/>
+      <c r="Q117" t="inlineStr"/>
+      <c r="R117" t="n">
         <v>1</v>
       </c>
-      <c r="S126" t="inlineStr">
+      <c r="S117" t="inlineStr">
         <is>
           <t>arXiv</t>
         </is>
       </c>
-      <c r="T126" t="n">
+      <c r="T117" t="n">
         <v>2014</v>
       </c>
-      <c r="U126" t="inlineStr">
+      <c r="U117" t="inlineStr">
         <is>
           <t>Towards deep neural network architectures robust to adversarial examples</t>
         </is>
       </c>
-      <c r="V126" t="inlineStr">
+      <c r="V117" t="inlineStr">
         <is>
           <t>https://doi.org/10.48550/arXiv.1412.5068</t>
         </is>
       </c>
-      <c r="W126" t="inlineStr"/>
-      <c r="X126" t="inlineStr">
+      <c r="W117" t="inlineStr"/>
+      <c r="X117" t="inlineStr">
         <is>
           <t>nan; Keywords; References; Pages; Year; Bibtex; Link; Publisher</t>
         </is>
       </c>
     </row>
-    <row r="127">
-      <c r="A127" s="1" t="n">
-        <v>125</v>
-      </c>
-      <c r="B127" t="inlineStr"/>
-      <c r="C127" t="inlineStr">
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr"/>
+      <c r="C118" t="inlineStr">
         <is>
           <t>TestNN</t>
         </is>
       </c>
-      <c r="D127" t="inlineStr">
+      <c r="D118" t="inlineStr">
         <is>
           <t>Visualizing and Understanding Convolutional Networks</t>
         </is>
       </c>
-      <c r="E127" t="inlineStr">
+      <c r="E118" t="inlineStr">
         <is>
           <t>Large Convolutional Network models have recently demonstrated impressive classification performance on the ImageNet benchmark Krizhevskyet al. [18]. However there is no clear understanding of why they perform so well, or how they might be improved. In this paper we explore both issues. We introduce a novel visualization technique that gives insight into the function of intermediate feature layers and the operation of the classifier. Used in a diagnostic role, these visualizations allow us to find model architectures that outperform Krizhevskyet alon the ImageNet classification benchmark. We also perform an ablation study to discover the performance contribution from different model layers. We show our ImageNet model generalizes well to other datasets: when the softmax classifier is retrained, it convincingly beats the current state-of-the-art results on Caltech-101 and Caltech-256 datasets.</t>
         </is>
       </c>
-      <c r="F127" t="inlineStr">
+      <c r="F118" t="inlineStr">
         <is>
           <t>Input Image; Training Image; Convolutional Neural Network; Stochastic Gradient Descent; Pixel Space</t>
         </is>
       </c>
-      <c r="G127" t="inlineStr">
+      <c r="G118" t="inlineStr">
         <is>
           <t>Matthew D. Zeiler; Rob Fergus</t>
         </is>
       </c>
-      <c r="H127" t="inlineStr">
+      <c r="H118" t="inlineStr">
         <is>
           <t>European Conference on Computer Vision</t>
         </is>
       </c>
-      <c r="I127" t="inlineStr">
+      <c r="I118" t="inlineStr">
         <is>
           <t>https://doi.org/10.1007/978-3-319-10590-1_53</t>
         </is>
       </c>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr">
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr">
         <is>
           <t>pp 818-833</t>
         </is>
       </c>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="inlineStr">
+      <c r="L118" t="inlineStr"/>
+      <c r="M118" t="inlineStr">
         <is>
           <t>Included</t>
         </is>
       </c>
-      <c r="N127" t="inlineStr">
+      <c r="N118" t="inlineStr">
         <is>
           <t>Included</t>
         </is>
       </c>
-      <c r="O127" t="inlineStr">
+      <c r="O118" t="inlineStr">
         <is>
           <t>snowballing</t>
         </is>
       </c>
-      <c r="P127" t="inlineStr"/>
-      <c r="Q127" t="inlineStr"/>
-      <c r="R127" t="n">
+      <c r="P118" t="inlineStr"/>
+      <c r="Q118" t="inlineStr"/>
+      <c r="R118" t="n">
         <v>1</v>
       </c>
-      <c r="S127" t="inlineStr">
-        <is>
-          <t>SpringerLink</t>
-        </is>
-      </c>
-      <c r="T127" t="n">
+      <c r="S118" t="inlineStr">
+        <is>
+          <t>Springer Link</t>
+        </is>
+      </c>
+      <c r="T118" t="n">
         <v>2014</v>
       </c>
-      <c r="U127" t="inlineStr">
+      <c r="U118" t="inlineStr">
         <is>
           <t>Visualizing and understanding convolutional networks</t>
         </is>
       </c>
-      <c r="V127" t="inlineStr">
+      <c r="V118" t="inlineStr">
         <is>
           <t>https://doi.org/10.1007/978-3-319-10590-1_53</t>
         </is>
       </c>
-      <c r="W127" t="inlineStr">
+      <c r="W118" t="inlineStr">
         <is>
           <t>Springer, Cham</t>
         </is>
       </c>
-      <c r="X127" t="inlineStr">
+      <c r="X118" t="inlineStr">
         <is>
           <t>nan; References; Year; Bibtex; Link</t>
         </is>
       </c>
     </row>
-    <row r="128">
-      <c r="A128" s="1" t="n">
-        <v>126</v>
-      </c>
-      <c r="B128" t="inlineStr"/>
-      <c r="C128" t="inlineStr">
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr"/>
+      <c r="C119" t="inlineStr">
         <is>
           <t>TestNN</t>
         </is>
       </c>
-      <c r="D128" t="inlineStr">
+      <c r="D119" t="inlineStr">
         <is>
           <t>Visualizing and Understanding Convolutional Networks</t>
         </is>
       </c>
-      <c r="E128" t="inlineStr">
+      <c r="E119" t="inlineStr">
         <is>
           <t>Large Convolutional Network models have recently demonstrated impressive classification performance on the ImageNet benchmark Krizhevskyet al. [18]. However there is no clear understanding of why they perform so well, or how they might be improved. In this paper we explore both issues. We introduce a novel visualization technique that gives insight into the function of intermediate feature layers and the operation of the classifier. Used in a diagnostic role, these visualizations allow us to find model architectures that outperform Krizhevskyet alon the ImageNet classification benchmark. We also perform an ablation study to discover the performance contribution from different model layers. We show our ImageNet model generalizes well to other datasets: when the softmax classifier is retrained, it convincingly beats the current state-of-the-art results on Caltech-101 and Caltech-256 datasets.</t>
         </is>
       </c>
-      <c r="F128" t="inlineStr">
+      <c r="F119" t="inlineStr">
         <is>
           <t>Input Image; Training Image; Convolutional Neural Network; Stochastic Gradient Descent; Pixel Space</t>
         </is>
       </c>
-      <c r="G128" t="inlineStr">
+      <c r="G119" t="inlineStr">
         <is>
           <t>Matthew D. Zeiler; Rob Fergus</t>
         </is>
       </c>
-      <c r="H128" t="inlineStr">
+      <c r="H119" t="inlineStr">
         <is>
           <t>European Conference on Computer Vision</t>
         </is>
       </c>
-      <c r="I128" t="inlineStr">
+      <c r="I119" t="inlineStr">
         <is>
           <t>https://doi.org/10.1007/978-3-319-10590-1_53</t>
         </is>
       </c>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr">
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr">
         <is>
           <t>pp 818-833</t>
         </is>
       </c>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="inlineStr">
+      <c r="L119" t="inlineStr"/>
+      <c r="M119" t="inlineStr">
         <is>
           <t>Included</t>
         </is>
       </c>
-      <c r="N128" t="inlineStr">
+      <c r="N119" t="inlineStr">
         <is>
           <t>Included</t>
         </is>
       </c>
-      <c r="O128" t="inlineStr">
+      <c r="O119" t="inlineStr">
         <is>
           <t>snowballing</t>
         </is>
       </c>
-      <c r="P128" t="inlineStr"/>
-      <c r="Q128" t="inlineStr"/>
-      <c r="R128" t="n">
+      <c r="P119" t="inlineStr"/>
+      <c r="Q119" t="inlineStr"/>
+      <c r="R119" t="n">
         <v>1</v>
       </c>
-      <c r="S128" t="inlineStr">
-        <is>
-          <t>SpringerLink</t>
-        </is>
-      </c>
-      <c r="T128" t="n">
+      <c r="S119" t="inlineStr">
+        <is>
+          <t>Springer Link</t>
+        </is>
+      </c>
+      <c r="T119" t="n">
         <v>2014</v>
       </c>
-      <c r="U128" t="inlineStr">
+      <c r="U119" t="inlineStr">
         <is>
           <t>Visualizing and understanding convolutional networks</t>
         </is>
       </c>
-      <c r="V128" t="inlineStr">
+      <c r="V119" t="inlineStr">
         <is>
           <t>https://doi.org/10.1007/978-3-319-10590-1_53</t>
         </is>
       </c>
-      <c r="W128" t="inlineStr">
+      <c r="W119" t="inlineStr">
         <is>
           <t>Springer, Cham</t>
         </is>
       </c>
-      <c r="X128" t="inlineStr">
+      <c r="X119" t="inlineStr">
         <is>
           <t>nan; References; Year; Bibtex; Link</t>
         </is>
       </c>
     </row>
-    <row r="129">
-      <c r="A129" s="1" t="n">
-        <v>127</v>
-      </c>
-      <c r="B129" t="inlineStr"/>
-      <c r="C129" t="inlineStr">
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr"/>
+      <c r="C120" t="inlineStr">
         <is>
           <t>TestNN</t>
         </is>
       </c>
-      <c r="D129" t="inlineStr">
+      <c r="D120" t="inlineStr">
         <is>
           <t>ApproxANN: An approximate computing framework for artificial neural network</t>
         </is>
       </c>
-      <c r="E129" t="inlineStr">
+      <c r="E120" t="inlineStr">
         <is>
           <t>Artificial Neural networks (ANNs) are one of the most well-established machine learning techniques and have a wide range of applications, such as Recognition, Mining and Synthesis (RMS). As many of these applications are inherently error-tolerant, in this work, we propose a novel approximate computing framework for ANN, namely ApproxANN. When compared to existing solutions, ApproxANN considers approximation for both computation and memory accesses, thereby achieving more energy savings. To be specific, ApproxANN characterizes the impact of neurons on the output quality in an effective and efficient manner, and judiciously determine how to approximate the computation and memory accesses of certain less critical neurons to achieve the maximum energy efficiency gain under a given quality constraint. Experimental results on various ANN applications with different datasets demonstrate the efficacy of the proposed solution.</t>
         </is>
       </c>
-      <c r="F129" t="inlineStr">
+      <c r="F120" t="inlineStr">
         <is>
           <t>Energy efficiency; Learning systems; ANN application; Computing frameworks; Critical neurons; Error tolerant; Machine learning techniques; Memory access; Output quality; Quality constraints; Neural networks</t>
         </is>
       </c>
-      <c r="G129" t="inlineStr">
+      <c r="G120" t="inlineStr">
         <is>
           <t>Zhang, Qian; Wang, Ting; Tian, Ye; Yuan, Feng; Xu, Qiang</t>
         </is>
       </c>
-      <c r="H129" t="inlineStr">
+      <c r="H120" t="inlineStr">
         <is>
           <t>Proceedings -Design, Automation and Test in Europe, DATE</t>
         </is>
       </c>
-      <c r="I129" t="inlineStr">
+      <c r="I120" t="inlineStr">
         <is>
           <t>https://doi.org/10.7873/date.2015.0618</t>
         </is>
       </c>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr">
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr">
         <is>
           <t>701 - 706</t>
         </is>
       </c>
-      <c r="L129" t="inlineStr">
+      <c r="L120" t="inlineStr">
         <is>
           <t>@CONFERENCE{Zhang2015701,
     author = "Zhang, Qian and Wang, Ting and Tian, Ye and Yuan, Feng and Xu, Qiang",
@@ -14249,334 +13716,334 @@
 }</t>
         </is>
       </c>
-      <c r="M129" t="inlineStr">
+      <c r="M120" t="inlineStr">
         <is>
           <t>Included</t>
         </is>
       </c>
-      <c r="N129" t="inlineStr">
+      <c r="N120" t="inlineStr">
         <is>
           <t>Included</t>
         </is>
       </c>
-      <c r="O129" t="inlineStr">
+      <c r="O120" t="inlineStr">
         <is>
           <t>snowballing</t>
         </is>
       </c>
-      <c r="P129" t="inlineStr"/>
-      <c r="Q129" t="inlineStr"/>
-      <c r="R129" t="n">
+      <c r="P120" t="inlineStr"/>
+      <c r="Q120" t="inlineStr"/>
+      <c r="R120" t="n">
         <v>1</v>
       </c>
-      <c r="S129" t="inlineStr">
+      <c r="S120" t="inlineStr">
         <is>
           <t>Scopus Signed In</t>
         </is>
       </c>
-      <c r="T129" t="n">
+      <c r="T120" t="n">
         <v>2015</v>
       </c>
-      <c r="U129" t="inlineStr">
+      <c r="U120" t="inlineStr">
         <is>
           <t>ApproxANN: an approximate computing framework for artificial neural network</t>
         </is>
       </c>
-      <c r="V129" t="inlineStr">
+      <c r="V120" t="inlineStr">
         <is>
           <t>https://dl.acm.org/doi/10.5555/2755753.2755913</t>
         </is>
       </c>
-      <c r="W129" t="inlineStr">
+      <c r="W120" t="inlineStr">
         <is>
           <t>Institute of Electrical and Electronics Engineers Inc</t>
         </is>
       </c>
-      <c r="X129" t="inlineStr">
+      <c r="X120" t="inlineStr">
         <is>
           <t>nan; References</t>
         </is>
       </c>
     </row>
-    <row r="130">
-      <c r="A130" s="1" t="n">
-        <v>128</v>
-      </c>
-      <c r="B130" t="inlineStr"/>
-      <c r="C130" t="inlineStr">
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr"/>
+      <c r="C121" t="inlineStr">
         <is>
           <t>TestNN</t>
         </is>
       </c>
-      <c r="D130" t="inlineStr">
+      <c r="D121" t="inlineStr">
         <is>
           <t>Deep neural networks are easily fooled: High confidence predictions for unrecognizable images</t>
         </is>
       </c>
-      <c r="E130" t="inlineStr">
+      <c r="E121" t="inlineStr">
         <is>
           <t>Deep neural networks (DNNs) have recently been achieving state-of-the-art performance on a variety of pattern-recognition tasks, most notably visual classification problems. Given that DNNs are now able to classify objects in images with near-human-level performance, questions naturally arise as to what differences remain between computer and human vision. A recent study [30] revealed that changing an image (e.g. of a lion) in a way imperceptible to humans can cause a DNN to label the image as something else entirely (e.g. mislabeling a lion a library). Here we show a related result: it is easy to produce images that are completely unrecognizable to humans, but that state-of-the-art DNNs believe to be recognizable objects with 99.99% confidence (e.g. labeling with certainty that white noise static is a lion). Specifically, we take convolutional neural networks trained to perform well on either the ImageNet or MNIST datasets and then find images with evolutionary algorithms or gradient ascent that DNNs label with high confidence as belonging to each dataset class. It is possible to produce images totally unrecognizable to human eyes that DNNs believe with near certainty are familiar objects, which we call "fooling images" (more generally, fooling examples). Our results shed light on interesting differences between human vision and current DNNs, and raise questions about the generality of DNN computer vision.</t>
         </is>
       </c>
-      <c r="F130" t="inlineStr">
+      <c r="F121" t="inlineStr">
         <is>
           <t>Biomedical imaging; Keyboards; Volcanoes; Neural Network; Deep Neural Network; High-confidence Predictions; Convolutional Neural Network; Computer Vision; Evolutionary Algorithms; Imperceptible; Human Vision; MNIST Dataset; Gradient Ascent; Pattern Recognition Tasks; Training Set; Large Datasets; Image Classification; Feature Classification; Fitness Function; Class Labels; Training Images; Confidence Score; Natural Images; Model Discrimination; High Confidence Score; Regular Imaging; Discriminative Features; Different Types Of Images; Deep Neural Network Architecture; Decision Boundary; Handwritten Digits; Target Class; AlexNet</t>
         </is>
       </c>
-      <c r="G130" t="inlineStr">
+      <c r="G121" t="inlineStr">
         <is>
           <t>Anh Nguyen; Jason Yosinski; Jeff Clune</t>
         </is>
       </c>
-      <c r="H130" t="inlineStr">
+      <c r="H121" t="inlineStr">
         <is>
           <t>2015 IEEE Conference on Computer Vision and Pattern Recognition (CVPR)</t>
         </is>
       </c>
-      <c r="I130" t="inlineStr">
+      <c r="I121" t="inlineStr">
         <is>
           <t>https://doi.org/10.1109/CVPR.2015.7298640</t>
         </is>
       </c>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="inlineStr">
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr"/>
+      <c r="M121" t="inlineStr">
         <is>
           <t>Included</t>
         </is>
       </c>
-      <c r="N130" t="inlineStr">
+      <c r="N121" t="inlineStr">
         <is>
           <t>Included</t>
         </is>
       </c>
-      <c r="O130" t="inlineStr">
+      <c r="O121" t="inlineStr">
         <is>
           <t>snowballing</t>
         </is>
       </c>
-      <c r="P130" t="inlineStr"/>
-      <c r="Q130" t="inlineStr"/>
-      <c r="R130" t="n">
+      <c r="P121" t="inlineStr"/>
+      <c r="Q121" t="inlineStr"/>
+      <c r="R121" t="n">
         <v>1</v>
       </c>
-      <c r="S130" t="inlineStr">
+      <c r="S121" t="inlineStr">
         <is>
           <t>IEEE</t>
         </is>
       </c>
-      <c r="T130" t="n">
+      <c r="T121" t="n">
         <v>2015</v>
       </c>
-      <c r="U130" t="inlineStr">
+      <c r="U121" t="inlineStr">
         <is>
           <t>Deep neural networks are easily fooled: High confidence predictions for unrecognizable images</t>
         </is>
       </c>
-      <c r="V130" t="inlineStr">
+      <c r="V121" t="inlineStr">
         <is>
           <t>https://doi.org/10.1109/CVPR.2015.7298640</t>
         </is>
       </c>
-      <c r="W130" t="inlineStr">
+      <c r="W121" t="inlineStr">
         <is>
           <t>IEEE</t>
         </is>
       </c>
-      <c r="X130" t="inlineStr">
+      <c r="X121" t="inlineStr">
         <is>
           <t>nan; References; Pages; Year; Bibtex; Link</t>
         </is>
       </c>
     </row>
-    <row r="131">
-      <c r="A131" s="1" t="n">
-        <v>129</v>
-      </c>
-      <c r="B131" t="inlineStr"/>
-      <c r="C131" t="inlineStr">
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr"/>
+      <c r="C122" t="inlineStr">
         <is>
           <t>TestNN</t>
         </is>
       </c>
-      <c r="D131" t="inlineStr">
+      <c r="D122" t="inlineStr">
         <is>
           <t>Towards Verification of Artificial Neural Networks</t>
         </is>
       </c>
-      <c r="E131" t="inlineStr"/>
-      <c r="F131" t="inlineStr"/>
-      <c r="G131" t="inlineStr">
+      <c r="E122" t="inlineStr"/>
+      <c r="F122" t="inlineStr"/>
+      <c r="G122" t="inlineStr">
         <is>
           <t>Scheibler, K., L. Winterer, R. Wimmer and B. Becker</t>
         </is>
       </c>
-      <c r="H131" t="inlineStr"/>
-      <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="inlineStr">
+      <c r="H122" t="inlineStr"/>
+      <c r="I122" t="inlineStr"/>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr"/>
+      <c r="M122" t="inlineStr">
         <is>
           <t>Included</t>
         </is>
       </c>
-      <c r="N131" t="inlineStr">
+      <c r="N122" t="inlineStr">
         <is>
           <t>Included</t>
         </is>
       </c>
-      <c r="O131" t="inlineStr">
+      <c r="O122" t="inlineStr">
         <is>
           <t>snowballing</t>
         </is>
       </c>
-      <c r="P131" t="inlineStr"/>
-      <c r="Q131" t="inlineStr"/>
-      <c r="R131" t="n">
+      <c r="P122" t="inlineStr"/>
+      <c r="Q122" t="inlineStr"/>
+      <c r="R122" t="n">
         <v>1</v>
       </c>
-      <c r="S131" t="inlineStr"/>
-      <c r="T131" t="n">
+      <c r="S122" t="inlineStr"/>
+      <c r="T122" t="n">
         <v>2015</v>
       </c>
-      <c r="U131" t="inlineStr"/>
-      <c r="V131" t="inlineStr"/>
-      <c r="W131" t="inlineStr"/>
-      <c r="X131" t="inlineStr"/>
+      <c r="U122" t="inlineStr"/>
+      <c r="V122" t="inlineStr"/>
+      <c r="W122" t="inlineStr"/>
+      <c r="X122" t="inlineStr"/>
     </row>
-    <row r="132">
-      <c r="A132" s="1" t="n">
-        <v>130</v>
-      </c>
-      <c r="B132" t="inlineStr"/>
-      <c r="C132" t="inlineStr">
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr"/>
+      <c r="C123" t="inlineStr">
         <is>
           <t>TestNN</t>
         </is>
       </c>
-      <c r="D132" t="inlineStr">
+      <c r="D123" t="inlineStr">
         <is>
           <t>Understanding Adversarial Training: Increasing Local Stability of Neural Nets through Robust Optimization</t>
         </is>
       </c>
-      <c r="E132" t="inlineStr">
+      <c r="E123" t="inlineStr">
         <is>
           <t>Abstract:We propose a general framework for increasing local stability of Artificial Neural Nets (ANNs) using Robust Optimization (RO). We achieve this through an alternating minimization-maximization procedure, in which the loss of the network is minimized over perturbed examples that are generated at each parameter update. We show that adversarial training of ANNs is in fact robustification of the network optimization, and that our proposed framework generalizes previous approaches for increasing local stability of ANNs. Experimental results reveal that our approach increases the robustness of the network to existing adversarial examples, while making it harder to generate new ones. Furthermore, our algorithm improves the accuracy of the network also on the original test data.</t>
         </is>
       </c>
-      <c r="F132" t="inlineStr"/>
-      <c r="G132" t="inlineStr">
+      <c r="F123" t="inlineStr"/>
+      <c r="G123" t="inlineStr">
         <is>
           <t>Uri Shaham; Yutaro Yamada; Sahand Negahban</t>
         </is>
       </c>
-      <c r="H132" t="inlineStr">
+      <c r="H123" t="inlineStr">
         <is>
           <t>arXiv</t>
         </is>
       </c>
-      <c r="I132" t="inlineStr">
+      <c r="I123" t="inlineStr">
         <is>
           <t>https://doi.org/10.48550/arXiv.1511.05432</t>
         </is>
       </c>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="inlineStr">
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr"/>
+      <c r="M123" t="inlineStr">
         <is>
           <t>Included</t>
         </is>
       </c>
-      <c r="N132" t="inlineStr">
+      <c r="N123" t="inlineStr">
         <is>
           <t>Included</t>
         </is>
       </c>
-      <c r="O132" t="inlineStr">
+      <c r="O123" t="inlineStr">
         <is>
           <t>snowballing</t>
         </is>
       </c>
-      <c r="P132" t="inlineStr"/>
-      <c r="Q132" t="inlineStr"/>
-      <c r="R132" t="n">
+      <c r="P123" t="inlineStr"/>
+      <c r="Q123" t="inlineStr"/>
+      <c r="R123" t="n">
         <v>1</v>
       </c>
-      <c r="S132" t="inlineStr">
+      <c r="S123" t="inlineStr">
         <is>
           <t>arXiv</t>
         </is>
       </c>
-      <c r="T132" t="n">
+      <c r="T123" t="n">
         <v>2015</v>
       </c>
-      <c r="U132" t="inlineStr">
+      <c r="U123" t="inlineStr">
         <is>
           <t>Understanding adversarial training: Increasing local stability of neural nets through robust optimization</t>
         </is>
       </c>
-      <c r="V132" t="inlineStr">
+      <c r="V123" t="inlineStr">
         <is>
           <t>https://doi.org/10.48550/arXiv.1511.05432</t>
         </is>
       </c>
-      <c r="W132" t="inlineStr"/>
-      <c r="X132" t="inlineStr">
+      <c r="W123" t="inlineStr"/>
+      <c r="X123" t="inlineStr">
         <is>
           <t>nan; Keywords; References; Pages; Year; Bibtex; Link; Publisher</t>
         </is>
       </c>
     </row>
-    <row r="133">
-      <c r="A133" s="1" t="n">
-        <v>131</v>
-      </c>
-      <c r="B133" t="inlineStr"/>
-      <c r="C133" t="inlineStr">
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr"/>
+      <c r="C124" t="inlineStr">
         <is>
           <t>TestNN</t>
         </is>
       </c>
-      <c r="D133" t="inlineStr">
+      <c r="D124" t="inlineStr">
         <is>
           <t>Understanding deep image representations by inverting them</t>
         </is>
       </c>
-      <c r="E133" t="inlineStr">
+      <c r="E124" t="inlineStr">
         <is>
           <t>Image representations, from SIFT and Bag of Visual Words to Convolutional Neural Networks (CNNs), are a crucial component of almost any image understanding system. Nevertheless, our understanding of them remains limited. In this paper we conduct a direct analysis of the visual information contained in representations by asking the following question: given an encoding of an image, to which extent is it possible to reconstruct the image itself? To answer this question we contribute a general framework to invert representations. We show that this method can invert representations such as HOG more accurately than recent alternatives while being applicable to CNNs too. We then use this technique to study the inverse of recent state-of-the-art CNN image representations for the first time. Among our findings, we show that several layers in CNNs retain photographically accurate information about the image, with different degrees of geometric and photometric invariance.</t>
         </is>
       </c>
-      <c r="F133" t="inlineStr">
+      <c r="F124" t="inlineStr">
         <is>
           <t>Image reconstruction;Image representation;Visualization;Standards;TV;Neural networks;Noise</t>
         </is>
       </c>
-      <c r="G133" t="inlineStr">
+      <c r="G124" t="inlineStr">
         <is>
           <t>Mahendran, Aravindh; Vedaldi, Andrea</t>
         </is>
       </c>
-      <c r="H133" t="inlineStr">
+      <c r="H124" t="inlineStr">
         <is>
           <t>2015 IEEE Conference on Computer Vision and Pattern Recognition (CVPR)</t>
         </is>
       </c>
-      <c r="I133" t="inlineStr">
+      <c r="I124" t="inlineStr">
         <is>
           <t>https://doi.org/10.1109/CVPR.2015.7299155</t>
         </is>
       </c>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr">
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr">
         <is>
           <t>5188-5196</t>
         </is>
       </c>
-      <c r="L133" t="inlineStr">
+      <c r="L124" t="inlineStr">
         <is>
           <t>@INPROCEEDINGS{7299155,
     author = "Mahendran, Aravindh and Vedaldi, Andrea",
@@ -14594,266 +14061,266 @@
 }</t>
         </is>
       </c>
-      <c r="M133" t="inlineStr">
+      <c r="M124" t="inlineStr">
         <is>
           <t>Included</t>
         </is>
       </c>
-      <c r="N133" t="inlineStr">
+      <c r="N124" t="inlineStr">
         <is>
           <t>Included</t>
         </is>
       </c>
-      <c r="O133" t="inlineStr">
+      <c r="O124" t="inlineStr">
         <is>
           <t>snowballing</t>
         </is>
       </c>
-      <c r="P133" t="inlineStr"/>
-      <c r="Q133" t="inlineStr"/>
-      <c r="R133" t="n">
+      <c r="P124" t="inlineStr"/>
+      <c r="Q124" t="inlineStr"/>
+      <c r="R124" t="n">
         <v>1</v>
       </c>
-      <c r="S133" t="inlineStr">
+      <c r="S124" t="inlineStr">
         <is>
           <t>Scopus Signed In</t>
         </is>
       </c>
-      <c r="T133" t="n">
+      <c r="T124" t="n">
         <v>2015</v>
       </c>
-      <c r="U133" t="inlineStr">
+      <c r="U124" t="inlineStr">
         <is>
           <t>Understanding deep image representations by inverting them</t>
         </is>
       </c>
-      <c r="V133" t="inlineStr">
+      <c r="V124" t="inlineStr">
         <is>
           <t>https://ieeexplore.ieee.org/document/7299155</t>
         </is>
       </c>
-      <c r="W133" t="inlineStr">
+      <c r="W124" t="inlineStr">
         <is>
           <t>IEEE</t>
         </is>
       </c>
-      <c r="X133" t="inlineStr">
+      <c r="X124" t="inlineStr">
         <is>
           <t>nan; References</t>
         </is>
       </c>
     </row>
-    <row r="134">
-      <c r="A134" s="1" t="n">
-        <v>132</v>
-      </c>
-      <c r="B134" t="inlineStr"/>
-      <c r="C134" t="inlineStr">
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr"/>
+      <c r="C125" t="inlineStr">
         <is>
           <t>TestNN</t>
         </is>
       </c>
-      <c r="D134" t="inlineStr">
+      <c r="D125" t="inlineStr">
         <is>
           <t>Distilling Knowledge from Deep Networks with Applications to Healthcare Domain</t>
         </is>
       </c>
-      <c r="E134" t="inlineStr">
+      <c r="E125" t="inlineStr">
         <is>
           <t>Abstract:Exponential growth in Electronic Healthcare Records (EHR) has resulted in new opportunities and urgent needs for discovery of meaningful data-driven representations and patterns of diseases in Computational Phenotyping research. Deep Learning models have shown superior performance for robust prediction in computational phenotyping tasks, but suffer from the issue of model interpretability which is crucial for clinicians involved in decision-making. In this paper, we introduce a novel knowledge-distillation approach called Interpretable Mimic Learning, to learn interpretable phenotype features for making robust prediction while mimicking the performance of deep learning models. Our framework uses Gradient Boosting Trees to learn interpretable features from deep learning models such as Stacked Denoising Autoencoder and Long Short-Term Memory. Exhaustive experiments on a real-world clinical time-series dataset show that our method obtains similar or better performance than the deep learning models, and it provides interpretable phenotypes for clinical decision making.</t>
         </is>
       </c>
-      <c r="F134" t="inlineStr"/>
-      <c r="G134" t="inlineStr">
+      <c r="F125" t="inlineStr"/>
+      <c r="G125" t="inlineStr">
         <is>
           <t>Zhengping Che; Sanjay Purushotham; Robinder Khemani; Yan Liu</t>
         </is>
       </c>
-      <c r="H134" t="inlineStr">
+      <c r="H125" t="inlineStr">
         <is>
           <t>arXiv</t>
         </is>
       </c>
-      <c r="I134" t="inlineStr">
+      <c r="I125" t="inlineStr">
         <is>
           <t>https://doi.org/10.48550/arXiv.1512.03542</t>
         </is>
       </c>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="inlineStr">
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr"/>
+      <c r="M125" t="inlineStr">
         <is>
           <t>Included</t>
         </is>
       </c>
-      <c r="N134" t="inlineStr">
+      <c r="N125" t="inlineStr">
         <is>
           <t>Included</t>
         </is>
       </c>
-      <c r="O134" t="inlineStr">
+      <c r="O125" t="inlineStr">
         <is>
           <t>snowballing</t>
         </is>
       </c>
-      <c r="P134" t="inlineStr"/>
-      <c r="Q134" t="inlineStr"/>
-      <c r="R134" t="n">
+      <c r="P125" t="inlineStr"/>
+      <c r="Q125" t="inlineStr"/>
+      <c r="R125" t="n">
         <v>1</v>
       </c>
-      <c r="S134" t="inlineStr">
+      <c r="S125" t="inlineStr">
         <is>
           <t>arXiv</t>
         </is>
       </c>
-      <c r="T134" t="n">
+      <c r="T125" t="n">
         <v>2015</v>
       </c>
-      <c r="U134" t="inlineStr">
+      <c r="U125" t="inlineStr">
         <is>
           <t>Distilling knowledge from deep networks with applications to healthcare domain</t>
         </is>
       </c>
-      <c r="V134" t="inlineStr">
+      <c r="V125" t="inlineStr">
         <is>
           <t>https://doi.org/10.48550/arXiv.1512.03542</t>
         </is>
       </c>
-      <c r="W134" t="inlineStr"/>
-      <c r="X134" t="inlineStr">
+      <c r="W125" t="inlineStr"/>
+      <c r="X125" t="inlineStr">
         <is>
           <t>nan; Keywords; References; Pages; Year; Bibtex; Link; Publisher</t>
         </is>
       </c>
     </row>
-    <row r="135">
-      <c r="A135" s="1" t="n">
-        <v>133</v>
-      </c>
-      <c r="B135" t="inlineStr"/>
-      <c r="C135" t="inlineStr">
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr"/>
+      <c r="C126" t="inlineStr">
         <is>
           <t>TestNN</t>
         </is>
       </c>
-      <c r="D135" t="inlineStr">
+      <c r="D126" t="inlineStr">
         <is>
           <t>Distilling the Knowledge in a Neural Network</t>
         </is>
       </c>
-      <c r="E135" t="inlineStr">
+      <c r="E126" t="inlineStr">
         <is>
           <t>Abstract:A very simple way to improve the performance of almost any machine learning algorithm is to train many different models on the same data and then to average their predictions. Unfortunately, making predictions using a whole ensemble of models is cumbersome and may be too computationally expensive to allow deployment to a large number of users, especially if the individual models are large neural nets. Caruana and his collaborators have shown that it is possible to compress the knowledge in an ensemble into a single model which is much easier to deploy and we develop this approach further using a different compression technique. We achieve some surprising results on MNIST and we show that we can significantly improve the acoustic model of a heavily used commercial system by distilling the knowledge in an ensemble of models into a single model. We also introduce a new type of ensemble composed of one or more full models and many specialist models which learn to distinguish fine-grained classes that the full models confuse. Unlike a mixture of experts, these specialist models can be trained rapidly and in parallel.</t>
         </is>
       </c>
-      <c r="F135" t="inlineStr"/>
-      <c r="G135" t="inlineStr">
+      <c r="F126" t="inlineStr"/>
+      <c r="G126" t="inlineStr">
         <is>
           <t>Geoffrey Hinton; Oriol Vinyals; Jeff Dean</t>
         </is>
       </c>
-      <c r="H135" t="inlineStr">
+      <c r="H126" t="inlineStr">
         <is>
           <t>arXiv</t>
         </is>
       </c>
-      <c r="I135" t="inlineStr">
+      <c r="I126" t="inlineStr">
         <is>
           <t>https://doi.org/10.48550/arXiv.1503.02531</t>
         </is>
       </c>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="inlineStr">
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr"/>
+      <c r="M126" t="inlineStr">
         <is>
           <t>Included</t>
         </is>
       </c>
-      <c r="N135" t="inlineStr">
+      <c r="N126" t="inlineStr">
         <is>
           <t>Included</t>
         </is>
       </c>
-      <c r="O135" t="inlineStr">
+      <c r="O126" t="inlineStr">
         <is>
           <t>snowballing</t>
         </is>
       </c>
-      <c r="P135" t="inlineStr"/>
-      <c r="Q135" t="inlineStr"/>
-      <c r="R135" t="n">
+      <c r="P126" t="inlineStr"/>
+      <c r="Q126" t="inlineStr"/>
+      <c r="R126" t="n">
         <v>1</v>
       </c>
-      <c r="S135" t="inlineStr">
+      <c r="S126" t="inlineStr">
         <is>
           <t>arXiv</t>
         </is>
       </c>
-      <c r="T135" t="n">
+      <c r="T126" t="n">
         <v>2015</v>
       </c>
-      <c r="U135" t="inlineStr">
+      <c r="U126" t="inlineStr">
         <is>
           <t>Distilling the knowledge in a neural network</t>
         </is>
       </c>
-      <c r="V135" t="inlineStr">
+      <c r="V126" t="inlineStr">
         <is>
           <t>https://doi.org/10.48550/arXiv.1503.02531</t>
         </is>
       </c>
-      <c r="W135" t="inlineStr"/>
-      <c r="X135" t="inlineStr">
+      <c r="W126" t="inlineStr"/>
+      <c r="X126" t="inlineStr">
         <is>
           <t>nan; Keywords; References; Pages; Year; Bibtex; Link; Publisher</t>
         </is>
       </c>
     </row>
-    <row r="136">
-      <c r="A136" s="1" t="n">
-        <v>134</v>
-      </c>
-      <c r="B136" t="inlineStr"/>
-      <c r="C136" t="inlineStr">
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr"/>
+      <c r="C127" t="inlineStr">
         <is>
           <t>TestNN</t>
         </is>
       </c>
-      <c r="D136" t="inlineStr">
+      <c r="D127" t="inlineStr">
         <is>
           <t>On pixel-wise explanations for non-linear classifier decisions by layer-wise relevance propagation</t>
         </is>
       </c>
-      <c r="E136" t="inlineStr">
+      <c r="E127" t="inlineStr">
         <is>
           <t>Understanding and interpreting classification decisions of automated image classification systems is of high value in many applications, as it allows to verify the reasoning of the system and provides additional information to the human expert. Although machine learning methods are solving very successfully a plethora of tasks, they have in most cases the disadvantage of acting as a black box, not providing any information about what made them arrive at a particular decision. This work proposes a general solution to the problem of understanding classification decisions by pixel-wise decomposition of nonlinear classifiers. We introduce a methodology that allows to visualize the contributions of single pixels to predictions for kernel-based classifiers over Bag of Words features and for multilayered neural networks. These pixel contributions can be visualized as heatmaps and are provided to a human expert who can intuitively not only verify the validity of the classification decision, but also focus further analysis on regions of potential interest.We evaluate our method for classifiers trained on PASCAL VOC 2009 images, synthetic image data containing geometric shapes, the MNIST handwritten digits data set and for the pre-trained ImageNet model available as part of the Caffe open source package.</t>
         </is>
       </c>
-      <c r="F136" t="inlineStr">
+      <c r="F127" t="inlineStr">
         <is>
           <t>Algorithms; Artificial Intelligence; Humans; Image Processing;  Computer-Assisted; Pattern Recognition;  Automated; Article; artificial neural network; Bag of Words model; classification; classifier; controlled study; image analysis; kernel method; layer wise relevance propagation; machine learning; nonlinear system; prediction; algorithm; artificial intelligence; automated pattern recognition; human; image processing; procedures</t>
         </is>
       </c>
-      <c r="G136" t="inlineStr">
+      <c r="G127" t="inlineStr">
         <is>
           <t>Bach, Sebastian; Binder, Alexander; Montavon, Gregoire; Klauschen, Frederick; Muller, Klaus-Robert; Samek, Wojciech</t>
         </is>
       </c>
-      <c r="H136" t="inlineStr">
+      <c r="H127" t="inlineStr">
         <is>
           <t>PLoS ONE</t>
         </is>
       </c>
-      <c r="I136" t="inlineStr">
+      <c r="I127" t="inlineStr">
         <is>
           <t>https://doi.org/10.1371/journal.pone.0130140</t>
         </is>
       </c>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr">
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr">
         <is>
           <t>@ARTICLE{Bach2015,
     author = "Bach, Sebastian and Binder, Alexander and Montavon, Gregoire and Klauschen, Frederick and Muller, Klaus-Robert and Samek, Wojciech",
@@ -14880,102 +14347,102 @@
 }</t>
         </is>
       </c>
-      <c r="M136" t="inlineStr">
+      <c r="M127" t="inlineStr">
         <is>
           <t>Included</t>
         </is>
       </c>
-      <c r="N136" t="inlineStr">
+      <c r="N127" t="inlineStr">
         <is>
           <t>Included</t>
         </is>
       </c>
-      <c r="O136" t="inlineStr">
+      <c r="O127" t="inlineStr">
         <is>
           <t>snowballing</t>
         </is>
       </c>
-      <c r="P136" t="inlineStr"/>
-      <c r="Q136" t="inlineStr"/>
-      <c r="R136" t="n">
+      <c r="P127" t="inlineStr"/>
+      <c r="Q127" t="inlineStr"/>
+      <c r="R127" t="n">
         <v>1</v>
       </c>
-      <c r="S136" t="inlineStr">
+      <c r="S127" t="inlineStr">
         <is>
           <t>Scopus Signed In</t>
         </is>
       </c>
-      <c r="T136" t="n">
+      <c r="T127" t="n">
         <v>2015</v>
       </c>
-      <c r="U136" t="inlineStr">
+      <c r="U127" t="inlineStr">
         <is>
           <t>On pixel-wise explanations for non-linear classifier decisions by layer-wise relevance propagation</t>
         </is>
       </c>
-      <c r="V136" t="inlineStr">
+      <c r="V127" t="inlineStr">
         <is>
           <t>https://www.scopus.com/record/display.uri?eid=2-s2.0-84940560152&amp;origin=resultslist&amp;sort=plf-f&amp;src=s&amp;sid=dee5e8c1063d18b0602c287c7f234c36&amp;sot=b&amp;sdt=b&amp;s=TITLE-ABS-KEY%28on+pixel+wise+explanations+for+non+linear+classifier+decisions+by+layer+wise+relevance+propagation%29&amp;sl=113&amp;sessionSearchId=dee5e8c1063d18b0602c287c7f234c36&amp;relpos=0</t>
         </is>
       </c>
-      <c r="W136" t="inlineStr">
+      <c r="W127" t="inlineStr">
         <is>
           <t>Public Library of Science</t>
         </is>
       </c>
-      <c r="X136" t="inlineStr">
+      <c r="X127" t="inlineStr">
         <is>
           <t>nan; References; Pages</t>
         </is>
       </c>
     </row>
-    <row r="137">
-      <c r="A137" s="1" t="n">
-        <v>135</v>
-      </c>
-      <c r="B137" t="inlineStr"/>
-      <c r="C137" t="inlineStr">
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr"/>
+      <c r="C128" t="inlineStr">
         <is>
           <t>TestNN</t>
         </is>
       </c>
-      <c r="D137" t="inlineStr">
+      <c r="D128" t="inlineStr">
         <is>
           <t>Understanding deep image representations by inverting them</t>
         </is>
       </c>
-      <c r="E137" t="inlineStr">
+      <c r="E128" t="inlineStr">
         <is>
           <t>Image representations, from SIFT and Bag of Visual Words to Convolutional Neural Networks (CNNs), are a crucial component of almost any image understanding system. Nevertheless, our understanding of them remains limited. In this paper we conduct a direct analysis of the visual information contained in representations by asking the following question: given an encoding of an image, to which extent is it possible to reconstruct the image itself? To answer this question we contribute a general framework to invert representations. We show that this method can invert representations such as HOG more accurately than recent alternatives while being applicable to CNNs too. We then use this technique to study the inverse of recent state-of-the-art CNN image representations for the first time. Among our findings, we show that several layers in CNNs retain photographically accurate information about the image, with different degrees of geometric and photometric invariance.</t>
         </is>
       </c>
-      <c r="F137" t="inlineStr">
+      <c r="F128" t="inlineStr">
         <is>
           <t>Image reconstruction;Image representation;Visualization;Standards;TV;Neural networks;Noise</t>
         </is>
       </c>
-      <c r="G137" t="inlineStr">
+      <c r="G128" t="inlineStr">
         <is>
           <t>Mahendran, Aravindh; Vedaldi, Andrea</t>
         </is>
       </c>
-      <c r="H137" t="inlineStr">
+      <c r="H128" t="inlineStr">
         <is>
           <t>2015 IEEE Conference on Computer Vision and Pattern Recognition (CVPR)</t>
         </is>
       </c>
-      <c r="I137" t="inlineStr">
+      <c r="I128" t="inlineStr">
         <is>
           <t>https://doi.org/10.1109/CVPR.2015.7299155</t>
         </is>
       </c>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr">
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr">
         <is>
           <t>5188-5196</t>
         </is>
       </c>
-      <c r="L137" t="inlineStr">
+      <c r="L128" t="inlineStr">
         <is>
           <t>@INPROCEEDINGS{7299155,
     author = "Mahendran, Aravindh and Vedaldi, Andrea",
@@ -14993,558 +14460,558 @@
 }</t>
         </is>
       </c>
-      <c r="M137" t="inlineStr">
+      <c r="M128" t="inlineStr">
         <is>
           <t>Included</t>
         </is>
       </c>
-      <c r="N137" t="inlineStr">
+      <c r="N128" t="inlineStr">
         <is>
           <t>Included</t>
         </is>
       </c>
-      <c r="O137" t="inlineStr">
+      <c r="O128" t="inlineStr">
         <is>
           <t>snowballing</t>
         </is>
       </c>
-      <c r="P137" t="inlineStr"/>
-      <c r="Q137" t="inlineStr"/>
-      <c r="R137" t="n">
+      <c r="P128" t="inlineStr"/>
+      <c r="Q128" t="inlineStr"/>
+      <c r="R128" t="n">
         <v>1</v>
       </c>
-      <c r="S137" t="inlineStr">
+      <c r="S128" t="inlineStr">
         <is>
           <t>Scopus Signed In</t>
         </is>
       </c>
-      <c r="T137" t="n">
+      <c r="T128" t="n">
         <v>2015</v>
       </c>
-      <c r="U137" t="inlineStr">
+      <c r="U128" t="inlineStr">
         <is>
           <t>Understanding deep image representations by inverting them</t>
         </is>
       </c>
-      <c r="V137" t="inlineStr">
+      <c r="V128" t="inlineStr">
         <is>
           <t>https://ieeexplore.ieee.org/document/7299155</t>
         </is>
       </c>
-      <c r="W137" t="inlineStr">
+      <c r="W128" t="inlineStr">
         <is>
           <t>IEEE</t>
         </is>
       </c>
-      <c r="X137" t="inlineStr">
+      <c r="X128" t="inlineStr">
         <is>
           <t>nan; References</t>
         </is>
       </c>
     </row>
-    <row r="138">
-      <c r="A138" s="1" t="n">
-        <v>136</v>
-      </c>
-      <c r="B138" t="inlineStr"/>
-      <c r="C138" t="inlineStr">
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr"/>
+      <c r="C129" t="inlineStr">
         <is>
           <t>TestNN</t>
         </is>
       </c>
-      <c r="D138" t="inlineStr">
+      <c r="D129" t="inlineStr">
         <is>
           <t>Attentive Explanations: Justifying Decisions and Pointing to the Evidence</t>
         </is>
       </c>
-      <c r="E138" t="inlineStr">
+      <c r="E129" t="inlineStr">
         <is>
           <t>Abstract:Deep models are the defacto standard in visual decision models due to their impressive performance on a wide array of visual tasks. However, they are frequently seen as opaque and are unable to explain their decisions. In contrast, humans can justify their decisions with natural language and point to the evidence in the visual world which led to their decisions. We postulate that deep models can do this as well and propose our Pointing and Justification (PJ-X) model which can justify its decision with a sentence and point to the evidence by introspecting its decision and explanation process using an attention mechanism. Unfortunately there is no dataset available with reference explanations for visual decision making. We thus collect two datasets in two domains where it is interesting and challenging to explain decisions. First, we extend the visual question answering task to not only provide an answer but also a natural language explanation for the answer. Second, we focus on explaining human activities which is traditionally more challenging than object classification. We extensively evaluate our PJ-X model, both on the justification and pointing tasks, by comparing it to prior models and ablations using both automatic and human evaluations.</t>
         </is>
       </c>
-      <c r="F138" t="inlineStr"/>
-      <c r="G138" t="inlineStr">
+      <c r="F129" t="inlineStr"/>
+      <c r="G129" t="inlineStr">
         <is>
           <t>Dong Huk Park; Lisa Anne Hendricks; Zeynep Akata; Bernt Schiele; Trevor Darrell; Marcus Rohrbach</t>
         </is>
       </c>
-      <c r="H138" t="inlineStr">
+      <c r="H129" t="inlineStr">
         <is>
           <t>arXiv</t>
         </is>
       </c>
-      <c r="I138" t="inlineStr">
+      <c r="I129" t="inlineStr">
         <is>
           <t>https://doi.org/10.48550/arXiv.1612.04757</t>
         </is>
       </c>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="inlineStr">
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr"/>
+      <c r="M129" t="inlineStr">
         <is>
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N138" t="inlineStr">
+      <c r="N129" t="inlineStr">
         <is>
           <t>Excluded</t>
         </is>
       </c>
-      <c r="O138" t="inlineStr">
+      <c r="O129" t="inlineStr">
         <is>
           <t>snowballing</t>
         </is>
       </c>
-      <c r="P138" t="inlineStr"/>
-      <c r="Q138" t="inlineStr">
+      <c r="P129" t="inlineStr"/>
+      <c r="Q129" t="inlineStr">
         <is>
           <t>Exclusion: irrelevance (more than one inclusion criteria are not satisfied)</t>
         </is>
       </c>
-      <c r="R138" t="n">
+      <c r="R129" t="n">
         <v>1</v>
       </c>
-      <c r="S138" t="inlineStr">
+      <c r="S129" t="inlineStr">
         <is>
           <t>arXiv</t>
         </is>
       </c>
-      <c r="T138" t="n">
+      <c r="T129" t="n">
         <v>2016</v>
       </c>
-      <c r="U138" t="inlineStr">
+      <c r="U129" t="inlineStr">
         <is>
           <t>Attentive explanations: Justifying decisions and pointing to the evidence</t>
         </is>
       </c>
-      <c r="V138" t="inlineStr">
+      <c r="V129" t="inlineStr">
         <is>
           <t>https://doi.org/10.48550/arXiv.1612.04757</t>
         </is>
       </c>
-      <c r="W138" t="inlineStr"/>
-      <c r="X138" t="inlineStr">
+      <c r="W129" t="inlineStr"/>
+      <c r="X129" t="inlineStr">
         <is>
           <t>nan; Keywords; References; Pages; Year; Bibtex; Link; Publisher</t>
         </is>
       </c>
     </row>
-    <row r="139">
-      <c r="A139" s="1" t="n">
-        <v>137</v>
-      </c>
-      <c r="B139" t="inlineStr"/>
-      <c r="C139" t="inlineStr">
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr"/>
+      <c r="C130" t="inlineStr">
         <is>
           <t>TestNN</t>
         </is>
       </c>
-      <c r="D139" t="inlineStr">
+      <c r="D130" t="inlineStr">
         <is>
           <t>Concrete Problems in AI Safety</t>
         </is>
       </c>
-      <c r="E139" t="inlineStr">
+      <c r="E130" t="inlineStr">
         <is>
           <t>Abstract:Rapid progress in machine learning and artificial intelligence (AI) has brought increasing attention to the potential impacts of AI technologies on society. In this paper we discuss one such potential impact: the problem of accidents in machine learning systems, defined as unintended and harmful behavior that may emerge from poor design of real-world AI systems. We present a list of five practical research problems related to accident risk, categorized according to whether the problem originates from having the wrong objective function ("avoiding side effects" and "avoiding reward hacking"), an objective function that is too expensive to evaluate frequently ("scalable supervision"), or undesirable behavior during the learning process ("safe exploration" and "distributional shift"). We review previous work in these areas as well as suggesting research directions with a focus on relevance to cutting-edge AI systems. Finally, we consider the high-level question of how to think most productively about the safety of forward-looking applications of AI.</t>
         </is>
       </c>
-      <c r="F139" t="inlineStr"/>
-      <c r="G139" t="inlineStr">
+      <c r="F130" t="inlineStr"/>
+      <c r="G130" t="inlineStr">
         <is>
           <t>Dario Amodei; Chris Olah; Jacob Steinhardt; Paul Christiano; John Schulman; Dan Mane</t>
         </is>
       </c>
-      <c r="H139" t="inlineStr">
+      <c r="H130" t="inlineStr">
         <is>
           <t>arXiv</t>
         </is>
       </c>
-      <c r="I139" t="inlineStr">
+      <c r="I130" t="inlineStr">
         <is>
           <t>https://doi.org/10.48550/arXiv.1606.06565</t>
         </is>
       </c>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="inlineStr">
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
+      <c r="M130" t="inlineStr">
         <is>
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N139" t="inlineStr">
+      <c r="N130" t="inlineStr">
         <is>
           <t>Excluded</t>
         </is>
       </c>
-      <c r="O139" t="inlineStr">
+      <c r="O130" t="inlineStr">
         <is>
           <t>snowballing</t>
         </is>
       </c>
-      <c r="P139" t="inlineStr"/>
-      <c r="Q139" t="inlineStr">
+      <c r="P130" t="inlineStr"/>
+      <c r="Q130" t="inlineStr">
         <is>
           <t>Exclusion: review paper</t>
         </is>
       </c>
-      <c r="R139" t="n">
+      <c r="R130" t="n">
         <v>1</v>
       </c>
-      <c r="S139" t="inlineStr">
+      <c r="S130" t="inlineStr">
         <is>
           <t>arXiv</t>
         </is>
       </c>
-      <c r="T139" t="n">
+      <c r="T130" t="n">
         <v>2016</v>
       </c>
-      <c r="U139" t="inlineStr">
+      <c r="U130" t="inlineStr">
         <is>
           <t>Concrete problems in AI safety</t>
         </is>
       </c>
-      <c r="V139" t="inlineStr">
+      <c r="V130" t="inlineStr">
         <is>
           <t>https://doi.org/10.48550/arXiv.1606.06565</t>
         </is>
       </c>
-      <c r="W139" t="inlineStr"/>
-      <c r="X139" t="inlineStr">
+      <c r="W130" t="inlineStr"/>
+      <c r="X130" t="inlineStr">
         <is>
           <t>nan; Keywords; References; Pages; Year; Bibtex; Link; Publisher</t>
         </is>
       </c>
     </row>
-    <row r="140">
-      <c r="A140" s="1" t="n">
-        <v>138</v>
-      </c>
-      <c r="B140" t="inlineStr"/>
-      <c r="C140" t="inlineStr">
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr"/>
+      <c r="C131" t="inlineStr">
         <is>
           <t>TestNN</t>
         </is>
       </c>
-      <c r="D140" t="inlineStr">
+      <c r="D131" t="inlineStr">
         <is>
           <t>Distillation as a Defense to Adversarial Perturbations Against Deep Neural Networks</t>
         </is>
       </c>
-      <c r="E140" t="inlineStr">
+      <c r="E131" t="inlineStr">
         <is>
           <t>Deep learning algorithms have been shown to perform extremely well on many classical machine learning problems. However, recent studies have shown that deep learning, like other machine learning techniques, is vulnerable to adversarial samples: inputs crafted to force a deep neural network (DNN) to provide adversary-selected outputs. Such attacks can seriously undermine the security of the system supported by the DNN, sometimes with devastating consequences. For example, autonomous vehicles can be crashed, illicit or illegal content can bypass content filters, or biometric authentication systems can be manipulated to allow improper access. In this work, we introduce a defensive mechanism called defensive distillation to reduce the effectiveness of adversarial samples on DNNs. We analytically investigate the generalizability and robustness properties granted by the use of defensive distillation when training DNNs. We also empirically study the effectiveness of our defense mechanisms on two DNNs placed in adversarial settings. The study shows that defensive distillation can reduce effectiveness of sample creation from 95% to less than 0.5% on a studied DNN. Such dramatic gains can be explained by the fact that distillation leads gradients used in adversarial sample creation to be reduced by a factor of 1030. We also find that distillation increases the average minimum number of features that need to be modified to create adversarial samples by about 800% on one of the DNNs we tested.</t>
         </is>
       </c>
-      <c r="F140" t="inlineStr">
+      <c r="F131" t="inlineStr">
         <is>
           <t>Training; Computer architecture; Machine learning; Security; Automobiles; Computational modeling; Neural networks; Neural Network; Deep Neural Network; Adversarial Perturbations; Machine Learning; Deep Learning; Defense Mechanisms; High Temperature; Training Dataset; Classification Accuracy; Max-pooling Layer; Deep Neural Network Model; Input Dimension; Softmax Layer; Probability Vector; Deep Neural Network Architecture; Saliency Map; MNIST Dataset; Soft Labels; Adversarial Examples; Fast Gradient Sign Method; Source Class; Indicator Vector; Robust Definition; Malware; Deep Neural Network Classifier; Knowledge Extraction; Minimal Perturbation</t>
         </is>
       </c>
-      <c r="G140" t="inlineStr">
+      <c r="G131" t="inlineStr">
         <is>
           <t>Nicolas Papernot; Patrick McDaniel; Xi Wu; Somesh Jha; Ananthram Swami</t>
         </is>
       </c>
-      <c r="H140" t="inlineStr">
+      <c r="H131" t="inlineStr">
         <is>
           <t>2016 IEEE Symposium on Security and Privacy (SP)</t>
         </is>
       </c>
-      <c r="I140" t="inlineStr">
+      <c r="I131" t="inlineStr">
         <is>
           <t>https://doi.org/10.1109/SP.2016.41</t>
         </is>
       </c>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
-      <c r="M140" t="inlineStr">
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
+      <c r="M131" t="inlineStr">
         <is>
           <t>Included</t>
         </is>
       </c>
-      <c r="N140" t="inlineStr">
+      <c r="N131" t="inlineStr">
         <is>
           <t>Included</t>
         </is>
       </c>
-      <c r="O140" t="inlineStr">
+      <c r="O131" t="inlineStr">
         <is>
           <t>snowballing</t>
         </is>
       </c>
-      <c r="P140" t="inlineStr"/>
-      <c r="Q140" t="inlineStr"/>
-      <c r="R140" t="n">
+      <c r="P131" t="inlineStr"/>
+      <c r="Q131" t="inlineStr"/>
+      <c r="R131" t="n">
         <v>1</v>
       </c>
-      <c r="S140" t="inlineStr">
+      <c r="S131" t="inlineStr">
         <is>
           <t>IEEE</t>
         </is>
       </c>
-      <c r="T140" t="n">
+      <c r="T131" t="n">
         <v>2016</v>
       </c>
-      <c r="U140" t="inlineStr">
+      <c r="U131" t="inlineStr">
         <is>
           <t>Distillation as a defense to adversarial perturbations against deep neural networks</t>
         </is>
       </c>
-      <c r="V140" t="inlineStr">
+      <c r="V131" t="inlineStr">
         <is>
           <t>https://doi.org/10.1109/SP.2016.41</t>
         </is>
       </c>
-      <c r="W140" t="inlineStr">
+      <c r="W131" t="inlineStr">
         <is>
           <t>IEEE</t>
         </is>
       </c>
-      <c r="X140" t="inlineStr">
+      <c r="X131" t="inlineStr">
         <is>
           <t>nan; References; Pages; Year; Bibtex; Link</t>
         </is>
       </c>
     </row>
-    <row r="141">
-      <c r="A141" s="1" t="n">
-        <v>139</v>
-      </c>
-      <c r="B141" t="inlineStr"/>
-      <c r="C141" t="inlineStr">
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr"/>
+      <c r="C132" t="inlineStr">
         <is>
           <t>TestNN</t>
         </is>
       </c>
-      <c r="D141" t="inlineStr">
+      <c r="D132" t="inlineStr">
         <is>
           <t>Improving the Robustness of Deep Neural Networks via Stability Training</t>
         </is>
       </c>
-      <c r="E141" t="inlineStr">
+      <c r="E132" t="inlineStr">
         <is>
           <t>In this paper we address the issue of output instability of deep neural networks: small perturbations in the visual input can significantly distort the feature embeddings and output of a neural network. Such instability affects many deep architectures with state-of-the-art performance on a wide range of computer vision tasks. We present a general stability training method to stabilize deep networks against small input distortions that result from various types of common image processing, such as compression, rescaling, and cropping. We validate our method by stabilizing the state of-the-art Inception architecture [11] against these types of distortions. In addition, we demonstrate that our stabilized model gives robust state-of-the-art performance on largescale near-duplicate detection, similar-image ranking, and classification on noisy datasets.</t>
         </is>
       </c>
-      <c r="F141" t="inlineStr">
+      <c r="F132" t="inlineStr">
         <is>
           <t>Training; Stability analysis; Robustness; Neural networks; Visualization; Feature extraction; Data models; Neural Network; Deep Network; Deep Neural Network; Perturbation Theory; Network Output; Visual Input; Wide Range Of Tasks; Distortion Types; Convolutional Neural Network; Gaussian Noise; Feature Space; Data Augmentation; Class Labels; Duplicate Samples; Noisy Data; Positive Image; Evaluation Dataset; Training Objective; Original Objective; Feature Distance; Adversarial Examples; JPEG Compression; Visual Similarity; Performance Ranking; Ranking Task; Query Image; Stable Output; Inception Network; Image Pairs; Image Retrieval</t>
         </is>
       </c>
-      <c r="G141" t="inlineStr">
+      <c r="G132" t="inlineStr">
         <is>
           <t>Stephan Zheng; Yang Song; Thomas Leung; Ian Goodfellow</t>
         </is>
       </c>
-      <c r="H141" t="inlineStr">
+      <c r="H132" t="inlineStr">
         <is>
           <t>2016 IEEE Conference on Computer Vision and Pattern Recognition (CVPR)</t>
         </is>
       </c>
-      <c r="I141" t="inlineStr">
+      <c r="I132" t="inlineStr">
         <is>
           <t>https://doi.org/10.1109/CVPR.2016.485</t>
         </is>
       </c>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="inlineStr">
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr"/>
+      <c r="M132" t="inlineStr">
         <is>
           <t>Included</t>
         </is>
       </c>
-      <c r="N141" t="inlineStr">
+      <c r="N132" t="inlineStr">
         <is>
           <t>Included</t>
         </is>
       </c>
-      <c r="O141" t="inlineStr">
+      <c r="O132" t="inlineStr">
         <is>
           <t>snowballing</t>
         </is>
       </c>
-      <c r="P141" t="inlineStr"/>
-      <c r="Q141" t="inlineStr"/>
-      <c r="R141" t="n">
+      <c r="P132" t="inlineStr"/>
+      <c r="Q132" t="inlineStr"/>
+      <c r="R132" t="n">
         <v>1</v>
       </c>
-      <c r="S141" t="inlineStr">
+      <c r="S132" t="inlineStr">
         <is>
           <t>IEEE</t>
         </is>
       </c>
-      <c r="T141" t="n">
+      <c r="T132" t="n">
         <v>2016</v>
       </c>
-      <c r="U141" t="inlineStr">
+      <c r="U132" t="inlineStr">
         <is>
           <t>Improving the robustness of deep neural networks via stability training</t>
         </is>
       </c>
-      <c r="V141" t="inlineStr">
+      <c r="V132" t="inlineStr">
         <is>
           <t>https://doi.org/10.1109/CVPR.2016.485</t>
         </is>
       </c>
-      <c r="W141" t="inlineStr">
+      <c r="W132" t="inlineStr">
         <is>
           <t>IEEE</t>
         </is>
       </c>
-      <c r="X141" t="inlineStr">
+      <c r="X132" t="inlineStr">
         <is>
           <t>nan; References; Pages; Year; Bibtex; Link</t>
         </is>
       </c>
     </row>
-    <row r="142">
-      <c r="A142" s="1" t="n">
-        <v>140</v>
-      </c>
-      <c r="B142" t="inlineStr"/>
-      <c r="C142" t="inlineStr">
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr"/>
+      <c r="C133" t="inlineStr">
         <is>
           <t>TestNN</t>
         </is>
       </c>
-      <c r="D142" t="inlineStr">
+      <c r="D133" t="inlineStr">
         <is>
           <t>Measuring neural net robustness with constraints</t>
         </is>
       </c>
-      <c r="E142" t="inlineStr">
+      <c r="E133" t="inlineStr">
         <is>
           <t>Despite having high accuracy, neural nets have been shown to be susceptible to adversarial examples, where a small perturbation to an input can cause it to become mislabeled. We propose metrics for measuring the robustness of a neural net and devise a novel algorithm for approximating these metrics based on an encoding of robustness as a linear program. We show how our metrics can be used to evaluate the robustness of deep neural nets with experiments on the MNIST and CIFAR-10 datasets. Our algorithm generates more informative estimates of robustness metrics compared to estimates based on existing algorithms. Furthermore, we show how existing approaches to improving robustness "overfit" to adversarial examples generated using a specific algorithm. Finally, we show that our techniques can be used to additionally improve neural net robustness both according to the metrics that we propose, but also according to previously proposed metrics.</t>
         </is>
       </c>
-      <c r="F142" t="inlineStr"/>
-      <c r="G142" t="inlineStr">
+      <c r="F133" t="inlineStr"/>
+      <c r="G133" t="inlineStr">
         <is>
           <t>Osbert Bastani; Yani Ioannou; Leonidas Lampropoulos; Dimitrios Vytiniotis; Aditya V. Nori; Antonio Criminisi</t>
         </is>
       </c>
-      <c r="H142" t="inlineStr">
+      <c r="H133" t="inlineStr">
         <is>
           <t>NIPS'16: Proceedings of the 30th International Conference on Neural Information Processing Systems</t>
         </is>
       </c>
-      <c r="I142" t="inlineStr">
+      <c r="I133" t="inlineStr">
         <is>
           <t>https://doi.org/10.5555/3157382.3157391</t>
         </is>
       </c>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr">
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr">
         <is>
           <t>2621-2629</t>
         </is>
       </c>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="inlineStr">
+      <c r="L133" t="inlineStr"/>
+      <c r="M133" t="inlineStr">
         <is>
           <t>Included</t>
         </is>
       </c>
-      <c r="N142" t="inlineStr">
+      <c r="N133" t="inlineStr">
         <is>
           <t>Included</t>
         </is>
       </c>
-      <c r="O142" t="inlineStr">
+      <c r="O133" t="inlineStr">
         <is>
           <t>snowballing</t>
         </is>
       </c>
-      <c r="P142" t="inlineStr"/>
-      <c r="Q142" t="inlineStr"/>
-      <c r="R142" t="n">
+      <c r="P133" t="inlineStr"/>
+      <c r="Q133" t="inlineStr"/>
+      <c r="R133" t="n">
         <v>1</v>
       </c>
-      <c r="S142" t="inlineStr">
+      <c r="S133" t="inlineStr">
         <is>
           <t>ACM</t>
         </is>
       </c>
-      <c r="T142" t="n">
+      <c r="T133" t="n">
         <v>2016</v>
       </c>
-      <c r="U142" t="inlineStr">
+      <c r="U133" t="inlineStr">
         <is>
           <t>Measuring neural net robustness with constraints</t>
         </is>
       </c>
-      <c r="V142" t="inlineStr">
+      <c r="V133" t="inlineStr">
         <is>
           <t>https://doi.org/10.5555/3157382.3157391</t>
         </is>
       </c>
-      <c r="W142" t="inlineStr">
+      <c r="W133" t="inlineStr">
         <is>
           <t>Curran Associates Inc</t>
         </is>
       </c>
-      <c r="X142" t="inlineStr">
+      <c r="X133" t="inlineStr">
         <is>
           <t>nan; Keywords; References; Year; Bibtex; Link</t>
         </is>
       </c>
     </row>
-    <row r="143">
-      <c r="A143" s="1" t="n">
-        <v>141</v>
-      </c>
-      <c r="B143" t="inlineStr"/>
-      <c r="C143" t="inlineStr">
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr"/>
+      <c r="C134" t="inlineStr">
         <is>
           <t>TestNN</t>
         </is>
       </c>
-      <c r="D143" t="inlineStr">
+      <c r="D134" t="inlineStr">
         <is>
           <t>Policy compression for aircraft collision avoidance systems</t>
         </is>
       </c>
-      <c r="E143" t="inlineStr">
+      <c r="E134" t="inlineStr">
         <is>
           <t>One approach to designing the decision making logic for an aircraft collision avoidance system is to frame the problem as Markov decision process and optimize the system using dynamic programming. The resulting strategy can be represented as a numeric table. This methodology has been used in the development of the ACAS X family of collision avoidance systems for manned and unmanned aircraft. However, due to the high dimensionality of the state space, discretizing the state variables can lead to very large tables. To improve storage efficiency, we propose two approaches for compressing the lookup table. The first approach exploits redundancy in the table. The table is decomposed into a set of lower-dimensional tables, some of which can be represented by single tables in areas where the lower-dimensional tables are identical or nearly identical with respect to a similarity metric. The second approach uses a deep neural network to learn a complex non-linear function approximation of the table. With the use of an asymmetric loss function and a gradient descent algorithm, the parameters for this network can be trained to provide very accurate estimates of values while preserving the relative preferences of the possible advisories for each state. As a result, the table can be approximately represented by only the parameters of the network, which reduces the required storage space by a factor of 1000. Simulation studies show that system performance is very similar using either compressed table representation in place of the original table. Even though the neural network was trained directly on the original table, the network surpasses the original table on the performance metrics and encounter sets evaluated here.</t>
         </is>
       </c>
-      <c r="F143" t="inlineStr">
+      <c r="F134" t="inlineStr">
         <is>
           <t>Neural networks;Measurement;Aircraft;Collision avoidance;Dynamic programming;Function approximation;Redundancy</t>
         </is>
       </c>
-      <c r="G143" t="inlineStr">
+      <c r="G134" t="inlineStr">
         <is>
           <t>Julian, Kyle D.; Lopez, Jessica; Brush, Jeffrey S.; Owen, Michael P.; Kochenderfer, Mykel J.</t>
         </is>
       </c>
-      <c r="H143" t="inlineStr">
+      <c r="H134" t="inlineStr">
         <is>
           <t>2016 IEEE/AIAA 35th Digital Avionics Systems Conference (DASC)</t>
         </is>
       </c>
-      <c r="I143" t="inlineStr">
+      <c r="I134" t="inlineStr">
         <is>
           <t>https://doi.org/10.1109/DASC.2016.7778091</t>
         </is>
       </c>
-      <c r="J143" t="inlineStr">
+      <c r="J134" t="inlineStr">
         <is>
           <t>1.J. K. Kuchar and L. C. Yang, "A review of conflict detection and resolution modeling methods", IEEE Transactions on Intelligent Transportation Systems, vol. 1, no. 4, pp. 179-189, 2000. View Article  Google Scholar; 2.M. J. Kochenderfer, "Optimized airborne collision avoidance", Decision Making under Uncertainty: Theory and Application MIT Press, 2015. CrossRef  Google Scholar; 3.M. J. Kochenderfer, J. E. Holland and J. P. Chryssanthacopoulos, "Next generation airborne collision avoidance system", Lincoln Laboratory Journal, vol. 19, no. 1, pp. 17-33, 2012. Google Scholar; 4.M. J. Kochenderfer and J. P. Chryssanthacopoulos, "Robust airborne collision avoidance through dynamic programming", Massachusetts Institute of Technology Lincoln Laboratory Report ATC-371, 2011,  [online]  Available: http://www.11.mit.edu/mission/aviation/publications/publication-files/atc-reports/Kochenderfer_2011_ATC-371_WW-21458.pdf. Google Scholar; 5.M. Marston and G. Baca, "ACAS-Xu initial self-separation flight tests", Tech. Rep. DFRC-E-DAA-TN22968, 2015,  [online]  Available: http://hdl.handle.net/2060/20150008347. Google Scholar; 6.Y. Engel, S. Mannor and R. Meir, "Reinforcement learning with Gaussian processes", International Conference on Machine Learning (ICML), 2005. CrossRef  Google Scholar; 7.R. Munos and A. Moore, "Variable resolution discretization in optimal control", Machine Learning, vol. 49, no. 2, pp. 291-323, 2002. Google Scholar; 8.M. J. Kochenderfer and N. Monath, "Compression of optimal value functions for Markov decision processes", Data Compression Conference, 2013. View Article  Google Scholar; 9.J. P. Chryssanthacopoulos and M. J. Kochenderfer, "Accounting for state uncertainty in collision avoidance", AIAA Journal on Guidance Control and Dynamics, vol. 34, no. 4, pp. 951-960, 2011. CrossRef  Google Scholar; 10.S. Julier and J. Uhlmann, "Unscented filtering and nonlinear estimation", Proceedings of the IEEE, vol. 92, no. 3, pp. 401-422, 2004. View Article  Google Scholar; 11.A. Krizhevsky, I. Sutskever and G. E. Hinton, "Imagenet classification with deep convolutional neural networks", Advances in Neural Information Processing Systems (NIPS), 2012. CrossRef  Google Scholar; 12.G. E. Dahl, T. N. Sainath and G. E. Hinton, "Improving deep neural networks for lvcsr using rectified linear units and dropout", International Conference on Acoustics Speech and Signal Processing (ICASSP), 2013. View Article  Google Scholar; 13.T. Tieleman and G. Hinton, "Lecture 6.5-rmsprop: Divide the gradient by a running average of its recent magnitude", COURSERA: Neural Networks for Machine Learning, vol. 4, pp. 2, 2012. Google Scholar; 14.J. Duchi, E. Hazan and Y. Singer, "Adaptive sub-gradient methods for online learning and stochastic optimization", Journal of Machine Learning, vol. 12, pp. 2121-2159, 2011. Google Scholar; 15.M. D. Zeiler, "ADADELTA: an adaptive learning rate method", arXiv: 1212.5701, 2012. Google Scholar; 16.D. Kingma and J. Ba, "Adam: A method for stochastic optimization", arXiv: 1412.6980, 2014. Google Scholar; 17.G. P. Zhang, "Neural networks for classification: A survey", IEEE Transactions on Systems Man and Cybernetics Part C: Applications and Reviews, vol. 30, no. 4, pp. 451-462, 2000. View Article  Google Scholar; 18.S. F. Crone, "Training artificial neural networks for time series prediction using asymmetric cost functions", International Conference on Neural Information Processing (ICONIP), vol. 5, 2002. View Article  Google Scholar; 19.F. Chollet, "Keras: Deep learning library for Theano and TensorFlow", 2016,  [online]  Available: keras.io. Google Scholar; 20."Theano Development Team", Theano: A Python framework for fast computation of mathematical expressions. arXiv: 1605.02688, 2016. Google Scholar; 21.Y. A. LeCun, L. Bottou, G. B. Orr and K.-R. Muller, "Efficient backprop" in Neural Networks: Tricks of the Trade, Berlin: Springer, pp. 9-48, 2012. Google Scholar; 22.M. J. Kochenderfer, M. W. M. Edwards, L. P. Espindle, J. K. Kuchar and J. D. Griffith, "Airspace encounter models for estimating collision risk", AIAA Journal on Guidance Control and Dynamics, vol. 33, no. 2, pp. 487-499, 2010. CrossRef  Google Scholar; 23.R. W. Gardner and J. S. Brush, "Enabling real-time execution: Runtime-efficiency improvements for the next generation airborne collision avoidance algorithms", Digital Avionics Systems Conference (DASC), 2016. View Article  Google Scholar; 24.H. Y. Ong and M. J. Kochenderfer, "Short-term conflict resolution for unmanned aircraft traffic management", Digital Avionics Systems Conference (DASC), 2015. View Article  Google Scholar</t>
         </is>
       </c>
-      <c r="K143" t="inlineStr">
+      <c r="K134" t="inlineStr">
         <is>
           <t>1-10</t>
         </is>
       </c>
-      <c r="L143" t="inlineStr">
+      <c r="L134" t="inlineStr">
         <is>
           <t>@INPROCEEDINGS{7778091,
     author = "Julian, Kyle D. and Lopez, Jessica and Brush, Jeffrey S. and Owen, Michael P. and Kochenderfer, Mykel J.",
@@ -15562,194 +15029,194 @@
 }</t>
         </is>
       </c>
-      <c r="M143" t="inlineStr">
+      <c r="M134" t="inlineStr">
         <is>
           <t>Included</t>
         </is>
       </c>
-      <c r="N143" t="inlineStr">
+      <c r="N134" t="inlineStr">
         <is>
           <t>Included</t>
         </is>
       </c>
-      <c r="O143" t="inlineStr">
+      <c r="O134" t="inlineStr">
         <is>
           <t>snowballing</t>
         </is>
       </c>
-      <c r="P143" t="inlineStr"/>
-      <c r="Q143" t="inlineStr"/>
-      <c r="R143" t="n">
+      <c r="P134" t="inlineStr"/>
+      <c r="Q134" t="inlineStr"/>
+      <c r="R134" t="n">
         <v>1</v>
       </c>
-      <c r="S143" t="inlineStr">
+      <c r="S134" t="inlineStr">
         <is>
           <t>Scopus Signed In</t>
         </is>
       </c>
-      <c r="T143" t="n">
+      <c r="T134" t="n">
         <v>2016</v>
       </c>
-      <c r="U143" t="inlineStr">
+      <c r="U134" t="inlineStr">
         <is>
           <t>Policy compression for aircraft collision avoidance systems</t>
         </is>
       </c>
-      <c r="V143" t="inlineStr">
+      <c r="V134" t="inlineStr">
         <is>
           <t>https://ieeexplore.ieee.org/document/7778091</t>
         </is>
       </c>
-      <c r="W143" t="inlineStr">
+      <c r="W134" t="inlineStr">
         <is>
           <t>IEEE</t>
         </is>
       </c>
-      <c r="X143" t="inlineStr"/>
+      <c r="X134" t="inlineStr"/>
     </row>
-    <row r="144">
-      <c r="A144" s="1" t="n">
-        <v>142</v>
-      </c>
-      <c r="B144" t="inlineStr"/>
-      <c r="C144" t="inlineStr">
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr"/>
+      <c r="C135" t="inlineStr">
         <is>
           <t>TestNN</t>
         </is>
       </c>
-      <c r="D144" t="inlineStr">
+      <c r="D135" t="inlineStr">
         <is>
           <t>Toward verified artificial intelligence</t>
         </is>
       </c>
-      <c r="E144" t="inlineStr">
+      <c r="E135" t="inlineStr">
         <is>
           <t>Making AI more trustworthy with a formal methods-based approach to AI system verification and validation.</t>
         </is>
       </c>
-      <c r="F144" t="inlineStr"/>
-      <c r="G144" t="inlineStr">
+      <c r="F135" t="inlineStr"/>
+      <c r="G135" t="inlineStr">
         <is>
           <t>Sanjit A. Seshia; Dorsa Sadigh; S. Shankar Sastry</t>
         </is>
       </c>
-      <c r="H144" t="inlineStr">
+      <c r="H135" t="inlineStr">
         <is>
           <t>Communications of the ACM</t>
         </is>
       </c>
-      <c r="I144" t="inlineStr">
+      <c r="I135" t="inlineStr">
         <is>
           <t>https://doi.org/10.1145/3503914</t>
         </is>
       </c>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr">
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr">
         <is>
           <t>46-55</t>
         </is>
       </c>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="inlineStr">
+      <c r="L135" t="inlineStr"/>
+      <c r="M135" t="inlineStr">
         <is>
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N144" t="inlineStr">
+      <c r="N135" t="inlineStr">
         <is>
           <t>Excluded</t>
         </is>
       </c>
-      <c r="O144" t="inlineStr">
+      <c r="O135" t="inlineStr">
         <is>
           <t>snowballing</t>
         </is>
       </c>
-      <c r="P144" t="inlineStr"/>
-      <c r="Q144" t="inlineStr">
+      <c r="P135" t="inlineStr"/>
+      <c r="Q135" t="inlineStr">
         <is>
           <t>Exclusion: review paper</t>
         </is>
       </c>
-      <c r="R144" t="n">
+      <c r="R135" t="n">
         <v>1</v>
       </c>
-      <c r="S144" t="inlineStr">
+      <c r="S135" t="inlineStr">
         <is>
           <t>ACM</t>
         </is>
       </c>
-      <c r="T144" t="n">
+      <c r="T135" t="n">
         <v>2016</v>
       </c>
-      <c r="U144" t="inlineStr">
+      <c r="U135" t="inlineStr">
         <is>
           <t>Towards verified artificial intelligence</t>
         </is>
       </c>
-      <c r="V144" t="inlineStr">
+      <c r="V135" t="inlineStr">
         <is>
           <t>https://doi.org/10.1145/3503914</t>
         </is>
       </c>
-      <c r="W144" t="inlineStr">
+      <c r="W135" t="inlineStr">
         <is>
           <t>Association for Computing Machinery</t>
         </is>
       </c>
-      <c r="X144" t="inlineStr">
+      <c r="X135" t="inlineStr">
         <is>
           <t>nan; Keywords; References; Year; Bibtex; Link</t>
         </is>
       </c>
     </row>
-    <row r="145">
-      <c r="A145" s="1" t="n">
-        <v>143</v>
-      </c>
-      <c r="B145" t="inlineStr"/>
-      <c r="C145" t="inlineStr">
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr"/>
+      <c r="C136" t="inlineStr">
         <is>
           <t>TestNN</t>
         </is>
       </c>
-      <c r="D145" t="inlineStr">
+      <c r="D136" t="inlineStr">
         <is>
           <t>Understanding Error Propagation in GPGPU Applications</t>
         </is>
       </c>
-      <c r="E145" t="inlineStr">
+      <c r="E136" t="inlineStr">
         <is>
           <t>GPUs have emerged as general-purpose accelerators in high-performance computing (HPC) and scientific applications. However, the reliability characteristics of GPU applications have not been investigated in depth. While error propagation has been extensively investigated for non-GPU applications, GPU applications have a very different programming model which can have a significant effect on error propagation in them. We perform an empirical study to understand and characterize error propagation in GPU applications. We build a compilerbased fault-injection tool for GPU applications to track error propagation, and define metrics to characterize propagation in GPU applications. We find GPU applications exhibit significant error propagation for some kinds of errors, but not others, and the behaviour is highly application specific. We observe the GPUCPU interaction boundary naturally limits error propagation in these applications compared to traditional non-GPU applications. We also formulate various guidelines for the design of faulttolerance mechanisms in GPU applications based on our results.</t>
         </is>
       </c>
-      <c r="F145" t="inlineStr">
+      <c r="F136" t="inlineStr">
         <is>
           <t>Program processors; Software testing; CUDA; Error propagation; Error resilience; Fault injection; GPGPU; Errors</t>
         </is>
       </c>
-      <c r="G145" t="inlineStr">
+      <c r="G136" t="inlineStr">
         <is>
           <t>Li, Guanpeng; Pattabiraman, Karthik; Cher, Chen-Yang; Bose, Pradip</t>
         </is>
       </c>
-      <c r="H145" t="inlineStr">
+      <c r="H136" t="inlineStr">
         <is>
           <t>International Conference for High Performance Computing, Networking, Storage and Analysis, SC</t>
         </is>
       </c>
-      <c r="I145" t="inlineStr">
+      <c r="I136" t="inlineStr">
         <is>
           <t>https://doi.org/10.1109/SC.2016.20</t>
         </is>
       </c>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr">
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr">
         <is>
           <t>240 - 251</t>
         </is>
       </c>
-      <c r="L145" t="inlineStr">
+      <c r="L136" t="inlineStr">
         <is>
           <t>@CONFERENCE{Li2016240,
     author = "Li, Guanpeng and Pattabiraman, Karthik and Cher, Chen-Yang and Bose, Pradip",
@@ -15776,102 +15243,102 @@
 }</t>
         </is>
       </c>
-      <c r="M145" t="inlineStr">
+      <c r="M136" t="inlineStr">
         <is>
           <t>Included</t>
         </is>
       </c>
-      <c r="N145" t="inlineStr">
+      <c r="N136" t="inlineStr">
         <is>
           <t>Included</t>
         </is>
       </c>
-      <c r="O145" t="inlineStr">
+      <c r="O136" t="inlineStr">
         <is>
           <t>snowballing</t>
         </is>
       </c>
-      <c r="P145" t="inlineStr"/>
-      <c r="Q145" t="inlineStr"/>
-      <c r="R145" t="n">
+      <c r="P136" t="inlineStr"/>
+      <c r="Q136" t="inlineStr"/>
+      <c r="R136" t="n">
         <v>1</v>
       </c>
-      <c r="S145" t="inlineStr">
+      <c r="S136" t="inlineStr">
         <is>
           <t>Scopus Signed In</t>
         </is>
       </c>
-      <c r="T145" t="n">
+      <c r="T136" t="n">
         <v>2016</v>
       </c>
-      <c r="U145" t="inlineStr">
+      <c r="U136" t="inlineStr">
         <is>
           <t>Understanding error propagation in GPGPU applications</t>
         </is>
       </c>
-      <c r="V145" t="inlineStr">
+      <c r="V136" t="inlineStr">
         <is>
           <t>https://dl.acm.org/doi/10.5555/3014904.3014932</t>
         </is>
       </c>
-      <c r="W145" t="inlineStr">
+      <c r="W136" t="inlineStr">
         <is>
           <t>IEEE Computer Society</t>
         </is>
       </c>
-      <c r="X145" t="inlineStr">
+      <c r="X136" t="inlineStr">
         <is>
           <t>nan; References</t>
         </is>
       </c>
     </row>
-    <row r="146">
-      <c r="A146" s="1" t="n">
-        <v>144</v>
-      </c>
-      <c r="B146" t="inlineStr"/>
-      <c r="C146" t="inlineStr">
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr"/>
+      <c r="C137" t="inlineStr">
         <is>
           <t>TestNN</t>
         </is>
       </c>
-      <c r="D146" t="inlineStr">
+      <c r="D137" t="inlineStr">
         <is>
           <t>Documenting Evidence of a Reuse of '"Why Should i Trust You?": Explaining the Predictions of Any Classifier'</t>
         </is>
       </c>
-      <c r="E146" t="inlineStr">
+      <c r="E137" t="inlineStr">
         <is>
           <t>We report here the following example of reuse. LIME is a local instance-based explanation generation framework that was originally proposed by Ribeiro et al. in their paper "'Why Should I Trust You?': Explaining the Predictions of Any Classifier". The framework was reused by Peng et al. in their paper "Defect Reduction Planning (using TimeLIME)". The paper used the original implementation of LIME as one of the core components in the proposed framework.</t>
         </is>
       </c>
-      <c r="F146" t="inlineStr">
+      <c r="F137" t="inlineStr">
         <is>
           <t>Computer software reusability; Actionable analyse; Core components; Defect reduction; Reuse; Software analytic; Lime</t>
         </is>
       </c>
-      <c r="G146" t="inlineStr">
+      <c r="G137" t="inlineStr">
         <is>
           <t>Peng, Kewen; Menzies, Tim</t>
         </is>
       </c>
-      <c r="H146" t="inlineStr">
+      <c r="H137" t="inlineStr">
         <is>
           <t>ESEC/FSE 2021 - Proceedings of the 29th ACM Joint Meeting European Software Engineering Conference and Symposium on the Foundations of Software Engineering</t>
         </is>
       </c>
-      <c r="I146" t="inlineStr">
+      <c r="I137" t="inlineStr">
         <is>
           <t>https://doi.org/10.1145/3468264.3477217</t>
         </is>
       </c>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr">
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr">
         <is>
           <t>1600</t>
         </is>
       </c>
-      <c r="L146" t="inlineStr">
+      <c r="L137" t="inlineStr">
         <is>
           <t>@CONFERENCE{Peng20211600,
     author = "Peng, Kewen and Menzies, Tim",
@@ -15897,102 +15364,102 @@
 }</t>
         </is>
       </c>
-      <c r="M146" t="inlineStr">
+      <c r="M137" t="inlineStr">
         <is>
           <t>Included</t>
         </is>
       </c>
-      <c r="N146" t="inlineStr">
+      <c r="N137" t="inlineStr">
         <is>
           <t>Included</t>
         </is>
       </c>
-      <c r="O146" t="inlineStr">
+      <c r="O137" t="inlineStr">
         <is>
           <t>snowballing</t>
         </is>
       </c>
-      <c r="P146" t="inlineStr"/>
-      <c r="Q146" t="inlineStr"/>
-      <c r="R146" t="n">
+      <c r="P137" t="inlineStr"/>
+      <c r="Q137" t="inlineStr"/>
+      <c r="R137" t="n">
         <v>1</v>
       </c>
-      <c r="S146" t="inlineStr">
+      <c r="S137" t="inlineStr">
         <is>
           <t>Scopus Signed In</t>
         </is>
       </c>
-      <c r="T146" t="n">
+      <c r="T137" t="n">
         <v>2016</v>
       </c>
-      <c r="U146" t="inlineStr">
+      <c r="U137" t="inlineStr">
         <is>
           <t>Why should i trust you?: Explaining the predictions of any classifier</t>
         </is>
       </c>
-      <c r="V146" t="inlineStr">
+      <c r="V137" t="inlineStr">
         <is>
           <t>https://dl.acm.org/doi/10.1145/2939672.2939778</t>
         </is>
       </c>
-      <c r="W146" t="inlineStr">
+      <c r="W137" t="inlineStr">
         <is>
           <t>Association for Computing Machinery, Inc</t>
         </is>
       </c>
-      <c r="X146" t="inlineStr">
+      <c r="X137" t="inlineStr">
         <is>
           <t>nan; References</t>
         </is>
       </c>
     </row>
-    <row r="147">
-      <c r="A147" s="1" t="n">
-        <v>145</v>
-      </c>
-      <c r="B147" t="inlineStr"/>
-      <c r="C147" t="inlineStr">
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr"/>
+      <c r="C138" t="inlineStr">
         <is>
           <t>TestNN</t>
         </is>
       </c>
-      <c r="D147" t="inlineStr">
+      <c r="D138" t="inlineStr">
         <is>
           <t>Controlling explanatory heatmap resolution and semantics via decomposition depth</t>
         </is>
       </c>
-      <c r="E147" t="inlineStr">
+      <c r="E138" t="inlineStr">
         <is>
           <t>We present an application of the Layer-wise Relevance Propagation (LRP) algorithm to state of the art deep convolutional neural networks and Fisher Vector classifiers to compare the image perception and prediction strategies of both classifiers with the use of visualized heatmaps. Layer-wise Relevance Propagation (LRP) is a method to compute scores for individual components of an input image, denoting their contribution to the prediction of the classifier for one particular test point. We demonstrate the impact of different choices of decomposition cut-off points during the LRP-process, controlling the resolution and semantics of the heatmap on test images from the PASCAL VOC 2007 test data set.</t>
         </is>
       </c>
-      <c r="F147" t="inlineStr">
+      <c r="F138" t="inlineStr">
         <is>
           <t>Neural networks; Semantics; Statistical tests; Convolutional neural network; Decomposition depths; Fisher vectors; Heatmapping; Image perception; Individual components; Input image; State of the art; Image processing</t>
         </is>
       </c>
-      <c r="G147" t="inlineStr">
+      <c r="G138" t="inlineStr">
         <is>
           <t>Bach, Sebastian; Binder, Alexander; Muller, Klaus-Robert; Samek, Wojciech</t>
         </is>
       </c>
-      <c r="H147" t="inlineStr">
+      <c r="H138" t="inlineStr">
         <is>
           <t>Proceedings - International Conference on Image Processing, ICIP</t>
         </is>
       </c>
-      <c r="I147" t="inlineStr">
+      <c r="I138" t="inlineStr">
         <is>
           <t>https://doi.org/10.1109/ICIP.2016.7532763</t>
         </is>
       </c>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr">
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr">
         <is>
           <t>2271 - 2275</t>
         </is>
       </c>
-      <c r="L147" t="inlineStr">
+      <c r="L138" t="inlineStr">
         <is>
           <t>@CONFERENCE{Bach20162271,
     author = "Bach, Sebastian and Binder, Alexander and Muller, Klaus-Robert and Samek, Wojciech",
@@ -16019,282 +15486,282 @@
 }</t>
         </is>
       </c>
-      <c r="M147" t="inlineStr">
+      <c r="M138" t="inlineStr">
         <is>
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N147" t="inlineStr">
+      <c r="N138" t="inlineStr">
         <is>
           <t>Excluded</t>
         </is>
       </c>
-      <c r="O147" t="inlineStr">
+      <c r="O138" t="inlineStr">
         <is>
           <t>snowballing</t>
         </is>
       </c>
-      <c r="P147" t="inlineStr"/>
-      <c r="Q147" t="inlineStr">
+      <c r="P138" t="inlineStr"/>
+      <c r="Q138" t="inlineStr">
         <is>
           <t>Inclusion:</t>
         </is>
       </c>
-      <c r="R147" t="n">
+      <c r="R138" t="n">
         <v>1</v>
       </c>
-      <c r="S147" t="inlineStr">
+      <c r="S138" t="inlineStr">
         <is>
           <t>Scopus Signed In</t>
         </is>
       </c>
-      <c r="T147" t="n">
+      <c r="T138" t="n">
         <v>2016</v>
       </c>
-      <c r="U147" t="inlineStr">
+      <c r="U138" t="inlineStr">
         <is>
           <t>Controlling explanatory heatmap resolution and semantics via decomposition depth</t>
         </is>
       </c>
-      <c r="V147" t="inlineStr">
+      <c r="V138" t="inlineStr">
         <is>
           <t>https://ieeexplore.ieee.org/document/7532763</t>
         </is>
       </c>
-      <c r="W147" t="inlineStr">
+      <c r="W138" t="inlineStr">
         <is>
           <t>IEEE Computer Society</t>
         </is>
       </c>
-      <c r="X147" t="inlineStr">
+      <c r="X138" t="inlineStr">
         <is>
           <t>nan; References</t>
         </is>
       </c>
     </row>
-    <row r="148">
-      <c r="A148" s="1" t="n">
-        <v>146</v>
-      </c>
-      <c r="B148" t="inlineStr"/>
-      <c r="C148" t="inlineStr">
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr"/>
+      <c r="C139" t="inlineStr">
         <is>
           <t>TestNN</t>
         </is>
       </c>
-      <c r="D148" t="inlineStr">
+      <c r="D139" t="inlineStr">
         <is>
           <t>Learning Deep Features for Discriminative Localization</t>
         </is>
       </c>
-      <c r="E148" t="inlineStr">
+      <c r="E139" t="inlineStr">
         <is>
           <t>In this work, we revisit the global average pooling layer proposed in [13], and shed light on how it explicitly enables the convolutional neural network (CNN) to have remarkable localization ability despite being trained on imagelevel labels. While this technique was previously proposed as a means for regularizing training, we find that it actually builds a generic localizable deep representation that exposes the implicit attention of CNNs on an image. Despite the apparent simplicity of global average pooling, we are able to achieve 37.1% top-5 error for object localization on ILSVRC 2014 without training on any bounding box annotation. We demonstrate in a variety of experiments that our network is able to localize the discriminative image regions despite just being trained for solving classification task1.</t>
         </is>
       </c>
-      <c r="F148" t="inlineStr">
+      <c r="F139" t="inlineStr">
         <is>
           <t>Visualization; Neural networks; Training; Object recognition; Computer vision; Detectors; Spatial resolution; Deep Features; Convolutional Neural Network; Image Regions; Bounding Box; Object Location; Average Pooling; Remarkable Ability; Global Average Pooling; Local Ability; Global Average Pooling Layer; Bounding Box Annotations; Image-level Labels; General Characteristics; Validation Set; Classification Performance; Convolutional Layers; Localization Accuracy; Final Output; Intersection Over Union; Max-pooling; Class Activation Maps; Fully-connected Layer; Global Max Pooling; Global Pooling; Scene Classification; Final Layer; Discriminative Regions; Visual Question Answering; Visual Patterns; Object Classification</t>
         </is>
       </c>
-      <c r="G148" t="inlineStr">
+      <c r="G139" t="inlineStr">
         <is>
           <t>Bolei Zhou; Aditya Khosla; Agata Lapedriza; Aude Oliva; Antonio Torralba</t>
         </is>
       </c>
-      <c r="H148" t="inlineStr">
+      <c r="H139" t="inlineStr">
         <is>
           <t>2016 IEEE Conference on Computer Vision and Pattern Recognition (CVPR)</t>
         </is>
       </c>
-      <c r="I148" t="inlineStr">
+      <c r="I139" t="inlineStr">
         <is>
           <t>https://doi.org/10.1109/CVPR.2016.319</t>
         </is>
       </c>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
-      <c r="M148" t="inlineStr">
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr"/>
+      <c r="M139" t="inlineStr">
         <is>
           <t>Included</t>
         </is>
       </c>
-      <c r="N148" t="inlineStr">
+      <c r="N139" t="inlineStr">
         <is>
           <t>Included</t>
         </is>
       </c>
-      <c r="O148" t="inlineStr">
+      <c r="O139" t="inlineStr">
         <is>
           <t>snowballing</t>
         </is>
       </c>
-      <c r="P148" t="inlineStr"/>
-      <c r="Q148" t="inlineStr"/>
-      <c r="R148" t="n">
+      <c r="P139" t="inlineStr"/>
+      <c r="Q139" t="inlineStr"/>
+      <c r="R139" t="n">
         <v>1</v>
       </c>
-      <c r="S148" t="inlineStr">
+      <c r="S139" t="inlineStr">
         <is>
           <t>IEEE</t>
         </is>
       </c>
-      <c r="T148" t="n">
+      <c r="T139" t="n">
         <v>2016</v>
       </c>
-      <c r="U148" t="inlineStr">
+      <c r="U139" t="inlineStr">
         <is>
           <t>Learning deep features for discriminative localization</t>
         </is>
       </c>
-      <c r="V148" t="inlineStr">
+      <c r="V139" t="inlineStr">
         <is>
           <t>https://doi.org/10.1109/CVPR.2016.319</t>
         </is>
       </c>
-      <c r="W148" t="inlineStr">
+      <c r="W139" t="inlineStr">
         <is>
           <t>IEEE</t>
         </is>
       </c>
-      <c r="X148" t="inlineStr">
+      <c r="X139" t="inlineStr">
         <is>
           <t>nan; References; Pages; Year; Bibtex; Link</t>
         </is>
       </c>
     </row>
-    <row r="149">
-      <c r="A149" s="1" t="n">
-        <v>147</v>
-      </c>
-      <c r="B149" t="inlineStr"/>
-      <c r="C149" t="inlineStr">
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr"/>
+      <c r="C140" t="inlineStr">
         <is>
           <t>TestNN</t>
         </is>
       </c>
-      <c r="D149" t="inlineStr">
+      <c r="D140" t="inlineStr">
         <is>
           <t>Not Just a Black Box: Learning Important Features Through Propagating Activation Differences</t>
         </is>
       </c>
-      <c r="E149" t="inlineStr">
+      <c r="E140" t="inlineStr">
         <is>
           <t>Abstract:Note: This paper describes an older version of DeepLIFT. Seehttps://arxiv.org/abs/1704.02685for the newer version. Original abstract follows: The purported "black box" nature of neural networks is a barrier to adoption in applications where interpretability is essential. Here we present DeepLIFT (Learning Important FeaTures), an efficient and effective method for computing importance scores in a neural network. DeepLIFT compares the activation of each neuron to its 'reference activation' and assigns contribution scores according to the difference. We apply DeepLIFT to models trained on natural images and genomic data, and show significant advantages over gradient-based methods.</t>
         </is>
       </c>
-      <c r="F149" t="inlineStr"/>
-      <c r="G149" t="inlineStr">
+      <c r="F140" t="inlineStr"/>
+      <c r="G140" t="inlineStr">
         <is>
           <t>Avanti Shrikumar; Peyton Greenside; Anna Shcherbina; Anshul Kundaje</t>
         </is>
       </c>
-      <c r="H149" t="inlineStr">
+      <c r="H140" t="inlineStr">
         <is>
           <t>arXiv</t>
         </is>
       </c>
-      <c r="I149" t="inlineStr">
+      <c r="I140" t="inlineStr">
         <is>
           <t>https://doi.org/10.48550/arXiv.1605.01713</t>
         </is>
       </c>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
-      <c r="M149" t="inlineStr">
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr"/>
+      <c r="M140" t="inlineStr">
         <is>
           <t>Included</t>
         </is>
       </c>
-      <c r="N149" t="inlineStr">
+      <c r="N140" t="inlineStr">
         <is>
           <t>Included</t>
         </is>
       </c>
-      <c r="O149" t="inlineStr">
+      <c r="O140" t="inlineStr">
         <is>
           <t>snowballing</t>
         </is>
       </c>
-      <c r="P149" t="inlineStr"/>
-      <c r="Q149" t="inlineStr"/>
-      <c r="R149" t="n">
+      <c r="P140" t="inlineStr"/>
+      <c r="Q140" t="inlineStr"/>
+      <c r="R140" t="n">
         <v>1</v>
       </c>
-      <c r="S149" t="inlineStr">
+      <c r="S140" t="inlineStr">
         <is>
           <t>arXiv</t>
         </is>
       </c>
-      <c r="T149" t="n">
+      <c r="T140" t="n">
         <v>2016</v>
       </c>
-      <c r="U149" t="inlineStr">
+      <c r="U140" t="inlineStr">
         <is>
           <t>Not just a black box: Interpretable deep learning by propagating activation differences</t>
         </is>
       </c>
-      <c r="V149" t="inlineStr">
+      <c r="V140" t="inlineStr">
         <is>
           <t>https://doi.org/10.48550/arXiv.1605.01713</t>
         </is>
       </c>
-      <c r="W149" t="inlineStr"/>
-      <c r="X149" t="inlineStr">
+      <c r="W140" t="inlineStr"/>
+      <c r="X140" t="inlineStr">
         <is>
           <t>nan; Keywords; References; Pages; Year; Bibtex; Link; Publisher</t>
         </is>
       </c>
     </row>
-    <row r="150">
-      <c r="A150" s="1" t="n">
-        <v>148</v>
-      </c>
-      <c r="B150" t="inlineStr"/>
-      <c r="C150" t="inlineStr">
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr"/>
+      <c r="C141" t="inlineStr">
         <is>
           <t>TestNN</t>
         </is>
       </c>
-      <c r="D150" t="inlineStr">
+      <c r="D141" t="inlineStr">
         <is>
           <t>Synthesizing the preferred inputs for neurons in neural networks via deep generator networks</t>
         </is>
       </c>
-      <c r="E150" t="inlineStr">
+      <c r="E141" t="inlineStr">
         <is>
           <t>Deep neural networks (DNNs) have demonstrated state-of-the-art results on many pattern recognition tasks, especially vision classification problems. Understanding the inner workings of such computational brains is both fascinating basic science that is interesting in its own right - similar to why we study the human brain - and will enable researchers to further improve DNNs. One path to understanding how a neural network functions internally is to study what each of its neurons has learned to detect. One such method is called activation maximization (AM), which synthesizes an input (e.g. an image) that highly activates a neuron. Here we dramatically improve the qualitative state of the art of activation maximization by harnessing a powerful, learned prior: a deep generator network (DGN). The algorithm (1) generates qualitatively state-of-the-art synthetic images that look almost real, (2) reveals the features learned by each neuron in an interpretable way, (3) generalizes well to new datasets and somewhat well to different network architectures without requiring the prior to be relearned, and (4) can be considered as a high-quality generative method (in this case, by generating novel, creative, interesting, recognizable images).</t>
         </is>
       </c>
-      <c r="F150" t="inlineStr">
+      <c r="F141" t="inlineStr">
         <is>
           <t>Chemical activation; Network architecture; Neural networks; Neurons; Pattern recognition; Basic science; Generative methods; High quality; Human brain; Network functions; Qualitative state; State of the art; Synthetic images; Deep neural networks</t>
         </is>
       </c>
-      <c r="G150" t="inlineStr">
+      <c r="G141" t="inlineStr">
         <is>
           <t>Nguyen, Anh; Dosovitskiy, Alexey; Yosinski, Jason; Brox, Thomas; Clune, Jeff</t>
         </is>
       </c>
-      <c r="H150" t="inlineStr">
+      <c r="H141" t="inlineStr">
         <is>
           <t>Advances in Neural Information Processing Systems</t>
         </is>
       </c>
-      <c r="I150" t="inlineStr">
+      <c r="I141" t="inlineStr">
         <is>
           <t>https://www.scopus.com/record/display.uri?eid=2-s2.0-85019234593&amp;origin=resultslist&amp;sort=plf-f&amp;src=s&amp;sid=4ac83cbe1023325f34429d8685bc91ee&amp;sot=b&amp;sdt=b&amp;s=TITLE-ABS-KEY%28synthesizing+the+preferred+inputs+for+neurons+in+neural+networks+via+deep+generator+networks%29&amp;sl=107&amp;sessionSearchId=4ac83cbe1023325f34429d8685bc91ee&amp;relpos=0</t>
         </is>
       </c>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr">
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr">
         <is>
           <t>3395 - 3403</t>
         </is>
       </c>
-      <c r="L150" t="inlineStr">
+      <c r="L141" t="inlineStr">
         <is>
           <t>@CONFERENCE{Nguyen20163395,
     author = "Nguyen, Anh and Dosovitskiy, Alexey and Yosinski, Jason and Brox, Thomas and Clune, Jeff",
@@ -16317,278 +15784,278 @@
 }</t>
         </is>
       </c>
-      <c r="M150" t="inlineStr">
+      <c r="M141" t="inlineStr">
         <is>
           <t>Included</t>
         </is>
       </c>
-      <c r="N150" t="inlineStr">
+      <c r="N141" t="inlineStr">
         <is>
           <t>Included</t>
         </is>
       </c>
-      <c r="O150" t="inlineStr">
+      <c r="O141" t="inlineStr">
         <is>
           <t>snowballing</t>
         </is>
       </c>
-      <c r="P150" t="inlineStr"/>
-      <c r="Q150" t="inlineStr"/>
-      <c r="R150" t="n">
+      <c r="P141" t="inlineStr"/>
+      <c r="Q141" t="inlineStr"/>
+      <c r="R141" t="n">
         <v>1</v>
       </c>
-      <c r="S150" t="inlineStr">
+      <c r="S141" t="inlineStr">
         <is>
           <t>Scopus Signed In</t>
         </is>
       </c>
-      <c r="T150" t="n">
+      <c r="T141" t="n">
         <v>2016</v>
       </c>
-      <c r="U150" t="inlineStr">
+      <c r="U141" t="inlineStr">
         <is>
           <t>Synthesizing the preferred inputs for neurons in neural networks via deep generator networks</t>
         </is>
       </c>
-      <c r="V150" t="inlineStr">
+      <c r="V141" t="inlineStr">
         <is>
           <t>https://www.scopus.com/record/display.uri?eid=2-s2.0-85019234593&amp;origin=resultslist&amp;sort=plf-f&amp;src=s&amp;sid=4ac83cbe1023325f34429d8685bc91ee&amp;sot=b&amp;sdt=b&amp;s=TITLE-ABS-KEY%28synthesizing+the+preferred+inputs+for+neurons+in+neural+networks+via+deep+generator+networks%29&amp;sl=107&amp;sessionSearchId=4ac83cbe1023325f34429d8685bc91ee&amp;relpos=0</t>
         </is>
       </c>
-      <c r="W150" t="inlineStr">
+      <c r="W141" t="inlineStr">
         <is>
           <t>Neural information processing systems foundation</t>
         </is>
       </c>
-      <c r="X150" t="inlineStr">
+      <c r="X141" t="inlineStr">
         <is>
           <t>nan; References</t>
         </is>
       </c>
     </row>
-    <row r="151">
-      <c r="A151" s="1" t="n">
-        <v>149</v>
-      </c>
-      <c r="B151" t="inlineStr"/>
-      <c r="C151" t="inlineStr">
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr"/>
+      <c r="C142" t="inlineStr">
         <is>
           <t>TestNN</t>
         </is>
       </c>
-      <c r="D151" t="inlineStr">
+      <c r="D142" t="inlineStr">
         <is>
           <t>TreeView: Peeking into Deep Neural Networks Via Feature-Space Partitioning</t>
         </is>
       </c>
-      <c r="E151" t="inlineStr">
+      <c r="E142" t="inlineStr">
         <is>
           <t>Abstract:With the advent of highly predictive but opaque deep learning models, it has become more important than ever to understand and explain the predictions of such models. Existing approaches define interpretability as the inverse of complexity and achieve interpretability at the cost of accuracy. This introduces a risk of producing interpretable but misleading explanations. As humans, we are prone to engage in this kind of behavior \cite{mythos}. In this paper, we take a step in the direction of tackling the problem of interpretability without compromising the model accuracy. We propose to build a Treeview representation of the complex model via hierarchical partitioning of the feature space, which reveals the iterative rejection of unlikely class labels until the correct association is predicted.</t>
         </is>
       </c>
-      <c r="F151" t="inlineStr"/>
-      <c r="G151" t="inlineStr">
+      <c r="F142" t="inlineStr"/>
+      <c r="G142" t="inlineStr">
         <is>
           <t>Jayaraman J. Thiagarajan; Bhavya Kailkhura; Prasanna Sattigeri; Karthikeyan Natesan Ramamurthy</t>
         </is>
       </c>
-      <c r="H151" t="inlineStr">
+      <c r="H142" t="inlineStr">
         <is>
           <t>arXiv</t>
         </is>
       </c>
-      <c r="I151" t="inlineStr">
+      <c r="I142" t="inlineStr">
         <is>
           <t>https://doi.org/10.48550/arXiv.1611.07429</t>
         </is>
       </c>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
-      <c r="M151" t="inlineStr">
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr"/>
+      <c r="M142" t="inlineStr">
         <is>
           <t>Included</t>
         </is>
       </c>
-      <c r="N151" t="inlineStr">
+      <c r="N142" t="inlineStr">
         <is>
           <t>Included</t>
         </is>
       </c>
-      <c r="O151" t="inlineStr">
+      <c r="O142" t="inlineStr">
         <is>
           <t>snowballing</t>
         </is>
       </c>
-      <c r="P151" t="inlineStr"/>
-      <c r="Q151" t="inlineStr"/>
-      <c r="R151" t="n">
+      <c r="P142" t="inlineStr"/>
+      <c r="Q142" t="inlineStr"/>
+      <c r="R142" t="n">
         <v>1</v>
       </c>
-      <c r="S151" t="inlineStr">
+      <c r="S142" t="inlineStr">
         <is>
           <t>arXiv</t>
         </is>
       </c>
-      <c r="T151" t="n">
+      <c r="T142" t="n">
         <v>2016</v>
       </c>
-      <c r="U151" t="inlineStr">
+      <c r="U142" t="inlineStr">
         <is>
           <t>TreeView: Peeking into deep neural networks via feature-space partitioning</t>
         </is>
       </c>
-      <c r="V151" t="inlineStr">
+      <c r="V142" t="inlineStr">
         <is>
           <t>https://doi.org/10.48550/arXiv.1611.07429</t>
         </is>
       </c>
-      <c r="W151" t="inlineStr"/>
-      <c r="X151" t="inlineStr">
+      <c r="W142" t="inlineStr"/>
+      <c r="X142" t="inlineStr">
         <is>
           <t>nan; Keywords; References; Pages; Year; Bibtex; Link; Publisher</t>
         </is>
       </c>
     </row>
-    <row r="152">
-      <c r="A152" s="1" t="n">
-        <v>150</v>
-      </c>
-      <c r="B152" t="inlineStr"/>
-      <c r="C152" t="inlineStr">
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr"/>
+      <c r="C143" t="inlineStr">
         <is>
           <t>TestNN</t>
         </is>
       </c>
-      <c r="D152" t="inlineStr">
+      <c r="D143" t="inlineStr">
         <is>
           <t>Verifying properties of binarized deep neural networks</t>
         </is>
       </c>
-      <c r="E152" t="inlineStr">
+      <c r="E143" t="inlineStr">
         <is>
           <t>Understanding properties of deep neural networks is an important challenge in deep learning. In this paper, we take a step in this direction by proposing a rigorous way of verifying properties of a popular class of neural networks, Binarized Neural Networks, using the well-developed means of Boolean satisfiability. Our main contribution is a construction that creates a representation of a binarized neural network as a Boolean formula. Our encoding is the firstexactBoolean representation of a deep neural network. Using this encoding, we leverage the power of modern SAT solvers along with a proposed counterexample-guided search procedure to verify various properties of these networks. A particular focus will be on the critical property of robustness to adversarial perturbations. For this property, our experimental results demonstrate that our approach scales to medium-size deep neural networks used in image classification tasks. To the best of our knowledge, this is the first work on verifying properties of deep neural networks using an exact Boolean encoding of the network.</t>
         </is>
       </c>
-      <c r="F152" t="inlineStr"/>
-      <c r="G152" t="inlineStr">
+      <c r="F143" t="inlineStr"/>
+      <c r="G143" t="inlineStr">
         <is>
           <t>Nina Narodytska; Shiva Kasiviswanathan; Leonid Ryzhyk; Mooly Sagiv; Toby Walsh</t>
         </is>
       </c>
-      <c r="H152" t="inlineStr">
+      <c r="H143" t="inlineStr">
         <is>
           <t>AAAI'18/IAAI'18/EAAI'18: Proceedings of the Thirty-Second AAAI Conference on Artificial Intelligence and Thirtieth Innovative Applications of Artificial Intelligence Conference and Eighth AAAI Symposium on Educational Advances in Artificial Intelligence</t>
         </is>
       </c>
-      <c r="I152" t="inlineStr">
+      <c r="I143" t="inlineStr">
         <is>
           <t>https://doi.org/10.5555/3504035.3504845</t>
         </is>
       </c>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr">
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr">
         <is>
           <t>6615-6624</t>
         </is>
       </c>
-      <c r="L152" t="inlineStr"/>
-      <c r="M152" t="inlineStr">
+      <c r="L143" t="inlineStr"/>
+      <c r="M143" t="inlineStr">
         <is>
           <t>Included</t>
         </is>
       </c>
-      <c r="N152" t="inlineStr">
+      <c r="N143" t="inlineStr">
         <is>
           <t>Included</t>
         </is>
       </c>
-      <c r="O152" t="inlineStr">
+      <c r="O143" t="inlineStr">
         <is>
           <t>snowballing</t>
         </is>
       </c>
-      <c r="P152" t="inlineStr"/>
-      <c r="Q152" t="inlineStr"/>
-      <c r="R152" t="n">
+      <c r="P143" t="inlineStr"/>
+      <c r="Q143" t="inlineStr"/>
+      <c r="R143" t="n">
         <v>1</v>
       </c>
-      <c r="S152" t="inlineStr">
+      <c r="S143" t="inlineStr">
         <is>
           <t>ACM</t>
         </is>
       </c>
-      <c r="T152" t="n">
+      <c r="T143" t="n">
         <v>2017</v>
       </c>
-      <c r="U152" t="inlineStr">
+      <c r="U143" t="inlineStr">
         <is>
           <t>Verifying properties of binarized deep neural networks</t>
         </is>
       </c>
-      <c r="V152" t="inlineStr">
+      <c r="V143" t="inlineStr">
         <is>
           <t>https://doi.org/10.5555/3504035.3504845</t>
         </is>
       </c>
-      <c r="W152" t="inlineStr">
+      <c r="W143" t="inlineStr">
         <is>
           <t>AAAI Press</t>
         </is>
       </c>
-      <c r="X152" t="inlineStr">
+      <c r="X143" t="inlineStr">
         <is>
           <t>nan; Keywords; References; Year; Bibtex; Link</t>
         </is>
       </c>
     </row>
-    <row r="153">
-      <c r="A153" s="1" t="n">
-        <v>151</v>
-      </c>
-      <c r="B153" t="inlineStr"/>
-      <c r="C153" t="inlineStr">
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="inlineStr"/>
+      <c r="C144" t="inlineStr">
         <is>
           <t>TestNN</t>
         </is>
       </c>
-      <c r="D153" t="inlineStr">
+      <c r="D144" t="inlineStr">
         <is>
           <t>Towards proving the adversarial robustness of deep neural networks</t>
         </is>
       </c>
-      <c r="E153" t="inlineStr">
+      <c r="E144" t="inlineStr">
         <is>
           <t>Autonomous vehicles are highly complex systems, required to function reliably in a wide variety of situations. Manually crafting software controllers for these vehicles is difficult, but there has been some success in using deep neural networks generated usingmachine-learning. However, deep neural networks are opaque to human engineers, rendering their correctness very difficult to provemanually; and existing automated techniques, which were not designed to operate on neural networks, fail to scale to large systems. This paper focuses on proving the adversarial robustness of deep neural networks, i.e. proving that small perturbations to a correctly-classified input to the network cannot cause it to be misclassified. We describe some of our recent and ongoing work on verifying the adversarial robustness of networks, and discuss some of the open questions we have encountered and how they might be addressed.</t>
         </is>
       </c>
-      <c r="F153" t="inlineStr">
+      <c r="F144" t="inlineStr">
         <is>
           <t>Formal verification; Vehicles; Automated techniques; Autonomous Vehicles; Large system; Small perturbations; Software controllers; Deep neural networks</t>
         </is>
       </c>
-      <c r="G153" t="inlineStr">
+      <c r="G144" t="inlineStr">
         <is>
           <t>Katz, Guy; Barrett, Clark; Dill, David L.; Julian, Kyle; Kochenderfer, Mykel J.</t>
         </is>
       </c>
-      <c r="H153" t="inlineStr">
+      <c r="H144" t="inlineStr">
         <is>
           <t>Electronic Proceedings in Theoretical Computer Science, EPTCS</t>
         </is>
       </c>
-      <c r="I153" t="inlineStr">
+      <c r="I144" t="inlineStr">
         <is>
           <t>https://doi.org/10.4204/EPTCS.257.3</t>
         </is>
       </c>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr">
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr">
         <is>
           <t>19 - 26</t>
         </is>
       </c>
-      <c r="L153" t="inlineStr">
+      <c r="L144" t="inlineStr">
         <is>
           <t>@CONFERENCE{Katz201719,
     author = "Katz, Guy and Barrett, Clark and Dill, David L. and Julian, Kyle and Kochenderfer, Mykel J.",
@@ -16615,378 +16082,378 @@
 }</t>
         </is>
       </c>
-      <c r="M153" t="inlineStr">
+      <c r="M144" t="inlineStr">
         <is>
           <t>Included</t>
         </is>
       </c>
-      <c r="N153" t="inlineStr">
+      <c r="N144" t="inlineStr">
         <is>
           <t>Included</t>
         </is>
       </c>
-      <c r="O153" t="inlineStr">
+      <c r="O144" t="inlineStr">
         <is>
           <t>snowballing</t>
         </is>
       </c>
-      <c r="P153" t="inlineStr"/>
-      <c r="Q153" t="inlineStr"/>
-      <c r="R153" t="n">
+      <c r="P144" t="inlineStr"/>
+      <c r="Q144" t="inlineStr"/>
+      <c r="R144" t="n">
         <v>1</v>
       </c>
-      <c r="S153" t="inlineStr">
+      <c r="S144" t="inlineStr">
         <is>
           <t>Scopus Signed In</t>
         </is>
       </c>
-      <c r="T153" t="n">
+      <c r="T144" t="n">
         <v>2017</v>
       </c>
-      <c r="U153" t="inlineStr">
+      <c r="U144" t="inlineStr">
         <is>
           <t>Towards proving the adversarial robustness of deep neural networks</t>
         </is>
       </c>
-      <c r="V153" t="inlineStr">
+      <c r="V144" t="inlineStr">
         <is>
           <t>https://doi.org/10.4204/EPTCS.257.3</t>
         </is>
       </c>
-      <c r="W153" t="inlineStr">
+      <c r="W144" t="inlineStr">
         <is>
           <t>Open Publishing Association</t>
         </is>
       </c>
-      <c r="X153" t="inlineStr">
+      <c r="X144" t="inlineStr">
         <is>
           <t>nan; References; Link</t>
         </is>
       </c>
     </row>
-    <row r="154">
-      <c r="A154" s="1" t="n">
-        <v>152</v>
-      </c>
-      <c r="B154" t="inlineStr"/>
-      <c r="C154" t="inlineStr">
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="inlineStr"/>
+      <c r="C145" t="inlineStr">
         <is>
           <t>TestNN</t>
         </is>
       </c>
-      <c r="D154" t="inlineStr">
+      <c r="D145" t="inlineStr">
         <is>
           <t>Output Reachable Set Estimation and Verification for Multilayer Neural Networks</t>
         </is>
       </c>
-      <c r="E154" t="inlineStr">
+      <c r="E145" t="inlineStr">
         <is>
           <t>In this brief, the output reachable estimation and safety verification problems for multilayer perceptron (MLP) neural networks are addressed. First, a conception called maximum sensitivity is introduced, and for a class of MLPs whose activation functions are monotonic functions, the maximum sensitivity can be computed via solving convex optimization problems. Then, using a simulation-based method, the output reachable set estimation problem for neural networks is formulated into a chain of optimization problems. Finally, an automated safety verification is developed based on the output reachable set estimation result. An application to the safety verification for a robotic arm model with two joints is presented to show the effectiveness of the proposed approaches.</t>
         </is>
       </c>
-      <c r="F154" t="inlineStr">
+      <c r="F145" t="inlineStr">
         <is>
           <t>Neurons; Safety; Estimation; Neural networks; Nonhomogeneous media; Sensitivity; Contracts; Neural Network; Reachable Set; Reachable Set Estimation; Activation Function; Optimization Problem; Estimation Results; Multilayer Perceptron; Estimation Problem; Convex Optimization; Maximum Sensitivity; Convex Optimization Problem; Robotic Arm; Robot Model; Nonlinear Function; Black Box; Output Layer; Hidden Layer; Weight Matrix; Input Layer; Feed-forward Network; Activation Function Of Layer; Buffer Zone; Input Output Data; Input Error; Nominal Input; End For9; Individual Output; Small Radius; Safety Properties; Input Space; Multilayer perceptron (MLP); reachable set estimation; simulation; verification</t>
         </is>
       </c>
-      <c r="G154" t="inlineStr">
+      <c r="G145" t="inlineStr">
         <is>
           <t>Weiming Xiang; Hoang-Dung Tran; Taylor T. Johnson</t>
         </is>
       </c>
-      <c r="H154" t="inlineStr">
+      <c r="H145" t="inlineStr">
         <is>
           <t>IEEE Transactions on Neural Networks and Learning Systems</t>
         </is>
       </c>
-      <c r="I154" t="inlineStr">
+      <c r="I145" t="inlineStr">
         <is>
           <t>https://doi.org/10.1109/TNNLS.2018.2808470</t>
         </is>
       </c>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr">
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr">
         <is>
           <t>5777- 5783</t>
         </is>
       </c>
-      <c r="L154" t="inlineStr"/>
-      <c r="M154" t="inlineStr">
+      <c r="L145" t="inlineStr"/>
+      <c r="M145" t="inlineStr">
         <is>
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N154" t="inlineStr">
+      <c r="N145" t="inlineStr">
         <is>
           <t>Excluded</t>
         </is>
       </c>
-      <c r="O154" t="inlineStr">
+      <c r="O145" t="inlineStr">
         <is>
           <t>snowballing</t>
         </is>
       </c>
-      <c r="P154" t="inlineStr"/>
-      <c r="Q154" t="inlineStr">
+      <c r="P145" t="inlineStr"/>
+      <c r="Q145" t="inlineStr">
         <is>
           <t>Exclusion: duplicated with selected paper [95]</t>
         </is>
       </c>
-      <c r="R154" t="n">
+      <c r="R145" t="n">
         <v>1</v>
       </c>
-      <c r="S154" t="inlineStr">
+      <c r="S145" t="inlineStr">
         <is>
           <t>IEEE</t>
         </is>
       </c>
-      <c r="T154" t="n">
+      <c r="T145" t="n">
         <v>2017</v>
       </c>
-      <c r="U154" t="inlineStr">
+      <c r="U145" t="inlineStr">
         <is>
           <t>Output reachable set estimation and verification for multi-layer neural networks</t>
         </is>
       </c>
-      <c r="V154" t="inlineStr">
+      <c r="V145" t="inlineStr">
         <is>
           <t>https://doi.org/10.1109/TNNLS.2018.2808470</t>
         </is>
       </c>
-      <c r="W154" t="inlineStr">
+      <c r="W145" t="inlineStr">
         <is>
           <t>IEEE</t>
         </is>
       </c>
-      <c r="X154" t="inlineStr">
+      <c r="X145" t="inlineStr">
         <is>
           <t>nan; References; Year; Bibtex; Link</t>
         </is>
       </c>
     </row>
-    <row r="155">
-      <c r="A155" s="1" t="n">
-        <v>153</v>
-      </c>
-      <c r="B155" t="inlineStr"/>
-      <c r="C155" t="inlineStr">
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="inlineStr"/>
+      <c r="C146" t="inlineStr">
         <is>
           <t>TestNN</t>
         </is>
       </c>
-      <c r="D155" t="inlineStr">
+      <c r="D146" t="inlineStr">
         <is>
           <t>Output Range Analysis for Deep Neural Networks</t>
         </is>
       </c>
-      <c r="E155" t="inlineStr">
+      <c r="E146" t="inlineStr">
         <is>
           <t>Abstract:Deep neural networks (NN) are extensively used for machine learning tasks such as image classification, perception and control of autonomous systems. Increasingly, these deep NNs are also been deployed in high-assurance applications. Thus, there is a pressing need for developing techniques to verify neural networks to check whether certain user-expected properties are satisfied. In this paper, we study a specific verification problem of computing a guaranteed range for the output of a deep neural network given a set of inputs represented as a convex polyhedron. Range estimation is a key primitive for verifying deep NNs. We present an efficient range estimation algorithm that uses a combination of local search and linear programming problems to efficiently find the maximum and minimum values taken by the outputs of the NN over the given input set. In contrast to recently proposed "monolithic" optimization approaches, we use local gradient descent to repeatedly find and eliminate local minima of the function. The final global optimum is certified using a mixed integer programming instance. We implement our approach and compare it with Reluplex, a recently proposed solver for deep neural networks. We demonstrate the effectiveness of the proposed approach for verification of NNs used in automated control as well as those used in classification.</t>
         </is>
       </c>
-      <c r="F155" t="inlineStr"/>
-      <c r="G155" t="inlineStr">
+      <c r="F146" t="inlineStr"/>
+      <c r="G146" t="inlineStr">
         <is>
           <t>Souradeep Dutta; Susmit Jha; Sriram Sanakaranarayanan; Ashish Tiwari</t>
         </is>
       </c>
-      <c r="H155" t="inlineStr">
+      <c r="H146" t="inlineStr">
         <is>
           <t>arXiv</t>
         </is>
       </c>
-      <c r="I155" t="inlineStr">
+      <c r="I146" t="inlineStr">
         <is>
           <t>https://doi.org/10.48550/arXiv.1709.09130</t>
         </is>
       </c>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
-      <c r="M155" t="inlineStr">
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr"/>
+      <c r="M146" t="inlineStr">
         <is>
           <t>Included</t>
         </is>
       </c>
-      <c r="N155" t="inlineStr">
+      <c r="N146" t="inlineStr">
         <is>
           <t>Included</t>
         </is>
       </c>
-      <c r="O155" t="inlineStr">
+      <c r="O146" t="inlineStr">
         <is>
           <t>snowballing</t>
         </is>
       </c>
-      <c r="P155" t="inlineStr"/>
-      <c r="Q155" t="inlineStr"/>
-      <c r="R155" t="n">
+      <c r="P146" t="inlineStr"/>
+      <c r="Q146" t="inlineStr"/>
+      <c r="R146" t="n">
         <v>1</v>
       </c>
-      <c r="S155" t="inlineStr">
+      <c r="S146" t="inlineStr">
         <is>
           <t>arXiv</t>
         </is>
       </c>
-      <c r="T155" t="n">
+      <c r="T146" t="n">
         <v>2017</v>
       </c>
-      <c r="U155" t="inlineStr">
+      <c r="U146" t="inlineStr">
         <is>
           <t>Output range analysis for deep neural networks</t>
         </is>
       </c>
-      <c r="V155" t="inlineStr">
+      <c r="V146" t="inlineStr">
         <is>
           <t>https://doi.org/10.48550/arXiv.1709.09130</t>
         </is>
       </c>
-      <c r="W155" t="inlineStr"/>
-      <c r="X155" t="inlineStr">
+      <c r="W146" t="inlineStr"/>
+      <c r="X146" t="inlineStr">
         <is>
           <t>nan; Keywords; References; Pages; Year; Bibtex; Link; Publisher</t>
         </is>
       </c>
     </row>
-    <row r="156">
-      <c r="A156" s="1" t="n">
-        <v>154</v>
-      </c>
-      <c r="B156" t="inlineStr"/>
-      <c r="C156" t="inlineStr">
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="inlineStr"/>
+      <c r="C147" t="inlineStr">
         <is>
           <t>TestNN</t>
         </is>
       </c>
-      <c r="D156" t="inlineStr">
+      <c r="D147" t="inlineStr">
         <is>
           <t>Formal Verification of Piece-Wise Linear Feed-Forward Neural Networks</t>
         </is>
       </c>
-      <c r="E156" t="inlineStr">
+      <c r="E147" t="inlineStr">
         <is>
           <t>We present an approach for the verification of feed-forward neural networks in which all nodes have a piece-wise linear activation function. Such networks are often used in deep learning and have been shown to be hard to verify for modern satisfiability modulo theory (SMT) and integer linear programming (ILP) solvers.The starting point of our approach is the addition of a global linear approximation of the overall network behavior to the verification problem that helps with SMT-like reasoning over the network behavior. We present a specialized verification algorithm that employs this approximation in a search process in which it infers additional node phases for the non-linear nodes in the network from partial node phase assignments, similar to unit propagation in classical SAT solving. We also show how to infer additional conflict clauses and safe node fixtures from the results of the analysis steps performed during the search. The resulting approach is evaluated on collision avoidance and handwritten digit recognition case studies.</t>
         </is>
       </c>
-      <c r="F156" t="inlineStr"/>
-      <c r="G156" t="inlineStr">
+      <c r="F147" t="inlineStr"/>
+      <c r="G147" t="inlineStr">
         <is>
           <t>Rudiger Ehlers</t>
         </is>
       </c>
-      <c r="H156" t="inlineStr">
+      <c r="H147" t="inlineStr">
         <is>
           <t>International Symposium on Automated Technology for Verification and Analysis</t>
         </is>
       </c>
-      <c r="I156" t="inlineStr">
+      <c r="I147" t="inlineStr">
         <is>
           <t>https://doi.org/10.1007/978-3-319-68167-2_19</t>
         </is>
       </c>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr">
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr">
         <is>
           <t>pp 269-286</t>
         </is>
       </c>
-      <c r="L156" t="inlineStr"/>
-      <c r="M156" t="inlineStr">
+      <c r="L147" t="inlineStr"/>
+      <c r="M147" t="inlineStr">
         <is>
           <t>Included</t>
         </is>
       </c>
-      <c r="N156" t="inlineStr">
+      <c r="N147" t="inlineStr">
         <is>
           <t>Included</t>
         </is>
       </c>
-      <c r="O156" t="inlineStr">
+      <c r="O147" t="inlineStr">
         <is>
           <t>snowballing</t>
         </is>
       </c>
-      <c r="P156" t="inlineStr"/>
-      <c r="Q156" t="inlineStr"/>
-      <c r="R156" t="n">
+      <c r="P147" t="inlineStr"/>
+      <c r="Q147" t="inlineStr"/>
+      <c r="R147" t="n">
         <v>1</v>
       </c>
-      <c r="S156" t="inlineStr">
-        <is>
-          <t>SpringerLink</t>
-        </is>
-      </c>
-      <c r="T156" t="n">
+      <c r="S147" t="inlineStr">
+        <is>
+          <t>Springer Link</t>
+        </is>
+      </c>
+      <c r="T147" t="n">
         <v>2017</v>
       </c>
-      <c r="U156" t="inlineStr">
+      <c r="U147" t="inlineStr">
         <is>
           <t>Formal verification of piece-wise linear feed-forward neural networks</t>
         </is>
       </c>
-      <c r="V156" t="inlineStr">
+      <c r="V147" t="inlineStr">
         <is>
           <t>https://doi.org/10.1007/978-3-319-68167-2_19</t>
         </is>
       </c>
-      <c r="W156" t="inlineStr">
+      <c r="W147" t="inlineStr">
         <is>
           <t>Springer, Cham</t>
         </is>
       </c>
-      <c r="X156" t="inlineStr">
+      <c r="X147" t="inlineStr">
         <is>
           <t>nan; Keywords; References; Year; Bibtex; Link</t>
         </is>
       </c>
     </row>
-    <row r="157">
-      <c r="A157" s="1" t="n">
-        <v>155</v>
-      </c>
-      <c r="B157" t="inlineStr"/>
-      <c r="C157" t="inlineStr">
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="inlineStr"/>
+      <c r="C148" t="inlineStr">
         <is>
           <t>TestNN</t>
         </is>
       </c>
-      <c r="D157" t="inlineStr">
+      <c r="D148" t="inlineStr">
         <is>
           <t>DeepSafe: A Data-Driven Approach for Assessing Robustness of Neural Networks</t>
         </is>
       </c>
-      <c r="E157" t="inlineStr">
+      <c r="E148" t="inlineStr">
         <is>
           <t>Deep neural networks have achieved impressive results in many complex applications, including classification tasks for image and speech recognition, pattern analysis or perception in self-driving vehicles. However, it has been observed that even highly trained networks are very vulnerable to adversarial perturbations. Adding minimal changes to inputs that are correctly classified can lead to wrong predictions, raising serious security and safety concerns. Existing techniques for checking robustness against such perturbations only consider searching locally around a few individual inputs, providing limited guarantees. We propose DeepSafe, a novel approach for automatically assessing the overall robustness of a neural network. DeepSafe applies clustering over known labeled data and leverages off-the-shelf constraint solvers to automatically identify and check safe regions in which the network is robust, i.e. all the inputs in the region are guaranteed to be classified correctly. We also introduce the concept of targeted robustness, which ensures that the neural network is guaranteed not to misclassify inputs within a region to a specific target (adversarial) label. We evaluate DeepSafe on a neural network implementation of a controller for the next-generation Airborne Collision Avoidance System for unmanned aircraft (ACAS Xu) and for the well known MNIST network. For these networks, DeepSafe identified many regions which were safe, and also found adversarial perturbations of interest.</t>
         </is>
       </c>
-      <c r="F157" t="inlineStr">
+      <c r="F148" t="inlineStr">
         <is>
           <t>Aircraft accidents; Speech recognition; Airborne collision avoidance systems; Classification tasks; Complex applications; Constraint solvers; Data-driven approach; Pattern analysis; Self-driving vehicles; Unmanned aircrafts; Deep neural networks</t>
         </is>
       </c>
-      <c r="G157" t="inlineStr">
+      <c r="G148" t="inlineStr">
         <is>
           <t>Gopinath, Divya; Katz, Guy; Pasareanu, Corina S.; Barrett, Clark</t>
         </is>
       </c>
-      <c r="H157" t="inlineStr">
+      <c r="H148" t="inlineStr">
         <is>
           <t>Lecture Notes in Computer Science (including subseries Lecture Notes in Artificial Intelligence and Lecture Notes in Bioinformatics)</t>
         </is>
       </c>
-      <c r="I157" t="inlineStr">
+      <c r="I148" t="inlineStr">
         <is>
           <t>https://doi.org/10.1007/978-3-030-01090-4_1</t>
         </is>
       </c>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr">
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr">
         <is>
           <t>3 - 19</t>
         </is>
       </c>
-      <c r="L157" t="inlineStr">
+      <c r="L148" t="inlineStr">
         <is>
           <t>@ARTICLE{Gopinath20183,
     author = "Gopinath, Divya and Katz, Guy and Pasareanu, Corina S. and Barrett, Clark",
@@ -17014,502 +16481,550 @@
 }</t>
         </is>
       </c>
-      <c r="M157" t="inlineStr">
+      <c r="M148" t="inlineStr">
         <is>
           <t>Included</t>
         </is>
       </c>
-      <c r="N157" t="inlineStr">
+      <c r="N148" t="inlineStr">
         <is>
           <t>Included</t>
         </is>
       </c>
-      <c r="O157" t="inlineStr">
+      <c r="O148" t="inlineStr">
         <is>
           <t>snowballing</t>
         </is>
       </c>
-      <c r="P157" t="inlineStr"/>
-      <c r="Q157" t="inlineStr"/>
-      <c r="R157" t="n">
+      <c r="P148" t="inlineStr"/>
+      <c r="Q148" t="inlineStr"/>
+      <c r="R148" t="n">
         <v>1</v>
       </c>
-      <c r="S157" t="inlineStr">
+      <c r="S148" t="inlineStr">
         <is>
           <t>Scopus Signed In</t>
         </is>
       </c>
-      <c r="T157" t="n">
+      <c r="T148" t="n">
         <v>2017</v>
       </c>
-      <c r="U157" t="inlineStr">
+      <c r="U148" t="inlineStr">
         <is>
           <t>Deepsafe: A data-driven approach for checking adversarial robustness in neural networks</t>
         </is>
       </c>
-      <c r="V157" t="inlineStr">
+      <c r="V148" t="inlineStr">
         <is>
           <t>https://doi.org/10.1007/978-3-030-01090-4_1</t>
         </is>
       </c>
-      <c r="W157" t="inlineStr">
+      <c r="W148" t="inlineStr">
         <is>
           <t>Springer Verlag</t>
         </is>
       </c>
-      <c r="X157" t="inlineStr">
+      <c r="X148" t="inlineStr">
         <is>
           <t>nan; References; Link</t>
         </is>
       </c>
     </row>
-    <row r="158">
-      <c r="A158" s="1" t="n">
-        <v>156</v>
-      </c>
-      <c r="B158" t="inlineStr"/>
-      <c r="C158" t="inlineStr">
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="inlineStr"/>
+      <c r="C149" t="inlineStr">
         <is>
           <t>TestNN</t>
         </is>
       </c>
-      <c r="D158" t="inlineStr">
+      <c r="D149" t="inlineStr">
         <is>
           <t>The challenge of verification and testing of machine learning</t>
         </is>
       </c>
-      <c r="E158" t="inlineStr"/>
-      <c r="F158" t="inlineStr"/>
-      <c r="G158" t="inlineStr">
-        <is>
-          <t>Goodfellow, I. and N. Papernot</t>
-        </is>
-      </c>
-      <c r="H158" t="inlineStr"/>
-      <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
-      <c r="M158" t="inlineStr">
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>In our second post, we gave some background explaining why attacking machine learning is often easier than defending it. We saw some of the reasons why we do not yet have completely effective defenses against adversarial examples, and we speculated about whether we can ever expect such a defense.
+In this post, we explore the types of guarantees one can expect a machine learning model to possess. We argue that the limitations of existing defenses point to the lack of verification of machine learning models. Indeed, to design reliable systems, engineers typically engage in both testing and verification:
+By testing, we mean evaluating the system in several conditions and observing its behavior, watching for defects.
+By verification, we mean producing a compelling argument that the system will not misbehave under a very broad range of circumstances.
+Orthogonal to this issue is the question of which input values should be subject to verification and testing. Do we intend to verify or test the system only for i? 1/2naturally occurringi? 1/2 legitimate inputs, or do we intend to provide guarantees for its behavior on arbitrary, degenerate inputs? Many software systems such as compilers have undefined behavior for some inputs.</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>Goodfellow, I.; N. Papernot</t>
+        </is>
+      </c>
+      <c r="H149" t="inlineStr">
+        <is>
+          <t>Cleverhans-blog</t>
+        </is>
+      </c>
+      <c r="I149" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="J149" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="M149" t="inlineStr">
         <is>
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N158" t="inlineStr">
+      <c r="N149" t="inlineStr">
         <is>
           <t>Excluded</t>
         </is>
       </c>
-      <c r="O158" t="inlineStr">
+      <c r="O149" t="inlineStr">
         <is>
           <t>snowballing</t>
         </is>
       </c>
-      <c r="P158" t="inlineStr"/>
-      <c r="Q158" t="inlineStr">
+      <c r="P149" t="inlineStr"/>
+      <c r="Q149" t="inlineStr">
         <is>
           <t>Exclusion: review paper</t>
         </is>
       </c>
-      <c r="R158" t="n">
+      <c r="R149" t="n">
         <v>1</v>
       </c>
-      <c r="S158" t="inlineStr"/>
-      <c r="T158" t="n">
+      <c r="S149" t="inlineStr">
+        <is>
+          <t>Google Scholar</t>
+        </is>
+      </c>
+      <c r="T149" t="n">
         <v>2017</v>
       </c>
-      <c r="U158" t="inlineStr"/>
-      <c r="V158" t="inlineStr"/>
-      <c r="W158" t="inlineStr"/>
-      <c r="X158" t="inlineStr"/>
+      <c r="U149" t="inlineStr">
+        <is>
+          <t>The challenge of verification and testing of machine learning</t>
+        </is>
+      </c>
+      <c r="V149" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="W149" t="inlineStr">
+        <is>
+          <t>Cleverhans-blog</t>
+        </is>
+      </c>
+      <c r="X149" t="inlineStr"/>
     </row>
-    <row r="159">
-      <c r="A159" s="1" t="n">
-        <v>157</v>
-      </c>
-      <c r="B159" t="inlineStr"/>
-      <c r="C159" t="inlineStr">
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="inlineStr"/>
+      <c r="C150" t="inlineStr">
         <is>
           <t>TestNN</t>
         </is>
       </c>
-      <c r="D159" t="inlineStr">
+      <c r="D150" t="inlineStr">
         <is>
           <t>Detecting Adversarial Samples from Artifacts</t>
         </is>
       </c>
-      <c r="E159" t="inlineStr">
+      <c r="E150" t="inlineStr">
         <is>
           <t>Abstract:Deep neural networks (DNNs) are powerful nonlinear architectures that are known to be robust to random perturbations of the input. However, these models are vulnerable to adversarial perturbations--small input changes crafted explicitly to fool the model. In this paper, we ask whether a DNN can distinguish adversarial samples from their normal and noisy counterparts. We investigate model confidence on adversarial samples by looking at Bayesian uncertainty estimates, available in dropout neural networks, and by performing density estimation in the subspace of deep features learned by the model. The result is a method for implicit adversarial detection that is oblivious to the attack algorithm. We evaluate this method on a variety of standard datasets including MNIST and CIFAR-10 and show that it generalizes well across different architectures and attacks. Our findings report that 85-93% ROC-AUC can be achieved on a number of standard classification tasks with a negative class that consists of both normal and noisy samples.</t>
         </is>
       </c>
-      <c r="F159" t="inlineStr"/>
-      <c r="G159" t="inlineStr">
+      <c r="F150" t="inlineStr"/>
+      <c r="G150" t="inlineStr">
         <is>
           <t>Reuben Feinman; Ryan R. Curtin; Saurabh Shintre; Andrew B. Gardner</t>
         </is>
       </c>
-      <c r="H159" t="inlineStr">
+      <c r="H150" t="inlineStr">
         <is>
           <t>arXiv</t>
         </is>
       </c>
-      <c r="I159" t="inlineStr">
+      <c r="I150" t="inlineStr">
         <is>
           <t>https://doi.org/10.48550/arXiv.1703.00410</t>
         </is>
       </c>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
-      <c r="M159" t="inlineStr">
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="inlineStr"/>
+      <c r="M150" t="inlineStr">
         <is>
           <t>Included</t>
         </is>
       </c>
-      <c r="N159" t="inlineStr">
+      <c r="N150" t="inlineStr">
         <is>
           <t>Included</t>
         </is>
       </c>
-      <c r="O159" t="inlineStr">
+      <c r="O150" t="inlineStr">
         <is>
           <t>snowballing</t>
         </is>
       </c>
-      <c r="P159" t="inlineStr"/>
-      <c r="Q159" t="inlineStr"/>
-      <c r="R159" t="n">
+      <c r="P150" t="inlineStr"/>
+      <c r="Q150" t="inlineStr"/>
+      <c r="R150" t="n">
         <v>1</v>
       </c>
-      <c r="S159" t="inlineStr">
+      <c r="S150" t="inlineStr">
         <is>
           <t>arXiv</t>
         </is>
       </c>
-      <c r="T159" t="n">
+      <c r="T150" t="n">
         <v>2017</v>
       </c>
-      <c r="U159" t="inlineStr">
+      <c r="U150" t="inlineStr">
         <is>
           <t>Detecting Adversarial Samples from Artifacts</t>
         </is>
       </c>
-      <c r="V159" t="inlineStr">
+      <c r="V150" t="inlineStr">
         <is>
           <t>https://doi.org/10.48550/arXiv.1703.00410</t>
         </is>
       </c>
-      <c r="W159" t="inlineStr"/>
-      <c r="X159" t="inlineStr">
+      <c r="W150" t="inlineStr"/>
+      <c r="X150" t="inlineStr">
         <is>
           <t>nan; Keywords; References; Pages; Year; Bibtex; Link; Publisher</t>
         </is>
       </c>
     </row>
-    <row r="160">
-      <c r="A160" s="1" t="n">
-        <v>158</v>
-      </c>
-      <c r="B160" t="inlineStr"/>
-      <c r="C160" t="inlineStr">
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="inlineStr"/>
+      <c r="C151" t="inlineStr">
         <is>
           <t>TestNN</t>
         </is>
       </c>
-      <c r="D160" t="inlineStr">
+      <c r="D151" t="inlineStr">
         <is>
           <t>Extending Defensive Distillation</t>
         </is>
       </c>
-      <c r="E160" t="inlineStr">
+      <c r="E151" t="inlineStr">
         <is>
           <t>Abstract:Machine learning is vulnerable to adversarial examples: inputs carefully modified to force misclassification. Designing defenses against such inputs remains largely an open problem. In this work, we revisit defensive distillation---which is one of the mechanisms proposed to mitigate adversarial examples---to address its limitations. We view our results not only as an effective way of addressing some of the recently discovered attacks but also as reinforcing the importance of improved training techniques.</t>
         </is>
       </c>
-      <c r="F160" t="inlineStr"/>
-      <c r="G160" t="inlineStr">
+      <c r="F151" t="inlineStr"/>
+      <c r="G151" t="inlineStr">
         <is>
           <t>Nicolas Papernot; Patrick McDaniel</t>
         </is>
       </c>
-      <c r="H160" t="inlineStr">
+      <c r="H151" t="inlineStr">
         <is>
           <t>arXiv</t>
         </is>
       </c>
-      <c r="I160" t="inlineStr">
+      <c r="I151" t="inlineStr">
         <is>
           <t>https://doi.org/10.48550/arXiv.1705.05264</t>
         </is>
       </c>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
-      <c r="M160" t="inlineStr">
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="inlineStr"/>
+      <c r="M151" t="inlineStr">
         <is>
           <t>Included</t>
         </is>
       </c>
-      <c r="N160" t="inlineStr">
+      <c r="N151" t="inlineStr">
         <is>
           <t>Included</t>
         </is>
       </c>
-      <c r="O160" t="inlineStr">
+      <c r="O151" t="inlineStr">
         <is>
           <t>snowballing</t>
         </is>
       </c>
-      <c r="P160" t="inlineStr"/>
-      <c r="Q160" t="inlineStr"/>
-      <c r="R160" t="n">
+      <c r="P151" t="inlineStr"/>
+      <c r="Q151" t="inlineStr"/>
+      <c r="R151" t="n">
         <v>1</v>
       </c>
-      <c r="S160" t="inlineStr">
+      <c r="S151" t="inlineStr">
         <is>
           <t>arXiv</t>
         </is>
       </c>
-      <c r="T160" t="n">
+      <c r="T151" t="n">
         <v>2017</v>
       </c>
-      <c r="U160" t="inlineStr">
+      <c r="U151" t="inlineStr">
         <is>
           <t>Extending defensive distillation</t>
         </is>
       </c>
-      <c r="V160" t="inlineStr">
+      <c r="V151" t="inlineStr">
         <is>
           <t>https://doi.org/10.48550/arXiv.1705.05264</t>
         </is>
       </c>
-      <c r="W160" t="inlineStr"/>
-      <c r="X160" t="inlineStr">
+      <c r="W151" t="inlineStr"/>
+      <c r="X151" t="inlineStr">
         <is>
           <t>nan; Keywords; References; Pages; Year; Bibtex; Link; Publisher</t>
         </is>
       </c>
     </row>
-    <row r="161">
-      <c r="A161" s="1" t="n">
-        <v>159</v>
-      </c>
-      <c r="B161" t="inlineStr"/>
-      <c r="C161" t="inlineStr">
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="inlineStr"/>
+      <c r="C152" t="inlineStr">
         <is>
           <t>TestNN</t>
         </is>
       </c>
-      <c r="D161" t="inlineStr">
+      <c r="D152" t="inlineStr">
         <is>
           <t>Feature Squeezing: Detecting Adversarial Examples in Deep Neural Networks</t>
         </is>
       </c>
-      <c r="E161" t="inlineStr">
+      <c r="E152" t="inlineStr">
         <is>
           <t>Abstract:Although deep neural networks (DNNs) have achieved great success in many tasks, they can often be fooled by \emph{adversarial examples} that are generated by adding small but purposeful distortions to natural examples. Previous studies to defend against adversarial examples mostly focused on refining the DNN models, but have either shown limited success or required expensive computation. We propose a new strategy, \emph{feature squeezing}, that can be used to harden DNN models by detecting adversarial examples. Feature squeezing reduces the search space available to an adversary by coalescing samples that correspond to many different feature vectors in the original space into a single sample. By comparing a DNN model's prediction on the original input with that on squeezed inputs, feature squeezing detects adversarial examples with high accuracy and few false positives. This paper explores two feature squeezing methods: reducing the color bit depth of each pixel and spatial smoothing. These simple strategies are inexpensive and complementary to other defenses, and can be combined in a joint detection framework to achieve high detection rates against state-of-the-art attacks.</t>
         </is>
       </c>
-      <c r="F161" t="inlineStr"/>
-      <c r="G161" t="inlineStr">
+      <c r="F152" t="inlineStr"/>
+      <c r="G152" t="inlineStr">
         <is>
           <t>Weilin Xu; David Evans; Yanjun Qi</t>
         </is>
       </c>
-      <c r="H161" t="inlineStr">
+      <c r="H152" t="inlineStr">
         <is>
           <t>arXiv</t>
         </is>
       </c>
-      <c r="I161" t="inlineStr">
+      <c r="I152" t="inlineStr">
         <is>
           <t>https://doi.org/10.48550/arXiv.1704.01155</t>
         </is>
       </c>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
-      <c r="M161" t="inlineStr">
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="inlineStr"/>
+      <c r="M152" t="inlineStr">
         <is>
           <t>Included</t>
         </is>
       </c>
-      <c r="N161" t="inlineStr">
+      <c r="N152" t="inlineStr">
         <is>
           <t>Included</t>
         </is>
       </c>
-      <c r="O161" t="inlineStr">
+      <c r="O152" t="inlineStr">
         <is>
           <t>snowballing</t>
         </is>
       </c>
-      <c r="P161" t="inlineStr"/>
-      <c r="Q161" t="inlineStr"/>
-      <c r="R161" t="n">
+      <c r="P152" t="inlineStr"/>
+      <c r="Q152" t="inlineStr"/>
+      <c r="R152" t="n">
         <v>1</v>
       </c>
-      <c r="S161" t="inlineStr">
+      <c r="S152" t="inlineStr">
         <is>
           <t>arXiv</t>
         </is>
       </c>
-      <c r="T161" t="n">
+      <c r="T152" t="n">
         <v>2017</v>
       </c>
-      <c r="U161" t="inlineStr">
+      <c r="U152" t="inlineStr">
         <is>
           <t>Feature squeezing: Detecting adversarial examples in deep neural networks</t>
         </is>
       </c>
-      <c r="V161" t="inlineStr">
+      <c r="V152" t="inlineStr">
         <is>
           <t>https://doi.org/10.48550/arXiv.1704.01155</t>
         </is>
       </c>
-      <c r="W161" t="inlineStr"/>
-      <c r="X161" t="inlineStr">
+      <c r="W152" t="inlineStr"/>
+      <c r="X152" t="inlineStr">
         <is>
           <t>nan; Keywords; References; Pages; Year; Bibtex; Link; Publisher</t>
         </is>
       </c>
     </row>
-    <row r="162">
-      <c r="A162" s="1" t="n">
-        <v>160</v>
-      </c>
-      <c r="B162" t="inlineStr"/>
-      <c r="C162" t="inlineStr">
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="inlineStr"/>
+      <c r="C153" t="inlineStr">
         <is>
           <t>TestNN</t>
         </is>
       </c>
-      <c r="D162" t="inlineStr">
+      <c r="D153" t="inlineStr">
         <is>
           <t>On Detecting Adversarial Perturbations</t>
         </is>
       </c>
-      <c r="E162" t="inlineStr">
+      <c r="E153" t="inlineStr">
         <is>
           <t>Abstract:Machine learning and deep learning in particular has advanced tremendously on perceptual tasks in recent years. However, it remains vulnerable against adversarial perturbations of the input that have been crafted specifically to fool the system while being quasi-imperceptible to a human. In this work, we propose to augment deep neural networks with a small "detector" subnetwork which is trained on the binary classification task of distinguishing genuine data from data containing adversarial perturbations. Our method is orthogonal to prior work on addressing adversarial perturbations, which has mostly focused on making the classification network itself more robust. We show empirically that adversarial perturbations can be detected surprisingly well even though they are quasi-imperceptible to humans. Moreover, while the detectors have been trained to detect only a specific adversary, they generalize to similar and weaker adversaries. In addition, we propose an adversarial attack that fools both the classifier and the detector and a novel training procedure for the detector that counteracts this attack.</t>
         </is>
       </c>
-      <c r="F162" t="inlineStr"/>
-      <c r="G162" t="inlineStr">
+      <c r="F153" t="inlineStr"/>
+      <c r="G153" t="inlineStr">
         <is>
           <t>Jan Hendrik Metzen; Tim Genewein; Volker Fischer; Bastian Bischoff</t>
         </is>
       </c>
-      <c r="H162" t="inlineStr">
+      <c r="H153" t="inlineStr">
         <is>
           <t>arXiv</t>
         </is>
       </c>
-      <c r="I162" t="inlineStr">
+      <c r="I153" t="inlineStr">
         <is>
           <t>https://doi.org/10.48550/arXiv.1702.04267</t>
         </is>
       </c>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
-      <c r="M162" t="inlineStr">
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="inlineStr"/>
+      <c r="M153" t="inlineStr">
         <is>
           <t>Included</t>
         </is>
       </c>
-      <c r="N162" t="inlineStr">
+      <c r="N153" t="inlineStr">
         <is>
           <t>Included</t>
         </is>
       </c>
-      <c r="O162" t="inlineStr">
+      <c r="O153" t="inlineStr">
         <is>
           <t>snowballing</t>
         </is>
       </c>
-      <c r="P162" t="inlineStr"/>
-      <c r="Q162" t="inlineStr"/>
-      <c r="R162" t="n">
+      <c r="P153" t="inlineStr"/>
+      <c r="Q153" t="inlineStr"/>
+      <c r="R153" t="n">
         <v>1</v>
       </c>
-      <c r="S162" t="inlineStr">
+      <c r="S153" t="inlineStr">
         <is>
           <t>IEEE</t>
         </is>
       </c>
-      <c r="T162" t="n">
+      <c r="T153" t="n">
         <v>2017</v>
       </c>
-      <c r="U162" t="inlineStr">
+      <c r="U153" t="inlineStr">
         <is>
           <t>On detecting adversarial perturbations</t>
         </is>
       </c>
-      <c r="V162" t="inlineStr">
+      <c r="V153" t="inlineStr">
         <is>
           <t>https://doi.org/10.48550/arXiv.1702.04267</t>
         </is>
       </c>
-      <c r="W162" t="inlineStr">
+      <c r="W153" t="inlineStr">
         <is>
           <t>IEEE</t>
         </is>
       </c>
-      <c r="X162" t="inlineStr">
+      <c r="X153" t="inlineStr">
         <is>
           <t>nan; Keywords; References; Pages; Year; Bibtex; Link</t>
         </is>
       </c>
     </row>
-    <row r="163">
-      <c r="A163" s="1" t="n">
-        <v>161</v>
-      </c>
-      <c r="B163" t="inlineStr"/>
-      <c r="C163" t="inlineStr">
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="inlineStr"/>
+      <c r="C154" t="inlineStr">
         <is>
           <t>TestNN</t>
         </is>
       </c>
-      <c r="D163" t="inlineStr">
+      <c r="D154" t="inlineStr">
         <is>
           <t>Parseval networks: Improving robustness to adversarial examples</t>
         </is>
       </c>
-      <c r="E163" t="inlineStr">
+      <c r="E154" t="inlineStr">
         <is>
           <t>We introduce Parseval networks, a form of deep neural networks in which the Lipschitz constant of linear, convolutional and aggregation layers is constrained to be smaller than 1. Parseval networks are empirically and theoretically motivated by an analysis of the robustness of the predictions made by deep neural networks when their input is subject to an adversarial perturbation. The most important feature of Parseval networks is to maintain weight matrices of linear and convolutional layers to be (approximately) Parseval tight frames, which are extensions of orthogonal matrices to non-square matrices. We describe how these constraints can be maintained efficiently during SGD. We show that Parseval networks match the state-of-the-art in terms of accuracy on CIFAR-10/100 and Street View House Numbers (SVHN), while being more robust than their vanilla counterpart against adversarial examples. Incidentally, Parseval networks also tend to train faster and make a better usage of the full capacity of the networks.</t>
         </is>
       </c>
-      <c r="F163" t="inlineStr">
+      <c r="F154" t="inlineStr">
         <is>
           <t>Artificial intelligence; Convolution; Deep neural networks; Important features; Lipschitz constant; Orthogonal matrix; Square matrices; State of the art; Tight frame; Weight matrices; Matrix algebra</t>
         </is>
       </c>
-      <c r="G163" t="inlineStr">
+      <c r="G154" t="inlineStr">
         <is>
           <t>Cisse, Moustapha; Bojanowski, Piotr; Grave, Edouard; Dauphin, Yann; Usunier, Nicolas</t>
         </is>
       </c>
-      <c r="H163" t="inlineStr">
+      <c r="H154" t="inlineStr">
         <is>
           <t>34th International Conference on Machine Learning, ICML 2017</t>
         </is>
       </c>
-      <c r="I163" t="inlineStr">
+      <c r="I154" t="inlineStr">
         <is>
           <t>https://www.scopus.com/record/display.uri?eid=2-s2.0-85046998902&amp;origin=resultslist&amp;sort=plf-f&amp;src=s&amp;sid=aa717988d682fb843399a0bb1381b73b&amp;sot=b&amp;sdt=b&amp;s=TITLE-ABS-KEY%28parseval+networks+improving+robustness+to+adversarial+examples%29&amp;sl=77&amp;sessionSearchId=aa717988d682fb843399a0bb1381b73b&amp;relpos=0</t>
         </is>
       </c>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr">
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr">
         <is>
           <t>1423 - 1432</t>
         </is>
       </c>
-      <c r="L163" t="inlineStr">
+      <c r="L154" t="inlineStr">
         <is>
           <t>@CONFERENCE{Cisse20171423,
     author = "Cisse, Moustapha and Bojanowski, Piotr and Grave, Edouard and Dauphin, Yann and Usunier, Nicolas",
@@ -17534,278 +17049,278 @@
 }</t>
         </is>
       </c>
-      <c r="M163" t="inlineStr">
+      <c r="M154" t="inlineStr">
         <is>
           <t>Included</t>
         </is>
       </c>
-      <c r="N163" t="inlineStr">
+      <c r="N154" t="inlineStr">
         <is>
           <t>Included</t>
         </is>
       </c>
-      <c r="O163" t="inlineStr">
+      <c r="O154" t="inlineStr">
         <is>
           <t>snowballing</t>
         </is>
       </c>
-      <c r="P163" t="inlineStr"/>
-      <c r="Q163" t="inlineStr"/>
-      <c r="R163" t="n">
+      <c r="P154" t="inlineStr"/>
+      <c r="Q154" t="inlineStr"/>
+      <c r="R154" t="n">
         <v>1</v>
       </c>
-      <c r="S163" t="inlineStr">
+      <c r="S154" t="inlineStr">
         <is>
           <t>Scopus Signed In</t>
         </is>
       </c>
-      <c r="T163" t="n">
+      <c r="T154" t="n">
         <v>2017</v>
       </c>
-      <c r="U163" t="inlineStr">
+      <c r="U154" t="inlineStr">
         <is>
           <t>Parseval networks: Improving robustness to adversarial examples</t>
         </is>
       </c>
-      <c r="V163" t="inlineStr">
+      <c r="V154" t="inlineStr">
         <is>
           <t>https://www.scopus.com/record/display.uri?eid=2-s2.0-85046998902&amp;origin=resultslist&amp;sort=plf-f&amp;src=s&amp;sid=aa717988d682fb843399a0bb1381b73b&amp;sot=b&amp;sdt=b&amp;s=TITLE-ABS-KEY%28parseval+networks+improving+robustness+to+adversarial+examples%29&amp;sl=77&amp;sessionSearchId=aa717988d682fb843399a0bb1381b73b&amp;relpos=0</t>
         </is>
       </c>
-      <c r="W163" t="inlineStr">
+      <c r="W154" t="inlineStr">
         <is>
           <t>International Machine Learning Society (IMLS)</t>
         </is>
       </c>
-      <c r="X163" t="inlineStr">
+      <c r="X154" t="inlineStr">
         <is>
           <t>nan; References</t>
         </is>
       </c>
     </row>
-    <row r="164">
-      <c r="A164" s="1" t="n">
-        <v>162</v>
-      </c>
-      <c r="B164" t="inlineStr"/>
-      <c r="C164" t="inlineStr">
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="inlineStr"/>
+      <c r="C155" t="inlineStr">
         <is>
           <t>TestNN</t>
         </is>
       </c>
-      <c r="D164" t="inlineStr">
+      <c r="D155" t="inlineStr">
         <is>
           <t>Reachable Set Estimation and Safety Verification for Piecewise Linear Systems with Neural Network Controllers</t>
         </is>
       </c>
-      <c r="E164" t="inlineStr">
+      <c r="E155" t="inlineStr">
         <is>
           <t>In this work, the reachable set estimation and safety verification problems for a class of piecewise linear systems equipped with neural network controllers are addressed. The neural network is considered to consist of Rectified Linear Unit (ReLU) activation functions. A layer-by-layer approach is developed for the output reachable set computation of ReLU neural networks. The computation is formulated in the form of a set of manipulations for a union of polytopes. Based on the output reachable set for neural network controllers, the output reachable set for a piecewise linear feedback control system can be estimated iteratively for a given finite-time interval. With the estimated output reachable set, the safety verification for piecewise linear systems with neural network controllers can be performed by checking the existence of intersections of unsafe regions and output reach set. A numerical example is presented to illustrate the effectiveness of our approach.</t>
         </is>
       </c>
-      <c r="F164" t="inlineStr">
+      <c r="F155" t="inlineStr">
         <is>
           <t>Safety; Linear systems; Neurons; Estimation; Closed loop systems; Biological neural networks; Neural Network; Linear System; Neural Control; Neural Network Control; Reachable Set; Safety Verification; Piecewise Linear Systems; Reachable Set Estimation; Activation Function; Control System; Feedback Control; Class Of Systems; Estimation Problem; Set Of Systems; Finite Interval; Feedback Control System; Class Estimates; Linear Feedback Control; Class Of Linear Systems; Neurons In Layer; Feed-forward Network; Closed-loop System; Multilayer Perceptron; Output Layer; Linear Function; Switching Signal; Indicator Vector; Safety Properties; Convex Hull</t>
         </is>
       </c>
-      <c r="G164" t="inlineStr">
+      <c r="G155" t="inlineStr">
         <is>
           <t>Weiming Xiang; Hoang-Dung Tran; Joel A. Rosenfeld; Taylor T. Johnson</t>
         </is>
       </c>
-      <c r="H164" t="inlineStr">
+      <c r="H155" t="inlineStr">
         <is>
           <t>2018 Annual American Control Conference (ACC)</t>
         </is>
       </c>
-      <c r="I164" t="inlineStr">
+      <c r="I155" t="inlineStr">
         <is>
           <t>https://doi.org/10.23919/ACC.2018.8431048</t>
         </is>
       </c>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
-      <c r="M164" t="inlineStr">
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="inlineStr"/>
+      <c r="M155" t="inlineStr">
         <is>
           <t>Included</t>
         </is>
       </c>
-      <c r="N164" t="inlineStr">
+      <c r="N155" t="inlineStr">
         <is>
           <t>Included</t>
         </is>
       </c>
-      <c r="O164" t="inlineStr">
+      <c r="O155" t="inlineStr">
         <is>
           <t>snowballing</t>
         </is>
       </c>
-      <c r="P164" t="inlineStr"/>
-      <c r="Q164" t="inlineStr"/>
-      <c r="R164" t="n">
+      <c r="P155" t="inlineStr"/>
+      <c r="Q155" t="inlineStr"/>
+      <c r="R155" t="n">
         <v>1</v>
       </c>
-      <c r="S164" t="inlineStr">
+      <c r="S155" t="inlineStr">
         <is>
           <t>IEEE</t>
         </is>
       </c>
-      <c r="T164" t="n">
+      <c r="T155" t="n">
         <v>2017</v>
       </c>
-      <c r="U164" t="inlineStr">
+      <c r="U155" t="inlineStr">
         <is>
           <t>Reachable set computation and safety verification for neural networks with ReLU activations</t>
         </is>
       </c>
-      <c r="V164" t="inlineStr">
+      <c r="V155" t="inlineStr">
         <is>
           <t>https://doi.org/10.23919/ACC.2018.8431048</t>
         </is>
       </c>
-      <c r="W164" t="inlineStr">
+      <c r="W155" t="inlineStr">
         <is>
           <t>IEEE</t>
         </is>
       </c>
-      <c r="X164" t="inlineStr">
+      <c r="X155" t="inlineStr">
         <is>
           <t>nan; References; Pages; Year; Bibtex; Link</t>
         </is>
       </c>
     </row>
-    <row r="165">
-      <c r="A165" s="1" t="n">
-        <v>163</v>
-      </c>
-      <c r="B165" t="inlineStr"/>
-      <c r="C165" t="inlineStr">
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="inlineStr"/>
+      <c r="C156" t="inlineStr">
         <is>
           <t>TestNN</t>
         </is>
       </c>
-      <c r="D165" t="inlineStr">
+      <c r="D156" t="inlineStr">
         <is>
           <t>A Study of Deep Learning Robustness Against Computation Failures</t>
         </is>
       </c>
-      <c r="E165" t="inlineStr">
+      <c r="E156" t="inlineStr">
         <is>
           <t>Abstract:For many types of integrated circuits, accepting larger failure rates in computations can be used to improve energy efficiency. We study the performance of faulty implementations of certain deep neural networks based on pessimistic and optimistic models of the effect of hardware faults. After identifying the impact of hyperparameters such as the number of layers on robustness, we study the ability of the network to compensate for computational failures through an increase of the network size. We show that some networks can achieve equivalent performance under faulty implementations, and quantify the required increase in computational complexity.</t>
         </is>
       </c>
-      <c r="F165" t="inlineStr"/>
-      <c r="G165" t="inlineStr">
+      <c r="F156" t="inlineStr"/>
+      <c r="G156" t="inlineStr">
         <is>
           <t>Jean-Charles Vialatte; Francois Leduc-Primeau</t>
         </is>
       </c>
-      <c r="H165" t="inlineStr">
+      <c r="H156" t="inlineStr">
         <is>
           <t>arXiv</t>
         </is>
       </c>
-      <c r="I165" t="inlineStr">
+      <c r="I156" t="inlineStr">
         <is>
           <t>https://doi.org/10.48550/arXiv.1704.05396</t>
         </is>
       </c>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
-      <c r="M165" t="inlineStr">
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="inlineStr"/>
+      <c r="M156" t="inlineStr">
         <is>
           <t>Included</t>
         </is>
       </c>
-      <c r="N165" t="inlineStr">
+      <c r="N156" t="inlineStr">
         <is>
           <t>Included</t>
         </is>
       </c>
-      <c r="O165" t="inlineStr">
+      <c r="O156" t="inlineStr">
         <is>
           <t>snowballing</t>
         </is>
       </c>
-      <c r="P165" t="inlineStr"/>
-      <c r="Q165" t="inlineStr"/>
-      <c r="R165" t="n">
+      <c r="P156" t="inlineStr"/>
+      <c r="Q156" t="inlineStr"/>
+      <c r="R156" t="n">
         <v>1</v>
       </c>
-      <c r="S165" t="inlineStr">
+      <c r="S156" t="inlineStr">
         <is>
           <t>arXiv</t>
         </is>
       </c>
-      <c r="T165" t="n">
+      <c r="T156" t="n">
         <v>2017</v>
       </c>
-      <c r="U165" t="inlineStr">
+      <c r="U156" t="inlineStr">
         <is>
           <t>A Study of Deep Learning Robustness Against Computation Failures</t>
         </is>
       </c>
-      <c r="V165" t="inlineStr">
+      <c r="V156" t="inlineStr">
         <is>
           <t>https://doi.org/10.48550/arXiv.1704.05396</t>
         </is>
       </c>
-      <c r="W165" t="inlineStr"/>
-      <c r="X165" t="inlineStr">
+      <c r="W156" t="inlineStr"/>
+      <c r="X156" t="inlineStr">
         <is>
           <t>nan; Keywords; References; Pages; Year; Bibtex; Link; Publisher</t>
         </is>
       </c>
     </row>
-    <row r="166">
-      <c r="A166" s="1" t="n">
-        <v>164</v>
-      </c>
-      <c r="B166" t="inlineStr"/>
-      <c r="C166" t="inlineStr">
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="inlineStr"/>
+      <c r="C157" t="inlineStr">
         <is>
           <t>TestNN</t>
         </is>
       </c>
-      <c r="D166" t="inlineStr">
+      <c r="D157" t="inlineStr">
         <is>
           <t>Towards proving the adversarial robustness of deep neural networks</t>
         </is>
       </c>
-      <c r="E166" t="inlineStr">
+      <c r="E157" t="inlineStr">
         <is>
           <t>Autonomous vehicles are highly complex systems, required to function reliably in a wide variety of situations. Manually crafting software controllers for these vehicles is difficult, but there has been some success in using deep neural networks generated usingmachine-learning. However, deep neural networks are opaque to human engineers, rendering their correctness very difficult to provemanually; and existing automated techniques, which were not designed to operate on neural networks, fail to scale to large systems. This paper focuses on proving the adversarial robustness of deep neural networks, i.e. proving that small perturbations to a correctly-classified input to the network cannot cause it to be misclassified. We describe some of our recent and ongoing work on verifying the adversarial robustness of networks, and discuss some of the open questions we have encountered and how they might be addressed.</t>
         </is>
       </c>
-      <c r="F166" t="inlineStr">
+      <c r="F157" t="inlineStr">
         <is>
           <t>Formal verification; Vehicles; Automated techniques; Autonomous Vehicles; Large system; Small perturbations; Software controllers; Deep neural networks</t>
         </is>
       </c>
-      <c r="G166" t="inlineStr">
+      <c r="G157" t="inlineStr">
         <is>
           <t>Katz, Guy; Barrett, Clark; Dill, David L.; Julian, Kyle; Kochenderfer, Mykel J.</t>
         </is>
       </c>
-      <c r="H166" t="inlineStr">
+      <c r="H157" t="inlineStr">
         <is>
           <t>Electronic Proceedings in Theoretical Computer Science, EPTCS</t>
         </is>
       </c>
-      <c r="I166" t="inlineStr">
+      <c r="I157" t="inlineStr">
         <is>
           <t>https://doi.org/10.4204/EPTCS.257.3</t>
         </is>
       </c>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr">
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr">
         <is>
           <t>19 - 26</t>
         </is>
       </c>
-      <c r="L166" t="inlineStr">
+      <c r="L157" t="inlineStr">
         <is>
           <t>@CONFERENCE{Katz201719,
     author = "Katz, Guy and Barrett, Clark and Dill, David L. and Julian, Kyle and Kochenderfer, Mykel J.",
@@ -17832,194 +17347,194 @@
 }</t>
         </is>
       </c>
-      <c r="M166" t="inlineStr">
+      <c r="M157" t="inlineStr">
         <is>
           <t>Included</t>
         </is>
       </c>
-      <c r="N166" t="inlineStr">
+      <c r="N157" t="inlineStr">
         <is>
           <t>Included</t>
         </is>
       </c>
-      <c r="O166" t="inlineStr">
+      <c r="O157" t="inlineStr">
         <is>
           <t>snowballing</t>
         </is>
       </c>
-      <c r="P166" t="inlineStr"/>
-      <c r="Q166" t="inlineStr"/>
-      <c r="R166" t="n">
+      <c r="P157" t="inlineStr"/>
+      <c r="Q157" t="inlineStr"/>
+      <c r="R157" t="n">
         <v>1</v>
       </c>
-      <c r="S166" t="inlineStr">
+      <c r="S157" t="inlineStr">
         <is>
           <t>Scopus Signed In</t>
         </is>
       </c>
-      <c r="T166" t="n">
+      <c r="T157" t="n">
         <v>2017</v>
       </c>
-      <c r="U166" t="inlineStr">
+      <c r="U157" t="inlineStr">
         <is>
           <t>Towards proving the adversarial robustness of deep neural networks</t>
         </is>
       </c>
-      <c r="V166" t="inlineStr">
+      <c r="V157" t="inlineStr">
         <is>
           <t>https://doi.org/10.4204/EPTCS.257.3</t>
         </is>
       </c>
-      <c r="W166" t="inlineStr">
+      <c r="W157" t="inlineStr">
         <is>
           <t>Open Publishing Association</t>
         </is>
       </c>
-      <c r="X166" t="inlineStr">
+      <c r="X157" t="inlineStr">
         <is>
           <t>nan; References; Link</t>
         </is>
       </c>
     </row>
-    <row r="167">
-      <c r="A167" s="1" t="n">
-        <v>165</v>
-      </c>
-      <c r="B167" t="inlineStr"/>
-      <c r="C167" t="inlineStr">
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="inlineStr"/>
+      <c r="C158" t="inlineStr">
         <is>
           <t>TestNN</t>
         </is>
       </c>
-      <c r="D167" t="inlineStr">
+      <c r="D158" t="inlineStr">
         <is>
           <t>Axiomatic attribution for deep networks</t>
         </is>
       </c>
-      <c r="E167" t="inlineStr">
+      <c r="E158" t="inlineStr">
         <is>
           <t>We study the problem of attributing the prediction of a deep network to its input features, a problem previously studied by several other works. We identify two fundamental axioms--SensitivityandImplementation Invariancethat attribution methods ought to satisfy. We show that they are not satisfied by most known attribution methods, which we consider to be a fundamental weakness of those methods. We use the axioms to guide the design of a new attribution method calledIntegrated Gradients.Our method requires no modification to the original network and is extremely simple to implement; it just needs a few calls to the standard gradient operator. We apply this method to a couple of image models, a couple of text models and a chemistry model, demonstrating its ability to debug networks, to extract rules from a network, and to enable users to engage with models better.</t>
         </is>
       </c>
-      <c r="F167" t="inlineStr"/>
-      <c r="G167" t="inlineStr">
+      <c r="F158" t="inlineStr"/>
+      <c r="G158" t="inlineStr">
         <is>
           <t>Mukund Sundararajan; Ankur Taly; Qiqi Yan</t>
         </is>
       </c>
-      <c r="H167" t="inlineStr">
+      <c r="H158" t="inlineStr">
         <is>
           <t>ICML'17: Proceedings of the 34th International Conference on Machine Learning - Volume 70</t>
         </is>
       </c>
-      <c r="I167" t="inlineStr">
+      <c r="I158" t="inlineStr">
         <is>
           <t>https://doi.org/10.5555/3305890.3306024</t>
         </is>
       </c>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr">
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr">
         <is>
           <t>3319-3328</t>
         </is>
       </c>
-      <c r="L167" t="inlineStr"/>
-      <c r="M167" t="inlineStr">
+      <c r="L158" t="inlineStr"/>
+      <c r="M158" t="inlineStr">
         <is>
           <t>Included</t>
         </is>
       </c>
-      <c r="N167" t="inlineStr">
+      <c r="N158" t="inlineStr">
         <is>
           <t>Included</t>
         </is>
       </c>
-      <c r="O167" t="inlineStr">
+      <c r="O158" t="inlineStr">
         <is>
           <t>snowballing</t>
         </is>
       </c>
-      <c r="P167" t="inlineStr"/>
-      <c r="Q167" t="inlineStr"/>
-      <c r="R167" t="n">
+      <c r="P158" t="inlineStr"/>
+      <c r="Q158" t="inlineStr"/>
+      <c r="R158" t="n">
         <v>1</v>
       </c>
-      <c r="S167" t="inlineStr">
+      <c r="S158" t="inlineStr">
         <is>
           <t>ACM</t>
         </is>
       </c>
-      <c r="T167" t="n">
+      <c r="T158" t="n">
         <v>2017</v>
       </c>
-      <c r="U167" t="inlineStr">
+      <c r="U158" t="inlineStr">
         <is>
           <t>Axiomatic attribution for deep networks</t>
         </is>
       </c>
-      <c r="V167" t="inlineStr">
+      <c r="V158" t="inlineStr">
         <is>
           <t>https://doi.org/10.5555/3305890.3306024</t>
         </is>
       </c>
-      <c r="W167" t="inlineStr">
+      <c r="W158" t="inlineStr">
         <is>
           <t>JMLR.org</t>
         </is>
       </c>
-      <c r="X167" t="inlineStr">
+      <c r="X158" t="inlineStr">
         <is>
           <t>nan; Keywords; References; Year; Bibtex; Link</t>
         </is>
       </c>
     </row>
-    <row r="168">
-      <c r="A168" s="1" t="n">
-        <v>166</v>
-      </c>
-      <c r="B168" t="inlineStr"/>
-      <c r="C168" t="inlineStr">
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="inlineStr"/>
+      <c r="C159" t="inlineStr">
         <is>
           <t>TestNN</t>
         </is>
       </c>
-      <c r="D168" t="inlineStr">
+      <c r="D159" t="inlineStr">
         <is>
           <t>Explaining nonlinear classification decisions with deep Taylor decomposition</t>
         </is>
       </c>
-      <c r="E168" t="inlineStr">
+      <c r="E159" t="inlineStr">
         <is>
           <t>Nonlinear methods such as Deep Neural Networks (DNNs) are the gold standard for various challenging machine learning problems such as image recognition. Although these methods perform impressively well, they have a significant disadvantage, the lack of transparency, limiting the interpretability of the solution and thus the scope of application in practice. Especially DNNs act as black boxes due to their multilayer nonlinear structure. In this paper we introduce a novel methodology for interpreting generic multilayer neural networks by decomposing the network classification decision into contributions of its input elements. Although our focus is on image classification, the method is applicable to a broad set of input data, learning tasks and network architectures. Our method called deep Taylor decomposition efficiently utilizes the structure of the network by backpropagating the explanations from the output to the input layer. We evaluate the proposed method empirically on the MNIST and ILSVRC data sets.</t>
         </is>
       </c>
-      <c r="F168" t="inlineStr">
+      <c r="F159" t="inlineStr">
         <is>
           <t>Image recognition; Learning systems; Multilayers; Network architecture; Deep neural networks; Heatmapping; Machine learning problem; Network classification; Non-linear methods; Nonlinear classification; Nonlinear structure; Scope of application; Multilayer neural networks</t>
         </is>
       </c>
-      <c r="G168" t="inlineStr">
+      <c r="G159" t="inlineStr">
         <is>
           <t>Montavon, Gregoire; Lapuschkin, Sebastian; Binder, Alexander; Samek, Wojciech; Muller, Klaus-Robert</t>
         </is>
       </c>
-      <c r="H168" t="inlineStr">
+      <c r="H159" t="inlineStr">
         <is>
           <t>Pattern Recognition</t>
         </is>
       </c>
-      <c r="I168" t="inlineStr">
+      <c r="I159" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.patcog.2016.11.008</t>
         </is>
       </c>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr">
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr">
         <is>
           <t>211 - 222</t>
         </is>
       </c>
-      <c r="L168" t="inlineStr">
+      <c r="L159" t="inlineStr">
         <is>
           <t>@ARTICLE{Montavon2017211,
     author = "Montavon, Gregoire and Lapuschkin, Sebastian and Binder, Alexander and Samek, Wojciech and Muller, Klaus-Robert",
@@ -18047,282 +17562,282 @@
 }</t>
         </is>
       </c>
-      <c r="M168" t="inlineStr">
+      <c r="M159" t="inlineStr">
         <is>
           <t>Included</t>
         </is>
       </c>
-      <c r="N168" t="inlineStr">
+      <c r="N159" t="inlineStr">
         <is>
           <t>Included</t>
         </is>
       </c>
-      <c r="O168" t="inlineStr">
+      <c r="O159" t="inlineStr">
         <is>
           <t>snowballing</t>
         </is>
       </c>
-      <c r="P168" t="inlineStr"/>
-      <c r="Q168" t="inlineStr"/>
-      <c r="R168" t="n">
+      <c r="P159" t="inlineStr"/>
+      <c r="Q159" t="inlineStr"/>
+      <c r="R159" t="n">
         <v>1</v>
       </c>
-      <c r="S168" t="inlineStr">
+      <c r="S159" t="inlineStr">
         <is>
           <t>Scopus Signed In</t>
         </is>
       </c>
-      <c r="T168" t="n">
+      <c r="T159" t="n">
         <v>2017</v>
       </c>
-      <c r="U168" t="inlineStr">
+      <c r="U159" t="inlineStr">
         <is>
           <t>Explaining nonlinear classification decisions with deep Taylor decomposition</t>
         </is>
       </c>
-      <c r="V168" t="inlineStr">
+      <c r="V159" t="inlineStr">
         <is>
           <t>https://www.scopus.com/record/display.uri?eid=2-s2.0-85010676902&amp;origin=resultslist&amp;sort=plf-f&amp;src=s&amp;sid=4dfe3ab601c352d76ef0b4e8eb562071&amp;sot=b&amp;sdt=b&amp;s=TITLE-ABS-KEY%28explaining+nonlinear+classification+decisions+with+deep+taylor+decomposition%29&amp;sl=91&amp;sessionSearchId=4dfe3ab601c352d76ef0b4e8eb562071&amp;relpos=0</t>
         </is>
       </c>
-      <c r="W168" t="inlineStr">
+      <c r="W159" t="inlineStr">
         <is>
           <t>Elsevier Ltd</t>
         </is>
       </c>
-      <c r="X168" t="inlineStr">
+      <c r="X159" t="inlineStr">
         <is>
           <t>nan; References</t>
         </is>
       </c>
     </row>
-    <row r="169">
-      <c r="A169" s="1" t="n">
-        <v>167</v>
-      </c>
-      <c r="B169" t="inlineStr"/>
-      <c r="C169" t="inlineStr">
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="inlineStr"/>
+      <c r="C160" t="inlineStr">
         <is>
           <t>TestNN</t>
         </is>
       </c>
-      <c r="D169" t="inlineStr">
+      <c r="D160" t="inlineStr">
         <is>
           <t>Improving Interpretability of Deep Neural Networks with Semantic Information</t>
         </is>
       </c>
-      <c r="E169" t="inlineStr">
+      <c r="E160" t="inlineStr">
         <is>
           <t>Interpretability of deep neural networks (DNNs) is essential since it enables users to understand the overall strengths and weaknesses of the models, conveys an understanding of how the models will behave in the future, and how to diagnose and correct potential problems. However, it is challenging to reason about what a DNN actually does due to its opaque or black-box nature. To address this issue, we propose a novel technique to improve the interpretability of DNNs by leveraging the rich semantic information embedded in human descriptions. By concentrating on the video captioning task, we first extract a set of semantically meaningful topics from the human descriptions that cover a wide range of visual concepts, and integrate them into the model with an interpretive loss. We then propose a prediction difference maximization algorithm to interpret the learned features of each neuron. Experimental results demonstrate its effectiveness in video captioning using the interpretable features, which can also be transferred to video action recognition. By clearly understanding the learned features, users can easily revise false predictions via a human-in-the-loop procedure.</t>
         </is>
       </c>
-      <c r="F169" t="inlineStr">
+      <c r="F160" t="inlineStr">
         <is>
           <t>Semantics; Neurons; Feature extraction; Visualization; Decoding; Computational modeling; Deep Neural Network; Semantic Information; Tencent; Interpretation Of Networks; National Basic Research Program; Interpretability Of Neural Networks; Feature Learning; Action Recognition; Interpretation Of Features; Weak Model; Video Captioning; Video Action Recognition; Validation Set; Recurrent Neural Network; Attention Mechanism; Complex Architecture; Video Analysis; Learning Procedure; Topic Modeling; Textual Descriptions; Human Users; Latent Dirichlet Allocation; Polar Bears; Representative Subject; Video Features; Latent Topics; Task-specific Features; Bidirectional Long Short-term Memory; Video Content; CNN Features</t>
         </is>
       </c>
-      <c r="G169" t="inlineStr">
+      <c r="G160" t="inlineStr">
         <is>
           <t>Yinpeng Dong; Hang Su; Jun Zhu; Bo Zhang</t>
         </is>
       </c>
-      <c r="H169" t="inlineStr">
+      <c r="H160" t="inlineStr">
         <is>
           <t>2017 IEEE Conference on Computer Vision and Pattern Recognition (CVPR)</t>
         </is>
       </c>
-      <c r="I169" t="inlineStr">
+      <c r="I160" t="inlineStr">
         <is>
           <t>https://doi.org/10.1109/CVPR.2017.110</t>
         </is>
       </c>
-      <c r="J169" t="inlineStr">
+      <c r="J160" t="inlineStr">
         <is>
           <t>1.S.D. Ali, "The impact of deep learning on investments: Exploring the implications one at a time", Predictive Analytics and Futurism, vol. 13, pp. 49-50, 2016. Google Scholar; 2.N. Ballas, L. Yao, C. Pal and A. Courville, "Delving deeper into convolutional networks for learning video representations", ICLR, 2016. Google Scholar; 3.Y. Bengio, A. Courville and P. Vincent, "Representation learning: A review and new perspectives", IEEE transactions on pattern analysis and machine intelligence, vol. 35, no. 8, pp. 1798-1828, 2013. View Article  Google Scholar; 4.D.M. Blei, A.Y. Ng and M.I. Jordan, "Latent dirichlet allocation", Journal of machine Learning research, vol. 3, pp. 993-1022, Jan 2003. Google Scholar; 5.M. Bojarski, D. Del Testa, D. Dworakowski, B. Firner, B. Flepp, P. Goyal, L.D. Jackel, M. Monfort, U. Muller, J. Zhang et al., End to end learning for self-driving cars, 2016. Google Scholar; 6.J.L. Boyd-Graber, D.M. Blei and X. Zhu, "A topic model for word sense disambiguation", EMNLP-CoNLL, 2007. Google Scholar; 7.L. Cao and L. Fei-Fei, "Spatially coherent latent topic model for concurrent segmentation and classification of objects and scenes", ICCV, 2007. View Article  Google Scholar; 8.D.L. Chen and W.B. Dolan, "Collecting highly parallel data for paraphrase evaluation", ACL, 2011. Google Scholar; 9.J. Chen, K. Li, J. Zhu and W. Chen, "Warplda: a simple and efficient o (1) algorithm for latent dirichlet allocation", VLDB, 2016. CrossRef  Google Scholar; 10.J. Chung, C. Gulcehre, K. Cho and Y. Bengio, "Empirical evaluation of gated recurrent neural networks on sequence modeling", NIPS Workshop on Deep Learning, 2014. Google Scholar; 11.M. Denkowski and A. Lavie, "Meteor universal: Language specific translation evaluation for any target language", ACL Workshop on Statistical Machine Translation, 2014. CrossRef  Google Scholar; 12.D. Erhan, Y. Bengio, A. Courville and P. Vincent, Visualizing higher-layer features of a deep network, University of Montreal, pp. 1341, 2009. Google Scholar; 13.L. Fei-Fei and P. Perona, "A bayesian hierarchical model for learning natural scene categories", CVPR, 2005. View Article  Google Scholar; 14.R. Girshick, J. Donahue, T. Darrell and J. Malik, "Rich feature hierarchies for accurate object detection and semantic segmentation", CVPR, 2014. View Article  Google Scholar; 15."Guest editorial deep learning in medical imaging: Overview and future promise of an exciting new technique", IEEE Transactions on Medical Imaging, vol. 35, no. 5, pp. 1153-1159, 2016. View Article  Google Scholar; 16.B. Huval, T. Wang, S. Tandon, J. Kiske, W. Song, J. Pazhayampallil, M. Andriluka, P. Rajpurkar, T. Migimatsu, R. Cheng-Yue et al., An empirical evaluation of deep learning on highway driving, 2015. Google Scholar; 17.A. Karpathy, J. Johnson and L. Fei-Fei, "Visualizing and understanding recurrent networks", ICLR Workshop, 2016. Google Scholar; 18.A. Krizhevsky, I. Sutskever and G.E. Hinton, "Imagenet classification with deep convolutional neural networks", NIPS, 2012. Google Scholar; 19.Y. LeCun, Y. Bengio and G. Hinton, "Deep learning", Nature, vol. 521, no. 7553, pp. 436-444, 2015. CrossRef  Google Scholar; 20.A.-A. Liu, Y.-T. Su, W.-Z. Nie and M. Kankanhalli, "Hierarchical clustering multi-task learning for joint human action grouping and recognition", IEEE transactions on pattern analysis and machine intelligence, vol. 39, no. 1, pp. 102-114, 2017. View Article  Google Scholar; 21.A.-A. Liu, N. Xu, W.-Z. Nie, Y.-T. Su, Y. Wong and M. Kankanhalli, "Benchmarking a multimodal and multiview and interactive dataset for human action recognition", IEEE Transactions on Cybernetics, 2016. Google Scholar; 22.J. Liu, J. Luo and M. Shah, "Recognizing realistic actions from videos in the wild", CVPR, 2009. View Article  Google Scholar; 23.M. Liu, J. Shi, Z. Li, C. Li, J. Zhu and S. Liu, "Towards better analysis of deep convolutional neural networks", VAST, 2016. Google Scholar; 24.A. Nguyen, J. Yosinski and J. Clune, "Deep neural networks are easily fooled: High confidence predictions for unrecognizable images", CVPR, 2015. View Article  Google Scholar; 25.A. Nguyen, J. Yosinski and J. Clune, "Multifaceted feature visualization: Uncovering the different types of features learned by each neuron in deep neural networks", ICML Visualization Workshop, 2016. Google Scholar; 26.Y. Pan, T. Mei, T. Yao, H. Li and Y. Rui, "Jointly modeling embedding and translation to bridge video and language", CVPR, 2016. View Article  Google Scholar; 27.K. Papineni, S. Roukos, T. Ward and W.-J. Zhu, "Bleu: a method for automatic evaluation of machine translation", ACL, 2002. CrossRef  Google Scholar; 28.S. Ren, K. He, R. Girshick and J. Sun, "Faster r-cnn: Towards real-time object detection with region proposal networks", NIPS, 2015. Google Scholar; 29.M. Schuster and K.K. Paliwal, "Bidirectional recurrent neural networks", IEEE Transactions on Signal Processing, vol. 45, no. 11, pp. 2673-2681, 1997. View Article  Google Scholar; 30.C. Szegedy, W. Liu, Y. Jia, P. Sermanet, S. Reed, D. Anguelov, et al., "Going deeper with convolutions", CVPR, 2015. View Article  Google Scholar</t>
         </is>
       </c>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
-      <c r="M169" t="inlineStr">
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="inlineStr"/>
+      <c r="M160" t="inlineStr">
         <is>
           <t>Included</t>
         </is>
       </c>
-      <c r="N169" t="inlineStr">
+      <c r="N160" t="inlineStr">
         <is>
           <t>Included</t>
         </is>
       </c>
-      <c r="O169" t="inlineStr">
+      <c r="O160" t="inlineStr">
         <is>
           <t>snowballing</t>
         </is>
       </c>
-      <c r="P169" t="inlineStr"/>
-      <c r="Q169" t="inlineStr"/>
-      <c r="R169" t="n">
+      <c r="P160" t="inlineStr"/>
+      <c r="Q160" t="inlineStr"/>
+      <c r="R160" t="n">
         <v>1</v>
       </c>
-      <c r="S169" t="inlineStr">
+      <c r="S160" t="inlineStr">
         <is>
           <t>IEEE</t>
         </is>
       </c>
-      <c r="T169" t="n">
+      <c r="T160" t="n">
         <v>2017</v>
       </c>
-      <c r="U169" t="inlineStr">
+      <c r="U160" t="inlineStr">
         <is>
           <t>Improving interpretability of deep neural networks with semantic information</t>
         </is>
       </c>
-      <c r="V169" t="inlineStr">
+      <c r="V160" t="inlineStr">
         <is>
           <t>https://doi.org/10.1109/CVPR.2017.110</t>
         </is>
       </c>
-      <c r="W169" t="inlineStr">
+      <c r="W160" t="inlineStr">
         <is>
           <t>IEEE</t>
         </is>
       </c>
-      <c r="X169" t="inlineStr">
+      <c r="X160" t="inlineStr">
         <is>
           <t>nan; Pages; Year; Bibtex; Link</t>
         </is>
       </c>
     </row>
-    <row r="170">
-      <c r="A170" s="1" t="n">
-        <v>168</v>
-      </c>
-      <c r="B170" t="inlineStr"/>
-      <c r="C170" t="inlineStr">
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="inlineStr"/>
+      <c r="C161" t="inlineStr">
         <is>
           <t>TestNN</t>
         </is>
       </c>
-      <c r="D170" t="inlineStr">
+      <c r="D161" t="inlineStr">
         <is>
           <t>Interpretability via Model Extraction</t>
         </is>
       </c>
-      <c r="E170" t="inlineStr">
+      <c r="E161" t="inlineStr">
         <is>
           <t>Abstract:The ability to interpret machine learning models has become increasingly important now that machine learning is used to inform consequential decisions. We propose an approach called model extraction for interpreting complex, blackbox models. Our approach approximates the complex model using a much more interpretable model; as long as the approximation quality is good, then statistical properties of the complex model are reflected in the interpretable model. We show how model extraction can be used to understand and debug random forests and neural nets trained on several datasets from the UCI Machine Learning Repository, as well as control policies learned for several classical reinforcement learning problems.</t>
         </is>
       </c>
-      <c r="F170" t="inlineStr"/>
-      <c r="G170" t="inlineStr">
+      <c r="F161" t="inlineStr"/>
+      <c r="G161" t="inlineStr">
         <is>
           <t>Osbert Bastani; Carolyn Kim; Hamsa Bastani</t>
         </is>
       </c>
-      <c r="H170" t="inlineStr">
+      <c r="H161" t="inlineStr">
         <is>
           <t>arXiv</t>
         </is>
       </c>
-      <c r="I170" t="inlineStr">
+      <c r="I161" t="inlineStr">
         <is>
           <t>https://doi.org/10.48550/arXiv.1706.09773</t>
         </is>
       </c>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
-      <c r="M170" t="inlineStr">
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="inlineStr"/>
+      <c r="M161" t="inlineStr">
         <is>
           <t>Included</t>
         </is>
       </c>
-      <c r="N170" t="inlineStr">
+      <c r="N161" t="inlineStr">
         <is>
           <t>Included</t>
         </is>
       </c>
-      <c r="O170" t="inlineStr">
+      <c r="O161" t="inlineStr">
         <is>
           <t>snowballing</t>
         </is>
       </c>
-      <c r="P170" t="inlineStr"/>
-      <c r="Q170" t="inlineStr"/>
-      <c r="R170" t="n">
+      <c r="P161" t="inlineStr"/>
+      <c r="Q161" t="inlineStr"/>
+      <c r="R161" t="n">
         <v>1</v>
       </c>
-      <c r="S170" t="inlineStr">
+      <c r="S161" t="inlineStr">
         <is>
           <t>arXiv</t>
         </is>
       </c>
-      <c r="T170" t="n">
+      <c r="T161" t="n">
         <v>2017</v>
       </c>
-      <c r="U170" t="inlineStr">
+      <c r="U161" t="inlineStr">
         <is>
           <t>Interpretability via model extraction</t>
         </is>
       </c>
-      <c r="V170" t="inlineStr">
+      <c r="V161" t="inlineStr">
         <is>
           <t>https://doi.org/10.48550/arXiv.1706.09773</t>
         </is>
       </c>
-      <c r="W170" t="inlineStr"/>
-      <c r="X170" t="inlineStr">
+      <c r="W161" t="inlineStr"/>
+      <c r="X161" t="inlineStr">
         <is>
           <t>nan; Keywords; References; Pages; Year; Bibtex; Link; Publisher</t>
         </is>
       </c>
     </row>
-    <row r="171">
-      <c r="A171" s="1" t="n">
-        <v>169</v>
-      </c>
-      <c r="B171" t="inlineStr"/>
-      <c r="C171" t="inlineStr">
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="inlineStr"/>
+      <c r="C162" t="inlineStr">
         <is>
           <t>TestNN</t>
         </is>
       </c>
-      <c r="D171" t="inlineStr">
+      <c r="D162" t="inlineStr">
         <is>
           <t>Interpretable Explanations of Black Boxes by Meaningful Perturbation</t>
         </is>
       </c>
-      <c r="E171" t="inlineStr">
+      <c r="E162" t="inlineStr">
         <is>
           <t>As machine learning algorithms are increasingly applied to high impact yet high risk tasks, such as medical diagnosis or autonomous driving, it is critical that researchers can explain how such algorithms arrived at their predictions. In recent years, a number of image saliency methods have been developed to summarize where highly complex neural networks "look" in an image for evidence for their predictions. However, these techniques are limited by their heuristic nature and architectural constraints. In this paper, we make two main contributions: First, we propose a general framework for learning different kinds of explanations for any black box algorithm. Second, we specialise the framework to find the part of an image most responsible for a classifier decision. Unlike previous works, our method is model-agnostic and testable because it is grounded in explicit and interpretable image perturbations.</t>
         </is>
       </c>
-      <c r="F171" t="inlineStr">
+      <c r="F162" t="inlineStr">
         <is>
           <t>Perturbation methods;Neural networks;Visualization;Machine learning algorithms;Prediction algorithms;Backpropagation;Gradient methods</t>
         </is>
       </c>
-      <c r="G171" t="inlineStr">
+      <c r="G162" t="inlineStr">
         <is>
           <t>Fong, Ruth C.; Vedaldi, Andrea</t>
         </is>
       </c>
-      <c r="H171" t="inlineStr">
+      <c r="H162" t="inlineStr">
         <is>
           <t>2017 IEEE International Conference on Computer Vision (ICCV)</t>
         </is>
       </c>
-      <c r="I171" t="inlineStr">
+      <c r="I162" t="inlineStr">
         <is>
           <t>https://doi.org/10.1109/ICCV.2017.371</t>
         </is>
       </c>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr">
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr">
         <is>
           <t>3449-3457</t>
         </is>
       </c>
-      <c r="L171" t="inlineStr">
+      <c r="L162" t="inlineStr">
         <is>
           <t>@INPROCEEDINGS{8237633,
     author = "Fong, Ruth C. and Vedaldi, Andrea",
@@ -18340,102 +17855,102 @@
 }</t>
         </is>
       </c>
-      <c r="M171" t="inlineStr">
+      <c r="M162" t="inlineStr">
         <is>
           <t>Included</t>
         </is>
       </c>
-      <c r="N171" t="inlineStr">
+      <c r="N162" t="inlineStr">
         <is>
           <t>Included</t>
         </is>
       </c>
-      <c r="O171" t="inlineStr">
+      <c r="O162" t="inlineStr">
         <is>
           <t>snowballing</t>
         </is>
       </c>
-      <c r="P171" t="inlineStr"/>
-      <c r="Q171" t="inlineStr"/>
-      <c r="R171" t="n">
+      <c r="P162" t="inlineStr"/>
+      <c r="Q162" t="inlineStr"/>
+      <c r="R162" t="n">
         <v>1</v>
       </c>
-      <c r="S171" t="inlineStr">
+      <c r="S162" t="inlineStr">
         <is>
           <t>Scopus Signed In</t>
         </is>
       </c>
-      <c r="T171" t="n">
+      <c r="T162" t="n">
         <v>2017</v>
       </c>
-      <c r="U171" t="inlineStr">
+      <c r="U162" t="inlineStr">
         <is>
           <t>Interpretable explanations of black boxes by meaningful perturbation</t>
         </is>
       </c>
-      <c r="V171" t="inlineStr">
+      <c r="V162" t="inlineStr">
         <is>
           <t>https://ieeexplore.ieee.org/document/8237633</t>
         </is>
       </c>
-      <c r="W171" t="inlineStr">
+      <c r="W162" t="inlineStr">
         <is>
           <t>IEEE</t>
         </is>
       </c>
-      <c r="X171" t="inlineStr">
+      <c r="X162" t="inlineStr">
         <is>
           <t>nan; References</t>
         </is>
       </c>
     </row>
-    <row r="172">
-      <c r="A172" s="1" t="n">
-        <v>170</v>
-      </c>
-      <c r="B172" t="inlineStr"/>
-      <c r="C172" t="inlineStr">
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="inlineStr"/>
+      <c r="C163" t="inlineStr">
         <is>
           <t>TestNN</t>
         </is>
       </c>
-      <c r="D172" t="inlineStr">
+      <c r="D163" t="inlineStr">
         <is>
           <t>Real time image saliency for black box classifiers</t>
         </is>
       </c>
-      <c r="E172" t="inlineStr">
+      <c r="E163" t="inlineStr">
         <is>
           <t>In this work we develop a fast saliency detection method that can be applied to any differentiable image classifier. We train a masking model to manipulate the scores of the classifier by masking salient parts of the input image. Our model generalises well to unseen images and requires a single forward pass to perform saliency detection, therefore suitable for use in real-time systems. We test our approach on CIFAR-10 and ImageNet datasets and show that the produced saliency maps are easily interpretable, sharp, and free of artifacts. We suggest a new metric for saliency and test our method on the ImageNet object localisation task. We achieve results outperforming other weakly supervised methods.</t>
         </is>
       </c>
-      <c r="F172" t="inlineStr">
+      <c r="F163" t="inlineStr">
         <is>
           <t>Image classification; Image segmentation; Interactive computer systems; Black boxes; Image Classifiers; Localisation; Masking models; Real time images; Saliency detection; Saliency map; Supervised methods; Real time systems</t>
         </is>
       </c>
-      <c r="G172" t="inlineStr">
+      <c r="G163" t="inlineStr">
         <is>
           <t>Dabkowski, Piotr; Gal, Yarin</t>
         </is>
       </c>
-      <c r="H172" t="inlineStr">
+      <c r="H163" t="inlineStr">
         <is>
           <t>Advances in Neural Information Processing Systems</t>
         </is>
       </c>
-      <c r="I172" t="inlineStr">
+      <c r="I163" t="inlineStr">
         <is>
           <t>https://www.scopus.com/record/display.uri?eid=2-s2.0-85047021939&amp;origin=resultslist&amp;sort=plf-f&amp;src=s&amp;sid=9177e9b47c3c22efd3cad2fe3ac91c88&amp;sot=b&amp;sdt=b&amp;s=TITLE-ABS-KEY%28real+time+image+saliency+for+black+box+classifiers%29&amp;sl=65&amp;sessionSearchId=9177e9b47c3c22efd3cad2fe3ac91c88&amp;relpos=0</t>
         </is>
       </c>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr">
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr">
         <is>
           <t>6968 - 6977</t>
         </is>
       </c>
-      <c r="L172" t="inlineStr">
+      <c r="L163" t="inlineStr">
         <is>
           <t>@CONFERENCE{Dabkowski20176968,
     author = "Dabkowski, Piotr and Gal, Yarin",
@@ -18460,470 +17975,470 @@
 }</t>
         </is>
       </c>
-      <c r="M172" t="inlineStr">
+      <c r="M163" t="inlineStr">
         <is>
           <t>Included</t>
         </is>
       </c>
-      <c r="N172" t="inlineStr">
+      <c r="N163" t="inlineStr">
         <is>
           <t>Included</t>
         </is>
       </c>
-      <c r="O172" t="inlineStr">
+      <c r="O163" t="inlineStr">
         <is>
           <t>snowballing</t>
         </is>
       </c>
-      <c r="P172" t="inlineStr"/>
-      <c r="Q172" t="inlineStr"/>
-      <c r="R172" t="n">
+      <c r="P163" t="inlineStr"/>
+      <c r="Q163" t="inlineStr"/>
+      <c r="R163" t="n">
         <v>1</v>
       </c>
-      <c r="S172" t="inlineStr">
+      <c r="S163" t="inlineStr">
         <is>
           <t>Scopus Signed In</t>
         </is>
       </c>
-      <c r="T172" t="n">
+      <c r="T163" t="n">
         <v>2017</v>
       </c>
-      <c r="U172" t="inlineStr">
+      <c r="U163" t="inlineStr">
         <is>
           <t>Real time image saliency for black box classifiers</t>
         </is>
       </c>
-      <c r="V172" t="inlineStr">
+      <c r="V163" t="inlineStr">
         <is>
           <t>https://www.scopus.com/record/display.uri?eid=2-s2.0-85047021939&amp;origin=resultslist&amp;sort=plf-f&amp;src=s&amp;sid=9177e9b47c3c22efd3cad2fe3ac91c88&amp;sot=b&amp;sdt=b&amp;s=TITLE-ABS-KEY%28real+time+image+saliency+for+black+box+classifiers%29&amp;sl=65&amp;sessionSearchId=9177e9b47c3c22efd3cad2fe3ac91c88&amp;relpos=0</t>
         </is>
       </c>
-      <c r="W172" t="inlineStr">
+      <c r="W163" t="inlineStr">
         <is>
           <t>Neural information processing systems foundation</t>
         </is>
       </c>
-      <c r="X172" t="inlineStr">
+      <c r="X163" t="inlineStr">
         <is>
           <t>nan; References</t>
         </is>
       </c>
     </row>
-    <row r="173">
-      <c r="A173" s="1" t="n">
-        <v>171</v>
-      </c>
-      <c r="B173" t="inlineStr"/>
-      <c r="C173" t="inlineStr">
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="inlineStr"/>
+      <c r="C164" t="inlineStr">
         <is>
           <t>TestNN</t>
         </is>
       </c>
-      <c r="D173" t="inlineStr">
+      <c r="D164" t="inlineStr">
         <is>
           <t>Right for the right reasons:training differentiable models by constraining their explanations</t>
         </is>
       </c>
-      <c r="E173" t="inlineStr">
+      <c r="E164" t="inlineStr">
         <is>
           <t>Neural networks are among the most accurate supervised learning methods in use today. However, their opacity makes them difficult to trust in critical applications, especially if conditions in training may differ from those in test. Recent work on explanations for black-box models has produced tools (e.g. LIME) to show the implicit rules behind predictions. These tools can help us identify when models are right for the wrong reasons. However, these methods do not scale to explaining entire datasets and cannot correct the problems they reveal. We introduce a method for efficiently explaining and regularizing differentiable models by examining and selectively penalizing their input gradients. We apply these penalties both based on expert annotation and in an unsupervised fashion that produces multiple classifiers with qualitatively different decision boundaries. On multiple datasets, we show our approach generates faithful explanations and models that generalize much better when conditions differ between training and test.</t>
         </is>
       </c>
-      <c r="F173" t="inlineStr"/>
-      <c r="G173" t="inlineStr">
+      <c r="F164" t="inlineStr"/>
+      <c r="G164" t="inlineStr">
         <is>
           <t>Andrew Slavin Ross; Michael C. Hughes; Finale Doshi-Velez</t>
         </is>
       </c>
-      <c r="H173" t="inlineStr">
+      <c r="H164" t="inlineStr">
         <is>
           <t>IJCAI'17: Proceedings of the 26th International Joint Conference on Artificial Intelligence</t>
         </is>
       </c>
-      <c r="I173" t="inlineStr">
+      <c r="I164" t="inlineStr">
         <is>
           <t>https://doi.org/10.5555/3172077.3172259</t>
         </is>
       </c>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr">
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr">
         <is>
           <t>2662-2670</t>
         </is>
       </c>
-      <c r="L173" t="inlineStr"/>
-      <c r="M173" t="inlineStr">
+      <c r="L164" t="inlineStr"/>
+      <c r="M164" t="inlineStr">
         <is>
           <t>Included</t>
         </is>
       </c>
-      <c r="N173" t="inlineStr">
+      <c r="N164" t="inlineStr">
         <is>
           <t>Included</t>
         </is>
       </c>
-      <c r="O173" t="inlineStr">
+      <c r="O164" t="inlineStr">
         <is>
           <t>snowballing</t>
         </is>
       </c>
-      <c r="P173" t="inlineStr"/>
-      <c r="Q173" t="inlineStr"/>
-      <c r="R173" t="n">
+      <c r="P164" t="inlineStr"/>
+      <c r="Q164" t="inlineStr"/>
+      <c r="R164" t="n">
         <v>1</v>
       </c>
-      <c r="S173" t="inlineStr">
+      <c r="S164" t="inlineStr">
         <is>
           <t>ACM</t>
         </is>
       </c>
-      <c r="T173" t="n">
+      <c r="T164" t="n">
         <v>2017</v>
       </c>
-      <c r="U173" t="inlineStr">
+      <c r="U164" t="inlineStr">
         <is>
           <t>Right for the right reasons: Training differentiable models by constraining their explanations</t>
         </is>
       </c>
-      <c r="V173" t="inlineStr">
+      <c r="V164" t="inlineStr">
         <is>
           <t>https://doi.org/10.5555/3172077.3172259</t>
         </is>
       </c>
-      <c r="W173" t="inlineStr">
+      <c r="W164" t="inlineStr">
         <is>
           <t>AAAI Press</t>
         </is>
       </c>
-      <c r="X173" t="inlineStr">
+      <c r="X164" t="inlineStr">
         <is>
           <t>nan; Keywords; References; Year; Bibtex; Link</t>
         </is>
       </c>
     </row>
-    <row r="174">
-      <c r="A174" s="1" t="n">
-        <v>172</v>
-      </c>
-      <c r="B174" t="inlineStr"/>
-      <c r="C174" t="inlineStr">
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="inlineStr"/>
+      <c r="C165" t="inlineStr">
         <is>
           <t>TestNN</t>
         </is>
       </c>
-      <c r="D174" t="inlineStr">
+      <c r="D165" t="inlineStr">
         <is>
           <t>A simple neural network module for relational reasoning</t>
         </is>
       </c>
-      <c r="E174" t="inlineStr">
+      <c r="E165" t="inlineStr">
         <is>
           <t>Relational reasoning is a central component of generally intelligent behavior, but has proven difficult for neural networks to learn. In this paper we describe how to use Relation Networks (RNs) as a simple plug-and-play module to solve problems that fundamentally hinge on relational reasoning. We tested RN-augmented networks on three tasks: visual question answering using a challenging dataset called CLEVR, on which we achieve state-of-the-art, super-human performance; text-based question answering using the bAbI suite of tasks; and complex reasoning about dynamic physical systems. Then, using a curated dataset called Sort-of-CLEVR we show that powerful convolutional networks do not have a general capacity to solve relational questions, but can gain this capacity when augmented with RNs. Thus, by simply augmenting convolutions, LSTMs, and MLPs with RNs, we can remove computational burden from network components that are not well-suited to handle relational reasoning, reduce overall network complexity, and gain a general ability to reason about the relations between entities and their properties.</t>
         </is>
       </c>
-      <c r="F174" t="inlineStr"/>
-      <c r="G174" t="inlineStr">
+      <c r="F165" t="inlineStr"/>
+      <c r="G165" t="inlineStr">
         <is>
           <t>Adam Santoro; David Raposo; David G.T. Barrett; Mateusz Malinowski; Razvan Pascanu; Peter Battaglia; Timothy Lillicrap</t>
         </is>
       </c>
-      <c r="H174" t="inlineStr">
+      <c r="H165" t="inlineStr">
         <is>
           <t>NIPS'17: Proceedings of the 31st International Conference on Neural Information Processing Systems</t>
         </is>
       </c>
-      <c r="I174" t="inlineStr">
+      <c r="I165" t="inlineStr">
         <is>
           <t>https://doi.org/10.5555/3295222.3295250</t>
         </is>
       </c>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr">
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr">
         <is>
           <t>4974-4983</t>
         </is>
       </c>
-      <c r="L174" t="inlineStr"/>
-      <c r="M174" t="inlineStr">
+      <c r="L165" t="inlineStr"/>
+      <c r="M165" t="inlineStr">
         <is>
           <t>Included</t>
         </is>
       </c>
-      <c r="N174" t="inlineStr">
+      <c r="N165" t="inlineStr">
         <is>
           <t>Included</t>
         </is>
       </c>
-      <c r="O174" t="inlineStr">
+      <c r="O165" t="inlineStr">
         <is>
           <t>snowballing</t>
         </is>
       </c>
-      <c r="P174" t="inlineStr"/>
-      <c r="Q174" t="inlineStr"/>
-      <c r="R174" t="n">
+      <c r="P165" t="inlineStr"/>
+      <c r="Q165" t="inlineStr"/>
+      <c r="R165" t="n">
         <v>1</v>
       </c>
-      <c r="S174" t="inlineStr">
+      <c r="S165" t="inlineStr">
         <is>
           <t>ACM</t>
         </is>
       </c>
-      <c r="T174" t="n">
+      <c r="T165" t="n">
         <v>2017</v>
       </c>
-      <c r="U174" t="inlineStr">
+      <c r="U165" t="inlineStr">
         <is>
           <t>A simple neural network module for relational reasoning</t>
         </is>
       </c>
-      <c r="V174" t="inlineStr">
+      <c r="V165" t="inlineStr">
         <is>
           <t>https://doi.org/10.5555/3295222.3295250</t>
         </is>
       </c>
-      <c r="W174" t="inlineStr">
+      <c r="W165" t="inlineStr">
         <is>
           <t>Curran Associates Inc</t>
         </is>
       </c>
-      <c r="X174" t="inlineStr">
+      <c r="X165" t="inlineStr">
         <is>
           <t>nan; Keywords; References; Year; Bibtex; Link</t>
         </is>
       </c>
     </row>
-    <row r="175">
-      <c r="A175" s="1" t="n">
-        <v>173</v>
-      </c>
-      <c r="B175" t="inlineStr"/>
-      <c r="C175" t="inlineStr">
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="inlineStr"/>
+      <c r="C166" t="inlineStr">
         <is>
           <t>TestNN</t>
         </is>
       </c>
-      <c r="D175" t="inlineStr">
+      <c r="D166" t="inlineStr">
         <is>
           <t>A unified approach to interpreting model predictions</t>
         </is>
       </c>
-      <c r="E175" t="inlineStr">
+      <c r="E166" t="inlineStr">
         <is>
           <t>Understanding why a model makes a certain prediction can be as crucial as the prediction's accuracy in many applications. However, the highest accuracy for large modern datasets is often achieved by complex models that even experts struggle to interpret, such as ensemble or deep learning models, creating a tension betweenaccuracyandinterpretability. In response, various methods have recently been proposed to help users interpret the predictions of complex models, but it is often unclear how these methods are related and when one method is preferable over another. To address this problem, we present a unified framework for interpreting predictions, SHAP (SHapley Additive exPlanations). SHAP assigns each feature an importance value for a particular prediction. Its novel components include: (1) the identification of a new class of additive feature importance measures, and (2) theoretical results showing there is a unique solution in this class with a set of desirable properties. The new class unifies six existing methods, notable because several recent methods in the class lack the proposed desirable properties. Based on insights from this unification, we present new methods that show improved computational performance and/or better consistency with human intuition than previous approaches.</t>
         </is>
       </c>
-      <c r="F175" t="inlineStr"/>
-      <c r="G175" t="inlineStr">
+      <c r="F166" t="inlineStr"/>
+      <c r="G166" t="inlineStr">
         <is>
           <t>Scott M. Lundberg; Su-In Lee</t>
         </is>
       </c>
-      <c r="H175" t="inlineStr">
+      <c r="H166" t="inlineStr">
         <is>
           <t>NIPS'17: Proceedings of the 31st International Conference on Neural Information Processing Systems</t>
         </is>
       </c>
-      <c r="I175" t="inlineStr">
+      <c r="I166" t="inlineStr">
         <is>
           <t>https://doi.org/10.5555/3295222.3295230</t>
         </is>
       </c>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr">
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr">
         <is>
           <t>4768-4777</t>
         </is>
       </c>
-      <c r="L175" t="inlineStr"/>
-      <c r="M175" t="inlineStr">
+      <c r="L166" t="inlineStr"/>
+      <c r="M166" t="inlineStr">
         <is>
           <t>Included</t>
         </is>
       </c>
-      <c r="N175" t="inlineStr">
+      <c r="N166" t="inlineStr">
         <is>
           <t>Included</t>
         </is>
       </c>
-      <c r="O175" t="inlineStr">
+      <c r="O166" t="inlineStr">
         <is>
           <t>snowballing</t>
         </is>
       </c>
-      <c r="P175" t="inlineStr"/>
-      <c r="Q175" t="inlineStr"/>
-      <c r="R175" t="n">
+      <c r="P166" t="inlineStr"/>
+      <c r="Q166" t="inlineStr"/>
+      <c r="R166" t="n">
         <v>1</v>
       </c>
-      <c r="S175" t="inlineStr">
+      <c r="S166" t="inlineStr">
         <is>
           <t>ACM</t>
         </is>
       </c>
-      <c r="T175" t="n">
+      <c r="T166" t="n">
         <v>2017</v>
       </c>
-      <c r="U175" t="inlineStr">
+      <c r="U166" t="inlineStr">
         <is>
           <t>A unified approach to interpreting model predictions</t>
         </is>
       </c>
-      <c r="V175" t="inlineStr">
+      <c r="V166" t="inlineStr">
         <is>
           <t>https://doi.org/10.5555/3295222.3295230</t>
         </is>
       </c>
-      <c r="W175" t="inlineStr">
+      <c r="W166" t="inlineStr">
         <is>
           <t>Curran Associates Inc</t>
         </is>
       </c>
-      <c r="X175" t="inlineStr">
+      <c r="X166" t="inlineStr">
         <is>
           <t>nan; Keywords; References; Year; Bibtex; Link</t>
         </is>
       </c>
     </row>
-    <row r="176">
-      <c r="A176" s="1" t="n">
-        <v>174</v>
-      </c>
-      <c r="B176" t="inlineStr"/>
-      <c r="C176" t="inlineStr">
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="inlineStr"/>
+      <c r="C167" t="inlineStr">
         <is>
           <t>TestNN</t>
         </is>
       </c>
-      <c r="D176" t="inlineStr">
+      <c r="D167" t="inlineStr">
         <is>
           <t>Verification of Binarized Neural Networks via Inter-neuron Factoring</t>
         </is>
       </c>
-      <c r="E176" t="inlineStr">
+      <c r="E167" t="inlineStr">
         <is>
           <t>Binarized Neural Networks (BNN) have recently been proposed as an energy-efficient alternative to more traditional learning networks. Here we study the problem of formally verifying BNNs by reducing it to a corresponding hardware verification problem. The main step in this reduction is based on factoring computations among neurons within a hidden layer of the BNN in order to make the BNN verification problem more scalable in practice. The main contributions of this paper include results on the NP-hardness and hardness of PTAS approximability of this essential optimization and factoring step, and we design polynomial-time search heuristics for generating approximate factoring solutions. With these techniques we are able to scale the verification problem to moderately-sized BNNs for embedded devices with thousands of neurons and inputs.</t>
         </is>
       </c>
-      <c r="F176" t="inlineStr"/>
-      <c r="G176" t="inlineStr">
+      <c r="F167" t="inlineStr"/>
+      <c r="G167" t="inlineStr">
         <is>
           <t>Chih-Hong Cheng; Georg Nuhrenberg; Chung-Hao Huang; Harald Ruess</t>
         </is>
       </c>
-      <c r="H176" t="inlineStr">
+      <c r="H167" t="inlineStr">
         <is>
           <t>Working Conference on Verified Software: Theories, Tools, and Experiments</t>
         </is>
       </c>
-      <c r="I176" t="inlineStr">
+      <c r="I167" t="inlineStr">
         <is>
           <t>https://doi.org/10.1007/978-3-030-03592-1_16</t>
         </is>
       </c>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr">
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr">
         <is>
           <t>pp 279-290</t>
         </is>
       </c>
-      <c r="L176" t="inlineStr"/>
-      <c r="M176" t="inlineStr">
+      <c r="L167" t="inlineStr"/>
+      <c r="M167" t="inlineStr">
         <is>
           <t>Included</t>
         </is>
       </c>
-      <c r="N176" t="inlineStr">
+      <c r="N167" t="inlineStr">
         <is>
           <t>Included</t>
         </is>
       </c>
-      <c r="O176" t="inlineStr">
+      <c r="O167" t="inlineStr">
         <is>
           <t>snowballing</t>
         </is>
       </c>
-      <c r="P176" t="inlineStr"/>
-      <c r="Q176" t="inlineStr"/>
-      <c r="R176" t="n">
+      <c r="P167" t="inlineStr"/>
+      <c r="Q167" t="inlineStr"/>
+      <c r="R167" t="n">
         <v>1</v>
       </c>
-      <c r="S176" t="inlineStr">
-        <is>
-          <t>SpringerLink</t>
-        </is>
-      </c>
-      <c r="T176" t="n">
+      <c r="S167" t="inlineStr">
+        <is>
+          <t>Springer Link</t>
+        </is>
+      </c>
+      <c r="T167" t="n">
         <v>2018</v>
       </c>
-      <c r="U176" t="inlineStr">
+      <c r="U167" t="inlineStr">
         <is>
           <t>Verification of binarized neural networks</t>
         </is>
       </c>
-      <c r="V176" t="inlineStr">
+      <c r="V167" t="inlineStr">
         <is>
           <t>https://doi.org/10.1007/978-3-030-03592-1_16</t>
         </is>
       </c>
-      <c r="W176" t="inlineStr">
+      <c r="W167" t="inlineStr">
         <is>
           <t>Springer, Cham</t>
         </is>
       </c>
-      <c r="X176" t="inlineStr">
+      <c r="X167" t="inlineStr">
         <is>
           <t>nan; Keywords; References; Year; Bibtex; Link</t>
         </is>
       </c>
     </row>
-    <row r="177">
-      <c r="A177" s="1" t="n">
-        <v>175</v>
-      </c>
-      <c r="B177" t="inlineStr"/>
-      <c r="C177" t="inlineStr">
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="inlineStr"/>
+      <c r="C168" t="inlineStr">
         <is>
           <t>TestNN</t>
         </is>
       </c>
-      <c r="D177" t="inlineStr">
+      <c r="D168" t="inlineStr">
         <is>
           <t>Poster abstract: Safety analysis for UAV networks</t>
         </is>
       </c>
-      <c r="E177" t="inlineStr">
+      <c r="E168" t="inlineStr">
         <is>
           <t>The recent trend of collaborative operations of a network of Unmanned Aerial Vehicles (UAVs) to achieve a common objective has attracted the researchers, as well as commercial vendors. It has revolutionized the means of data collection to maximize mission performances. However, the collaborative UAVs need to be safe from cyberattacks to prevent catastrophe. They need to be able to collaborate with each other to avoid potential failure of a mission. As these smart devices are always targets of adversaries, they need to maintain safe communication with each other while avoiding fuel outage and mid-air collisions, as well as reducing the possibilities of being hacked. In this work, we present the idea of a formal verification tool that takes different UAV parameters, safety requirements, and resource constraints as input and verifies the network's safety.</t>
         </is>
       </c>
-      <c r="F177" t="inlineStr">
+      <c r="F168" t="inlineStr">
         <is>
           <t>Aircraft accidents; Antennas; Commercial vehicle operations; Commercial vehicles; Deep learning; Disaster prevention; Image processing; Internet of things; Collaborative operations; Formal verification tools; Mid-air collisions; Mission performance; Potential failures; Resource Constraint; Safe communications; Safety requirements; Unmanned aerial vehicles (UAV)</t>
         </is>
       </c>
-      <c r="G177" t="inlineStr">
+      <c r="G168" t="inlineStr">
         <is>
           <t>Jakaria, A.H.M.; Rahman, Mohammad Ashiqur</t>
         </is>
       </c>
-      <c r="H177" t="inlineStr">
+      <c r="H168" t="inlineStr">
         <is>
           <t>Proceedings - ACM/IEEE International Conference on Internet of Things Design and Implementation, IoTDI 2018</t>
         </is>
       </c>
-      <c r="I177" t="inlineStr">
+      <c r="I168" t="inlineStr">
         <is>
           <t>https://doi.org/10.1109/IoTDI.2018.00046</t>
         </is>
       </c>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr">
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr">
         <is>
           <t>294 - 295</t>
         </is>
       </c>
-      <c r="L177" t="inlineStr">
+      <c r="L168" t="inlineStr">
         <is>
           <t>@CONFERENCE{Jakaria2018294,
     author = "Jakaria, A.H.M. and Rahman, Mohammad Ashiqur",
@@ -18948,586 +18463,674 @@
 }</t>
         </is>
       </c>
-      <c r="M177" t="inlineStr">
+      <c r="M168" t="inlineStr">
         <is>
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N177" t="inlineStr">
+      <c r="N168" t="inlineStr">
         <is>
           <t>Excluded</t>
         </is>
       </c>
-      <c r="O177" t="inlineStr">
+      <c r="O168" t="inlineStr">
         <is>
           <t>snowballing</t>
         </is>
       </c>
-      <c r="P177" t="inlineStr"/>
-      <c r="Q177" t="inlineStr">
+      <c r="P168" t="inlineStr"/>
+      <c r="Q168" t="inlineStr">
         <is>
           <t>Exclusion: full-text is not available</t>
         </is>
       </c>
-      <c r="R177" t="n">
+      <c r="R168" t="n">
         <v>1</v>
       </c>
-      <c r="S177" t="inlineStr">
+      <c r="S168" t="inlineStr">
         <is>
           <t>Scopus Signed In</t>
         </is>
       </c>
-      <c r="T177" t="n">
+      <c r="T168" t="n">
         <v>2018</v>
       </c>
-      <c r="U177" t="inlineStr">
+      <c r="U168" t="inlineStr">
         <is>
           <t>Poster abstract: Safety analysis for UAV networks</t>
         </is>
       </c>
-      <c r="V177" t="inlineStr">
+      <c r="V168" t="inlineStr">
         <is>
           <t>https://ieeexplore.ieee.org/document/8367007</t>
         </is>
       </c>
-      <c r="W177" t="inlineStr">
+      <c r="W168" t="inlineStr">
         <is>
           <t>Institute of Electrical and Electronics Engineers Inc</t>
         </is>
       </c>
-      <c r="X177" t="inlineStr">
+      <c r="X168" t="inlineStr">
         <is>
           <t>nan; References</t>
         </is>
       </c>
     </row>
-    <row r="178">
-      <c r="A178" s="1" t="n">
-        <v>176</v>
-      </c>
-      <c r="B178" t="inlineStr"/>
-      <c r="C178" t="inlineStr">
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="inlineStr"/>
+      <c r="C169" t="inlineStr">
         <is>
           <t>TestNN</t>
         </is>
       </c>
-      <c r="D178" t="inlineStr">
+      <c r="D169" t="inlineStr">
         <is>
           <t>A game-based approximate verification of deep neural networks with provable guarantees</t>
         </is>
       </c>
-      <c r="E178" t="inlineStr">
+      <c r="E169" t="inlineStr">
         <is>
           <t>AbstractDespite the improved accuracy of deep neural networks, the discovery of adversarial examples has raised serious safety concerns. In this paper, we study two variants of pointwise robustness, themaximum safe radiusproblem, which for a given input sample computes the minimum distance to an adversarial example, and thefeature robustnessproblem, which aims to quantify the robustness of individual features to adversarial perturbations. We demonstrate that, under the assumption of Lipschitz continuity, both problems can be approximated using finite optimisation by discretising the input space, and the approximation has provable guarantees, i.e., the error is bounded. We then show that the resulting optimisation problems can be reduced to the solution of two-player turn-based games, where the first player selects features and the second perturbs the image within the feature. While the second player aims to minimise the distance to an adversarial example, depending on the optimisation objective the first player can be cooperative or competitive. We employ an anytime approach to solve the games, in the sense of approximating the value of a game by monotonically improving its upper and lower bounds. The Monte Carlo tree search algorithm is applied to compute upper bounds for both games, and the Admissible A*and the Alpha-Beta Pruning algorithms are, respectively, used to compute lower bounds for the maximum safety radius and feature robustness games. When working on the upper bound of the maximum safe radius problem, our tool demonstrates competitive performance against existing adversarial example crafting algorithms. Furthermore, we show how our framework can be deployed to evaluate pointwise robustness of neural networks in safety-critical applications such as traffic sign recognition in self-driving cars.</t>
         </is>
       </c>
-      <c r="F178" t="inlineStr">
+      <c r="F169" t="inlineStr">
         <is>
           <t>Automated verification; Deep neural networks; Adversarial examples; Two-player game</t>
         </is>
       </c>
-      <c r="G178" t="inlineStr">
+      <c r="G169" t="inlineStr">
         <is>
           <t>Wu, M., M. Wicker, W. Ruan, X. Huang and M. Kwiatkowska</t>
         </is>
       </c>
-      <c r="H178" t="inlineStr">
+      <c r="H169" t="inlineStr">
         <is>
           <t>Theoretical Computer Science</t>
         </is>
       </c>
-      <c r="I178" t="inlineStr">
+      <c r="I169" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.tcs.2019.05.046</t>
         </is>
       </c>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr">
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr">
         <is>
           <t>298-329</t>
         </is>
       </c>
-      <c r="L178" t="inlineStr"/>
-      <c r="M178" t="inlineStr">
+      <c r="L169" t="inlineStr"/>
+      <c r="M169" t="inlineStr">
         <is>
           <t>Included</t>
         </is>
       </c>
-      <c r="N178" t="inlineStr">
+      <c r="N169" t="inlineStr">
         <is>
           <t>Included</t>
         </is>
       </c>
-      <c r="O178" t="inlineStr">
+      <c r="O169" t="inlineStr">
         <is>
           <t>snowballing</t>
         </is>
       </c>
-      <c r="P178" t="inlineStr"/>
-      <c r="Q178" t="inlineStr"/>
-      <c r="R178" t="n">
+      <c r="P169" t="inlineStr"/>
+      <c r="Q169" t="inlineStr"/>
+      <c r="R169" t="n">
         <v>1</v>
       </c>
-      <c r="S178" t="inlineStr">
-        <is>
-          <t>ScienceDirect</t>
-        </is>
-      </c>
-      <c r="T178" t="n">
+      <c r="S169" t="inlineStr">
+        <is>
+          <t>Science Direct</t>
+        </is>
+      </c>
+      <c r="T169" t="n">
         <v>2018</v>
       </c>
-      <c r="U178" t="inlineStr">
+      <c r="U169" t="inlineStr">
         <is>
           <t>A Game-Based Approximate Verification of Deep Neural Networks with Provable Guarantees</t>
         </is>
       </c>
-      <c r="V178" t="inlineStr">
+      <c r="V169" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.tcs.2019.05.046</t>
         </is>
       </c>
-      <c r="W178" t="inlineStr">
+      <c r="W169" t="inlineStr">
         <is>
           <t>Science Direct</t>
         </is>
       </c>
-      <c r="X178" t="inlineStr">
+      <c r="X169" t="inlineStr">
         <is>
           <t>nan; Authors; References; Year; Bibtex; Link</t>
         </is>
       </c>
     </row>
-    <row r="179">
-      <c r="A179" s="1" t="n">
-        <v>177</v>
-      </c>
-      <c r="B179" t="inlineStr"/>
-      <c r="C179" t="inlineStr">
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="inlineStr"/>
+      <c r="C170" t="inlineStr">
         <is>
           <t>TestNN</t>
         </is>
       </c>
-      <c r="D179" t="inlineStr">
+      <c r="D170" t="inlineStr">
         <is>
           <t>Anchors:high-precision model-agnostic explanations</t>
         </is>
       </c>
-      <c r="E179" t="inlineStr">
+      <c r="E170" t="inlineStr">
         <is>
           <t>We introduce a novel model-agnostic system that explains the behavior of complex models with high-precision rules calledanchors, representing local, "sufficient" conditions for predictions. We propose an algorithm to efficiently compute these explanations for any black-box model with high-probability guarantees. We demonstrate the flexibility of anchors by explaining a myriad of different models for different domains and tasks. In a user study, we show that anchors enable users to predict how a model would behave on unseen instances with less effort and higher precision, as compared to existing linear explanations or no explanations.</t>
         </is>
       </c>
-      <c r="F179" t="inlineStr"/>
-      <c r="G179" t="inlineStr">
+      <c r="F170" t="inlineStr"/>
+      <c r="G170" t="inlineStr">
         <is>
           <t>Marco Tulio Ribeiro; Sameer Singh; Carlos Guestrin</t>
         </is>
       </c>
-      <c r="H179" t="inlineStr">
+      <c r="H170" t="inlineStr">
         <is>
           <t>AAAI'18/IAAI'18/EAAI'18: Proceedings of the Thirty-Second AAAI Conference on Artificial Intelligence and Thirtieth Innovative Applications of Artificial Intelligence Conference and Eighth AAAI Symposium on Educational Advances in Artificial Intelligence</t>
         </is>
       </c>
-      <c r="I179" t="inlineStr">
+      <c r="I170" t="inlineStr">
         <is>
           <t>https://doi.org/10.5555/3504035.3504222</t>
         </is>
       </c>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr">
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr">
         <is>
           <t>1527-1535</t>
         </is>
       </c>
-      <c r="L179" t="inlineStr"/>
-      <c r="M179" t="inlineStr">
+      <c r="L170" t="inlineStr"/>
+      <c r="M170" t="inlineStr">
         <is>
           <t>Included</t>
         </is>
       </c>
-      <c r="N179" t="inlineStr">
+      <c r="N170" t="inlineStr">
         <is>
           <t>Included</t>
         </is>
       </c>
-      <c r="O179" t="inlineStr">
+      <c r="O170" t="inlineStr">
         <is>
           <t>snowballing</t>
         </is>
       </c>
-      <c r="P179" t="inlineStr"/>
-      <c r="Q179" t="inlineStr"/>
-      <c r="R179" t="n">
+      <c r="P170" t="inlineStr"/>
+      <c r="Q170" t="inlineStr"/>
+      <c r="R170" t="n">
         <v>1</v>
       </c>
-      <c r="S179" t="inlineStr">
+      <c r="S170" t="inlineStr">
         <is>
           <t>ACM</t>
         </is>
       </c>
-      <c r="T179" t="n">
+      <c r="T170" t="n">
         <v>2018</v>
       </c>
-      <c r="U179" t="inlineStr">
+      <c r="U170" t="inlineStr">
         <is>
           <t>Anchors: High-precision model-agnostic explanations</t>
         </is>
       </c>
-      <c r="V179" t="inlineStr">
+      <c r="V170" t="inlineStr">
         <is>
           <t>https://doi.org/10.5555/3504035.3504222</t>
         </is>
       </c>
-      <c r="W179" t="inlineStr">
+      <c r="W170" t="inlineStr">
         <is>
           <t>AAAI Press</t>
         </is>
       </c>
-      <c r="X179" t="inlineStr">
+      <c r="X170" t="inlineStr">
         <is>
           <t>nan; Keywords; References; Year; Bibtex; Link</t>
         </is>
       </c>
     </row>
-    <row r="180">
-      <c r="A180" s="1" t="n">
-        <v>178</v>
-      </c>
-      <c r="B180" t="inlineStr"/>
-      <c r="C180" t="inlineStr">
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="inlineStr"/>
+      <c r="C171" t="inlineStr">
         <is>
           <t>TestNN</t>
         </is>
       </c>
-      <c r="D180" t="inlineStr">
+      <c r="D171" t="inlineStr">
         <is>
           <t>Global-and-local attention networks for visual recognition</t>
         </is>
       </c>
-      <c r="E180" t="inlineStr"/>
-      <c r="F180" t="inlineStr"/>
-      <c r="G180" t="inlineStr">
-        <is>
-          <t>Linsley, D., D. Scheibler, S. Eberhardt and T. Serre</t>
-        </is>
-      </c>
-      <c r="H180" t="inlineStr"/>
-      <c r="I180" t="inlineStr"/>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
-      <c r="M180" t="inlineStr">
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>Most recent gains in machine vision have originated from the development of network architectures which incorporate some form of attention. While biology is sometimes mentioned as a source of inspiration, the attentional mechanisms that have been considered by the computer vision community remain limited in comparison to the richness and diversity of the processes used by our visual system. Here, we describe a biologicallymotivated i? 1/2global-and-local attentioni? 1/2 (GALA) module which is shown to yield state-of-the-art object recognition accuracy when embedded in a modern deep neural network. We further describe ClickMe.ai, a largescale online experiment designed for human participants to identify diagnostic image regions for visual recognition in order to co-train a GALA network. Adding humans-inthe-loop is shown to significantly improve network accuracy, while also yielding visual representations that are more interpretable and more similar to those used by human observers.</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>Object recognition; deep learning; biological vision; human-in-the-loop machine learning; visual features</t>
+        </is>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>Linsley, D., D. Scheibler, S. Eberhardt; T. Serre</t>
+        </is>
+      </c>
+      <c r="H171" t="inlineStr">
+        <is>
+          <t>Benefits, 2018</t>
+        </is>
+      </c>
+      <c r="I171" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="J171" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="L171" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="M171" t="inlineStr">
         <is>
           <t>Included</t>
         </is>
       </c>
-      <c r="N180" t="inlineStr">
+      <c r="N171" t="inlineStr">
         <is>
           <t>Included</t>
         </is>
       </c>
-      <c r="O180" t="inlineStr">
+      <c r="O171" t="inlineStr">
         <is>
           <t>snowballing</t>
         </is>
       </c>
-      <c r="P180" t="inlineStr"/>
-      <c r="Q180" t="inlineStr"/>
-      <c r="R180" t="n">
+      <c r="P171" t="inlineStr"/>
+      <c r="Q171" t="inlineStr"/>
+      <c r="R171" t="n">
         <v>1</v>
       </c>
-      <c r="S180" t="inlineStr"/>
-      <c r="T180" t="n">
+      <c r="S171" t="inlineStr">
+        <is>
+          <t>Google Scholar</t>
+        </is>
+      </c>
+      <c r="T171" t="n">
         <v>2018</v>
       </c>
-      <c r="U180" t="inlineStr"/>
-      <c r="V180" t="inlineStr"/>
-      <c r="W180" t="inlineStr"/>
-      <c r="X180" t="inlineStr"/>
+      <c r="U171" t="inlineStr">
+        <is>
+          <t>Global-and-local attention networks for visual recognition</t>
+        </is>
+      </c>
+      <c r="V171" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="W171" t="inlineStr">
+        <is>
+          <t>CCNeuro</t>
+        </is>
+      </c>
+      <c r="X171" t="inlineStr"/>
     </row>
-    <row r="181">
-      <c r="A181" s="1" t="n">
-        <v>179</v>
-      </c>
-      <c r="B181" t="inlineStr"/>
-      <c r="C181" t="inlineStr">
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="inlineStr"/>
+      <c r="C172" t="inlineStr">
         <is>
           <t>TestNN</t>
         </is>
       </c>
-      <c r="D181" t="inlineStr">
+      <c r="D172" t="inlineStr">
         <is>
           <t>Interpreting Deep Classifier by Visual Distillation of Dark Knowledge</t>
         </is>
       </c>
-      <c r="E181" t="inlineStr">
+      <c r="E172" t="inlineStr">
         <is>
           <t>Abstract:Interpreting black box classifiers, such as deep networks, allows an analyst to validate a classifier before it is deployed in a high-stakes setting. A natural idea is to visualize the deep network's representations, so as to "see what the network sees". In this paper, we demonstrate that standard dimension reduction methods in this setting can yield uninformative or even misleading visualizations. Instead, we present DarkSight, which visually summarizes the predictions of a classifier in a way inspired by notion of dark knowledge. DarkSight embeds the data points into a low-dimensional space such that it is easy to compress the deep classifier into a simpler one, essentially combining model compression and dimension reduction. We compare DarkSight against t-SNE both qualitatively and quantitatively, demonstrating that DarkSight visualizations are more informative. Our method additionally yields a new confidence measure based on dark knowledge by quantifying how unusual a given vector of predictions is.</t>
         </is>
       </c>
-      <c r="F181" t="inlineStr"/>
-      <c r="G181" t="inlineStr">
+      <c r="F172" t="inlineStr"/>
+      <c r="G172" t="inlineStr">
         <is>
           <t>Kai Xu; Dae Hoon Park; Chang Yi; Charles Sutton</t>
         </is>
       </c>
-      <c r="H181" t="inlineStr">
+      <c r="H172" t="inlineStr">
         <is>
           <t>arXiv</t>
         </is>
       </c>
-      <c r="I181" t="inlineStr">
+      <c r="I172" t="inlineStr">
         <is>
           <t>https://doi.org/10.48550/arXiv.1803.04042</t>
         </is>
       </c>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr"/>
-      <c r="M181" t="inlineStr">
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
+      <c r="L172" t="inlineStr"/>
+      <c r="M172" t="inlineStr">
         <is>
           <t>Included</t>
         </is>
       </c>
-      <c r="N181" t="inlineStr">
+      <c r="N172" t="inlineStr">
         <is>
           <t>Included</t>
         </is>
       </c>
-      <c r="O181" t="inlineStr">
+      <c r="O172" t="inlineStr">
         <is>
           <t>snowballing</t>
         </is>
       </c>
-      <c r="P181" t="inlineStr"/>
-      <c r="Q181" t="inlineStr"/>
-      <c r="R181" t="n">
+      <c r="P172" t="inlineStr"/>
+      <c r="Q172" t="inlineStr"/>
+      <c r="R172" t="n">
         <v>1</v>
       </c>
-      <c r="S181" t="inlineStr">
+      <c r="S172" t="inlineStr">
         <is>
           <t>arXiv</t>
         </is>
       </c>
-      <c r="T181" t="n">
+      <c r="T172" t="n">
         <v>2018</v>
       </c>
-      <c r="U181" t="inlineStr">
+      <c r="U172" t="inlineStr">
         <is>
           <t>Interpreting Deep Classifier by Visual Distillation of Dark Knowledge</t>
         </is>
       </c>
-      <c r="V181" t="inlineStr">
+      <c r="V172" t="inlineStr">
         <is>
           <t>https://doi.org/10.48550/arXiv.1803.04042</t>
         </is>
       </c>
-      <c r="W181" t="inlineStr"/>
-      <c r="X181" t="inlineStr">
+      <c r="W172" t="inlineStr"/>
+      <c r="X172" t="inlineStr">
         <is>
           <t>nan; Keywords; References; Pages; Year; Bibtex; Link; Publisher</t>
         </is>
       </c>
     </row>
-    <row r="182">
-      <c r="A182" s="1" t="n">
-        <v>180</v>
-      </c>
-      <c r="B182" t="inlineStr"/>
-      <c r="C182" t="inlineStr">
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="inlineStr"/>
+      <c r="C173" t="inlineStr">
         <is>
           <t>TestNN</t>
         </is>
       </c>
-      <c r="D182" t="inlineStr">
+      <c r="D173" t="inlineStr">
         <is>
           <t>Learning Functional Causal Models with Generative Neural Networks</t>
         </is>
       </c>
-      <c r="E182" t="inlineStr">
+      <c r="E173" t="inlineStr">
         <is>
           <t>We introduce a new approach to functional causal modeling from observational data, calledCausal Generative Neural Networks(CGNN). CGNN leverages the power of neural networks to learn a generative model of the joint distribution of the observed variables, by minimizing the Maximum Mean Discrepancy between generated and observed data. An approximate learning criterion is proposed to scale the computational cost of the approach to linear complexity in the number of observations. The performance of CGNN is studied throughout three experiments. Firstly, CGNN is applied to cause-effect inference, where the task is to identify the best causal hypothesis out of "X-Y" and "Y-X". Secondly, CGNN is applied to the problem of identifying v-structures and conditional independences. Thirdly, CGNN is applied to multivariate functional causal modeling: given a skeleton describing the direct dependences in a set of random variablesX= [X1, ...,Xd], CGNN orients the edges in the skeleton to uncover the directed acyclic causal graph describing the causal structure of the random variables. On all three tasks, CGNN is extensively assessed on both artificial and real-world data, comparing favorably to the state-of-the-art. Finally, CGNN is extended to handle the case of confounders, where latent variables are involved in the overall causal model.</t>
         </is>
       </c>
-      <c r="F182" t="inlineStr">
+      <c r="F173" t="inlineStr">
         <is>
           <t>Generative neural networks; Causal structure discovery; Cause-effect pair problem; Functional causal models; Structural equation models</t>
         </is>
       </c>
-      <c r="G182" t="inlineStr">
+      <c r="G173" t="inlineStr">
         <is>
           <t>Olivier Goudet; Diviyan Kalainathan; Philippe Caillou; Isabelle Guyon,; David Lopez-Paz; Michele Sebag</t>
         </is>
       </c>
-      <c r="H182" t="inlineStr">
+      <c r="H173" t="inlineStr">
         <is>
           <t>Explainable and Interpretable Models in Computer Vision and Machine Learning</t>
         </is>
       </c>
-      <c r="I182" t="inlineStr">
+      <c r="I173" t="inlineStr">
         <is>
           <t>https://doi.org/10.1007/978-3-319-98131-4_3</t>
         </is>
       </c>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr">
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr">
         <is>
           <t>pp 39-80</t>
         </is>
       </c>
-      <c r="L182" t="inlineStr"/>
-      <c r="M182" t="inlineStr">
+      <c r="L173" t="inlineStr"/>
+      <c r="M173" t="inlineStr">
         <is>
           <t>Excluded</t>
         </is>
       </c>
-      <c r="N182" t="inlineStr">
+      <c r="N173" t="inlineStr">
         <is>
           <t>Excluded</t>
         </is>
       </c>
-      <c r="O182" t="inlineStr">
+      <c r="O173" t="inlineStr">
         <is>
           <t>snowballing</t>
         </is>
       </c>
-      <c r="P182" t="inlineStr"/>
-      <c r="Q182" t="inlineStr">
+      <c r="P173" t="inlineStr"/>
+      <c r="Q173" t="inlineStr">
         <is>
           <t>Exclusion: not aiming at testing/verification approach</t>
         </is>
       </c>
-      <c r="R182" t="n">
+      <c r="R173" t="n">
         <v>1</v>
       </c>
-      <c r="S182" t="inlineStr">
-        <is>
-          <t>SpringerLink</t>
-        </is>
-      </c>
-      <c r="T182" t="n">
+      <c r="S173" t="inlineStr">
+        <is>
+          <t>Springer Link</t>
+        </is>
+      </c>
+      <c r="T173" t="n">
         <v>2018</v>
       </c>
-      <c r="U182" t="inlineStr">
+      <c r="U173" t="inlineStr">
         <is>
           <t>Learning functional causal models with generative neural networks</t>
         </is>
       </c>
-      <c r="V182" t="inlineStr">
+      <c r="V173" t="inlineStr">
         <is>
           <t>https://doi.org/10.1007/978-3-319-98131-4_3</t>
         </is>
       </c>
-      <c r="W182" t="inlineStr">
+      <c r="W173" t="inlineStr">
         <is>
           <t>Springer, Cham</t>
         </is>
       </c>
-      <c r="X182" t="inlineStr">
+      <c r="X173" t="inlineStr">
         <is>
           <t>nan; References; Year; Bibtex; Link</t>
         </is>
       </c>
     </row>
-    <row r="183">
-      <c r="A183" s="1" t="n">
-        <v>181</v>
-      </c>
-      <c r="B183" t="inlineStr"/>
-      <c r="C183" t="inlineStr">
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="inlineStr"/>
+      <c r="C174" t="inlineStr">
         <is>
           <t>TestNN</t>
         </is>
       </c>
-      <c r="D183" t="inlineStr">
+      <c r="D174" t="inlineStr">
         <is>
           <t>Learning Global Additive Explanations for Neural Nets Using Model Distillation</t>
         </is>
       </c>
-      <c r="E183" t="inlineStr"/>
-      <c r="F183" t="inlineStr"/>
-      <c r="G183" t="inlineStr">
-        <is>
-          <t>Tan, S., R. Caruana, G. Hooker, P. Koch and A. Gordo</t>
-        </is>
-      </c>
-      <c r="H183" t="inlineStr"/>
-      <c r="I183" t="inlineStr"/>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr"/>
-      <c r="M183" t="inlineStr">
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>Interpretability has largely focused on local explanations, i.e. explaining why a model made a particular prediction for a sample. These explanations are appealing due to their simplicity and local fidelity. However, they do not provide information about the general behavior of the model. We propose to leverage model distillation to learn global additive explanations that describe the relationship between input features and model predictions. These global explanations take the form of feature shapes, which are more expressive than feature attributions. Through careful experimentation, we show qualitatively and quantitatively that global additive explanations are able to describe model behavior and yield insights about models such as neural nets. A visualization of our approach applied to a neural net as it is trained is available at https://youtu.be/ErQYwNqzEdc.</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>Tan, S., R. Caruana, G. Hooker, P. Koch; A. Gordo</t>
+        </is>
+      </c>
+      <c r="H174" t="inlineStr">
+        <is>
+          <t>Machine Learning for Health (ML4H) Workshop at NeurIPS 2018.</t>
+        </is>
+      </c>
+      <c r="I174" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="J174" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="L174" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="M174" t="inlineStr">
         <is>
           <t>Included</t>
         </is>
       </c>
-      <c r="N183" t="inlineStr">
+      <c r="N174" t="inlineStr">
         <is>
           <t>Included</t>
         </is>
       </c>
-      <c r="O183" t="inlineStr">
+      <c r="O174" t="inlineStr">
         <is>
           <t>snowballing</t>
         </is>
       </c>
-      <c r="P183" t="inlineStr"/>
-      <c r="Q183" t="inlineStr"/>
-      <c r="R183" t="n">
+      <c r="P174" t="inlineStr"/>
+      <c r="Q174" t="inlineStr"/>
+      <c r="R174" t="n">
         <v>1</v>
       </c>
-      <c r="S183" t="inlineStr"/>
-      <c r="T183" t="n">
+      <c r="S174" t="inlineStr">
+        <is>
+          <t>Google Scholar</t>
+        </is>
+      </c>
+      <c r="T174" t="n">
         <v>2018</v>
       </c>
-      <c r="U183" t="inlineStr"/>
-      <c r="V183" t="inlineStr"/>
-      <c r="W183" t="inlineStr"/>
-      <c r="X183" t="inlineStr"/>
+      <c r="U174" t="inlineStr">
+        <is>
+          <t>Learning Global Additive Explanations for Neural Nets Using Model Distillation</t>
+        </is>
+      </c>
+      <c r="V174" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="W174" t="inlineStr">
+        <is>
+          <t>Microsoft Research</t>
+        </is>
+      </c>
+      <c r="X174" t="inlineStr"/>
     </row>
-    <row r="184">
-      <c r="A184" s="1" t="n">
-        <v>182</v>
-      </c>
-      <c r="B184" t="inlineStr"/>
-      <c r="C184" t="inlineStr">
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="inlineStr"/>
+      <c r="C175" t="inlineStr">
         <is>
           <t>TestNN</t>
         </is>
       </c>
-      <c r="D184" t="inlineStr">
+      <c r="D175" t="inlineStr">
         <is>
           <t>Learning how to explain neural networks: Patternnet and Patternattribution</t>
         </is>
       </c>
-      <c r="E184" t="inlineStr">
+      <c r="E175" t="inlineStr">
         <is>
           <t>DeConvNet, Guided BackProp, LRP, were invented to better understand deep neural networks. We show that these methods do not produce the theoretically correct explanation for a linear model. Yet they are used on multi-layer networks with millions of parameters. This is a cause for concern since linear models are simple neural networks. We argue that explanation methods for neural nets should work reliably in the limit of simplicity, the linear models. Based on our analysis of linear models we propose a generalization that yields two explanation techniques (PatternNet and PatternAttribution) that are theoretically sound for linear models and produce improved explanations for deep networks.</t>
         </is>
       </c>
-      <c r="F184" t="inlineStr">
+      <c r="F175" t="inlineStr">
         <is>
           <t>Network layers; Linear modeling; Multi-layer network; Deep neural networks</t>
         </is>
       </c>
-      <c r="G184" t="inlineStr">
+      <c r="G175" t="inlineStr">
         <is>
           <t>Kindermans, Pieter-Jan; Schutt, Kristof T.; Alber, Maximilian; Muller, Klaus-Robert; Erhan, Dumitru; Kim, Been; Dahne, Sven</t>
         </is>
       </c>
-      <c r="H184" t="inlineStr">
+      <c r="H175" t="inlineStr">
         <is>
           <t>6th International Conference on Learning Representations, ICLR 2018 - Conference Track Proceedings</t>
         </is>
       </c>
-      <c r="I184" t="inlineStr">
+      <c r="I175" t="inlineStr">
         <is>
           <t>https://www.scopus.com/record/display.uri?eid=2-s2.0-85083950751&amp;origin=resultslist&amp;sort=plf-f&amp;src=s&amp;sid=75a191a30f0c62ba1fab80e682b081fd&amp;sot=b&amp;sdt=b&amp;s=TITLE-ABS-KEY%28learning+how+to+explain+neural+networks+patternnet+and+patternattribution%29&amp;sl=88&amp;sessionSearchId=75a191a30f0c62ba1fab80e682b081fd&amp;relpos=0</t>
         </is>
       </c>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr">
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
+      <c r="L175" t="inlineStr">
         <is>
           <t>@CONFERENCE{Kindermans2018,
     author = "Kindermans, Pieter-Jan and Schutt, Kristof T. and Alber, Maximilian and Muller, Klaus-Robert and Erhan, Dumitru and Kim, Been and Dahne, Sven",
@@ -19548,134 +19151,134 @@
 }</t>
         </is>
       </c>
-      <c r="M184" t="inlineStr">
+      <c r="M175" t="inlineStr">
         <is>
           <t>Included</t>
         </is>
       </c>
-      <c r="N184" t="inlineStr">
+      <c r="N175" t="inlineStr">
         <is>
           <t>Included</t>
         </is>
       </c>
-      <c r="O184" t="inlineStr">
+      <c r="O175" t="inlineStr">
         <is>
           <t>snowballing</t>
         </is>
       </c>
-      <c r="P184" t="inlineStr"/>
-      <c r="Q184" t="inlineStr"/>
-      <c r="R184" t="n">
+      <c r="P175" t="inlineStr"/>
+      <c r="Q175" t="inlineStr"/>
+      <c r="R175" t="n">
         <v>1</v>
       </c>
-      <c r="S184" t="inlineStr">
+      <c r="S175" t="inlineStr">
         <is>
           <t>Scopus Signed In</t>
         </is>
       </c>
-      <c r="T184" t="n">
+      <c r="T175" t="n">
         <v>2018</v>
       </c>
-      <c r="U184" t="inlineStr">
+      <c r="U175" t="inlineStr">
         <is>
           <t>Learning how to explain neural networks: Patternnet and patternattribution</t>
         </is>
       </c>
-      <c r="V184" t="inlineStr">
+      <c r="V175" t="inlineStr">
         <is>
           <t>https://www.scopus.com/record/display.uri?eid=2-s2.0-85083950751&amp;origin=resultslist&amp;sort=plf-f&amp;src=s&amp;sid=75a191a30f0c62ba1fab80e682b081fd&amp;sot=b&amp;sdt=b&amp;s=TITLE-ABS-KEY%28learning+how+to+explain+neural+networks+patternnet+and+patternattribution%29&amp;sl=88&amp;sessionSearchId=75a191a30f0c62ba1fab80e682b081fd&amp;relpos=0</t>
         </is>
       </c>
-      <c r="W184" t="inlineStr">
+      <c r="W175" t="inlineStr">
         <is>
           <t>International Conference on Learning Representations, ICLR</t>
         </is>
       </c>
-      <c r="X184" t="inlineStr">
+      <c r="X175" t="inlineStr">
         <is>
           <t>nan; References; Pages</t>
         </is>
       </c>
     </row>
-    <row r="185">
-      <c r="A185" s="1" t="n">
-        <v>183</v>
-      </c>
-      <c r="B185" t="inlineStr"/>
-      <c r="C185" t="inlineStr">
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="inlineStr"/>
+      <c r="C176" t="inlineStr">
         <is>
           <t>TestNN</t>
         </is>
       </c>
-      <c r="D185" t="inlineStr">
+      <c r="D176" t="inlineStr">
         <is>
           <t>Local Rule-Based Explanations of Black Box Decision Systems</t>
         </is>
       </c>
-      <c r="E185" t="inlineStr">
+      <c r="E176" t="inlineStr">
         <is>
           <t>Abstract:The recent years have witnessed the rise of accurate but obscure decision systems which hide the logic of their internal decision processes to the users. The lack of explanations for the decisions of black box systems is a key ethical issue, and a limitation to the adoption of machine learning components in socially sensitive and safety-critical contexts. %Therefore, we need explanations that reveals the reasons why a predictor takes a certain decision. In this paper we focus on the problem of black box outcome explanation, i.e., explaining the reasons of the decision taken on a specific instance. We propose LORE, an agnostic method able to provide interpretable and faithful explanations. LORE first leans a local interpretable predictor on a synthetic neighborhood generated by a genetic algorithm. Then it derives from the logic of the local interpretable predictor a meaningful explanation consisting of: a decision rule, which explains the reasons of the decision; and a set of counterfactual rules, suggesting the changes in the instance's features that lead to a different outcome. Wide experiments show that LORE outperforms existing methods and baselines both in the quality of explanations and in the accuracy in mimicking the black box.</t>
         </is>
       </c>
-      <c r="F185" t="inlineStr"/>
-      <c r="G185" t="inlineStr">
+      <c r="F176" t="inlineStr"/>
+      <c r="G176" t="inlineStr">
         <is>
           <t>Riccardo Guidotti; Anna Monreale; Salvatore Ruggieri; Dino Pedreschi; Franco Turini; Fosca Giannotti</t>
         </is>
       </c>
-      <c r="H185" t="inlineStr">
+      <c r="H176" t="inlineStr">
         <is>
           <t>arXiv</t>
         </is>
       </c>
-      <c r="I185" t="inlineStr">
+      <c r="I176" t="inlineStr">
         <is>
           <t>https://doi.org/10.48550/arXiv.1805.10820</t>
         </is>
       </c>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr"/>
-      <c r="M185" t="inlineStr">
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
+      <c r="L176" t="inlineStr"/>
+      <c r="M176" t="inlineStr">
         <is>
           <t>Included</t>
         </is>
       </c>
-      <c r="N185" t="inlineStr">
+      <c r="N176" t="inlineStr">
         <is>
           <t>Included</t>
         </is>
       </c>
-      <c r="O185" t="inlineStr">
+      <c r="O176" t="inlineStr">
         <is>
           <t>snowballing</t>
         </is>
       </c>
-      <c r="P185" t="inlineStr"/>
-      <c r="Q185" t="inlineStr"/>
-      <c r="R185" t="n">
+      <c r="P176" t="inlineStr"/>
+      <c r="Q176" t="inlineStr"/>
+      <c r="R176" t="n">
         <v>1</v>
       </c>
-      <c r="S185" t="inlineStr">
+      <c r="S176" t="inlineStr">
         <is>
           <t>arXiv</t>
         </is>
       </c>
-      <c r="T185" t="n">
+      <c r="T176" t="n">
         <v>2018</v>
       </c>
-      <c r="U185" t="inlineStr">
+      <c r="U176" t="inlineStr">
         <is>
           <t>Local rule-based explanations of black box decision systems</t>
         </is>
       </c>
-      <c r="V185" t="inlineStr">
+      <c r="V176" t="inlineStr">
         <is>
           <t>https://doi.org/10.48550/arXiv.1805.10820</t>
         </is>
       </c>
-      <c r="W185" t="inlineStr"/>
-      <c r="X185" t="inlineStr">
+      <c r="W176" t="inlineStr"/>
+      <c r="X176" t="inlineStr">
         <is>
           <t>nan; Keywords; References; Pages; Year; Bibtex; Link; Publisher</t>
         </is>

--- a/Datasets/TestNN/TestNN.xlsx
+++ b/Datasets/TestNN/TestNN.xlsx
@@ -16571,7 +16571,7 @@
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>https://www.cleverhans.io/security/privacy/ml/2017/06/14/verification.html</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
@@ -16628,7 +16628,7 @@
       </c>
       <c r="V149" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>https://www.cleverhans.io/security/privacy/ml/2017/06/14/verification.html</t>
         </is>
       </c>
       <c r="W149" t="inlineStr">
@@ -18741,7 +18741,7 @@
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>https://ccneuro.org/2018/proceedings/1113.pdf</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
@@ -18794,7 +18794,7 @@
       </c>
       <c r="V171" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>https://ccneuro.org/2018/proceedings/1113.pdf</t>
         </is>
       </c>
       <c r="W171" t="inlineStr">
@@ -19025,7 +19025,7 @@
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>https://d1wqtxts1xzle7.cloudfront.net/84730300/1801.08640v2-libre.pdf?1650716563=&amp;response-content-disposition=inline%3B+filename%3DDifference_in_Outcome_Following_Surgery.pdf&amp;Expires=1724341634&amp;Signature=P8gCJ5C4wPm0b7suGLKMK~tuR6VWQVLwNrkhvx1ckOC~~E9zgyt44vfiWdmFJA8zyZ4XM4kdnk4DFRBMiDoYycYj4jO22UJqkVahDJ18Tts2~tP5lTj3S8TSQuwB6QWYC-10Y83Sc8ywR0tOKnH0bIRMvN3MXoY4S4Xoc5RjB~mNKuZYFcx~YDXvEtoqdOpKgAaqhQ6VbGfNA4nnJfl3OZkdPv4kOcVx9yGnUsEjXd5baPfgXWUzupXUH9niK7jV~oz6V3k4PVeaPIq0wMeTLoMGGKOlXsk-QPuhPG6sIaEnF0wAg9CZx1s7nn9aHx9h0dSc9~n7WHXrzUPoVdJewQ__&amp;Key-Pair-Id=APKAJLOHF5GGSLRBV4ZA</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
@@ -19078,7 +19078,7 @@
       </c>
       <c r="V174" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>https://d1wqtxts1xzle7.cloudfront.net/84730300/1801.08640v2-libre.pdf?1650716563=&amp;response-content-disposition=inline%3B+filename%3DDifference_in_Outcome_Following_Surgery.pdf&amp;Expires=1724341634&amp;Signature=P8gCJ5C4wPm0b7suGLKMK~tuR6VWQVLwNrkhvx1ckOC~~E9zgyt44vfiWdmFJA8zyZ4XM4kdnk4DFRBMiDoYycYj4jO22UJqkVahDJ18Tts2~tP5lTj3S8TSQuwB6QWYC-10Y83Sc8ywR0tOKnH0bIRMvN3MXoY4S4Xoc5RjB~mNKuZYFcx~YDXvEtoqdOpKgAaqhQ6VbGfNA4nnJfl3OZkdPv4kOcVx9yGnUsEjXd5baPfgXWUzupXUH9niK7jV~oz6V3k4PVeaPIq0wMeTLoMGGKOlXsk-QPuhPG6sIaEnF0wAg9CZx1s7nn9aHx9h0dSc9~n7WHXrzUPoVdJewQ__&amp;Key-Pair-Id=APKAJLOHF5GGSLRBV4ZA</t>
         </is>
       </c>
       <c r="W174" t="inlineStr">
